--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -112,16 +112,16 @@
     <t>Hertha Berlin II</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>Lichtenberg 47</t>
   </si>
   <si>
     <t>Berliner AK 07</t>
   </si>
   <si>
-    <t>Lichtenberg 47</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
     <t>Vfb Germania Halberstadt</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC345"/>
+  <dimension ref="A1:AC343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6050219</v>
+        <v>6094312</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -925,25 +925,25 @@
         <v>51</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.9</v>
@@ -952,34 +952,34 @@
         <v>1.9</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6094312</v>
+        <v>6050223</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1020,55 +1020,55 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6050223</v>
+        <v>6050219</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1192,61 +1192,61 @@
         <v>51</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M8">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P8">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <v>-2</v>
+      </c>
+      <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.875</v>
-      </c>
-      <c r="S8">
-        <v>1.925</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>44955.5</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5245897</v>
+        <v>5245367</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,76 +2067,76 @@
         <v>44960.625</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="N18">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O18">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q18">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5245367</v>
+        <v>5245897</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,76 +2156,76 @@
         <v>44960.625</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="N19">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P19">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
+        <v>1.925</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.95</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>44960.625</v>
       </c>
       <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5245894</v>
+        <v>5246950</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44962.375</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.833</v>
+        <v>4.8</v>
       </c>
       <c r="N23">
+        <v>1.8</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
         <v>4</v>
       </c>
-      <c r="O23">
-        <v>3.8</v>
-      </c>
-      <c r="P23">
-        <v>1.65</v>
-      </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5246950</v>
+        <v>5245894</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,76 +2601,76 @@
         <v>44962.375</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.8</v>
+        <v>1.833</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q24">
+        <v>0.75</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>1.85</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.975</v>
+      </c>
+      <c r="V24">
+        <v>1.825</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z24">
         <v>-0.5</v>
       </c>
-      <c r="R24">
-        <v>1.8</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>1.9</v>
-      </c>
-      <c r="V24">
-        <v>1.9</v>
-      </c>
-      <c r="W24">
-        <v>0.8</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0.8</v>
-      </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>44967.625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3405,7 +3405,7 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -3583,7 +3583,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5245910</v>
+        <v>5246948</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,76 +3758,76 @@
         <v>44974.625</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L37">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="N37">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5246948</v>
+        <v>5245910</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,76 +3847,76 @@
         <v>44974.625</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M38">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q38">
+        <v>0.75</v>
+      </c>
+      <c r="R38">
+        <v>1.8</v>
+      </c>
+      <c r="S38">
+        <v>2.05</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>0.8</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>2.025</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.975</v>
-      </c>
-      <c r="W38">
-        <v>0.95</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>1.025</v>
-      </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4114,10 +4114,10 @@
         <v>44975.375</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6193269</v>
+        <v>6237152</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,73 +4737,73 @@
         <v>44979.625</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
         <v>3.75</v>
       </c>
       <c r="M48">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N48">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q48">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6237152</v>
+        <v>6193269</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,73 +4826,73 @@
         <v>44979.625</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="L49">
         <v>3.75</v>
       </c>
       <c r="M49">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R49">
+        <v>1.85</v>
+      </c>
+      <c r="S49">
         <v>1.95</v>
       </c>
-      <c r="S49">
-        <v>1.75</v>
-      </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA49">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4918,7 +4918,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5093,10 +5093,10 @@
         <v>44981.625</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5437,7 +5437,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5245912</v>
+        <v>5245369</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5449,76 +5449,76 @@
         <v>44983.375</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N56">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O56">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5245369</v>
+        <v>5245912</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>44983.375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3.25</v>
+      </c>
+      <c r="P57">
+        <v>2.45</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>1.95</v>
       </c>
-      <c r="O57">
-        <v>3.3</v>
-      </c>
-      <c r="P57">
-        <v>3.4</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
       <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
         <v>1.8</v>
       </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.875</v>
-      </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X57">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>0.8</v>
       </c>
-      <c r="AB57">
-        <v>-1</v>
-      </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>44983.375</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5244199</v>
+        <v>5245921</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>44988.625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61">
+        <v>1.222</v>
+      </c>
+      <c r="L61">
+        <v>5.5</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>1.285</v>
+      </c>
+      <c r="O61">
+        <v>4.75</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61">
+        <v>-1.5</v>
+      </c>
+      <c r="R61">
+        <v>1.8</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
+        <v>1.825</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>3.75</v>
+      </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61">
-        <v>2.55</v>
-      </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>2.45</v>
-      </c>
-      <c r="N61">
-        <v>2.9</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>2.1</v>
-      </c>
-      <c r="Q61">
-        <v>0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.875</v>
-      </c>
-      <c r="S61">
-        <v>1.925</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.825</v>
-      </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>1.1</v>
-      </c>
-      <c r="Z61">
-        <v>-1</v>
-      </c>
-      <c r="AA61">
-        <v>0.925</v>
-      </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5245921</v>
+        <v>5244199</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>44988.625</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6072,7 +6072,7 @@
         <v>44989.375</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6431,7 +6431,7 @@
         <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>44997.5</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>43</v>
@@ -6787,7 +6787,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5245932</v>
+        <v>5246944</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,49 +7051,49 @@
         <v>45003.375</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
         <v>1.95</v>
@@ -7108,19 +7108,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7128,7 +7128,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5246944</v>
+        <v>5245932</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7140,49 +7140,49 @@
         <v>45003.375</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>52</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="N75">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
         <v>1.95</v>
@@ -7197,19 +7197,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7232,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7410,7 +7410,7 @@
         <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>45006.625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -7852,7 +7852,7 @@
         <v>45010.375</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
@@ -7944,7 +7944,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8119,7 +8119,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8297,7 +8297,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -8831,7 +8831,7 @@
         <v>45018.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -9012,7 +9012,7 @@
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9101,7 +9101,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9810,7 +9810,7 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5245949</v>
+        <v>5245952</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,10 +9899,10 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9914,37 +9914,37 @@
         <v>51</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M106">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="N106">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
         <v>1.975</v>
@@ -9953,19 +9953,19 @@
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5245952</v>
+        <v>5245949</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,10 +9988,10 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10003,37 +10003,37 @@
         <v>51</v>
       </c>
       <c r="K107">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="N107">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
         <v>1.975</v>
@@ -10042,19 +10042,19 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10077,7 +10077,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -10166,7 +10166,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10700,7 +10700,7 @@
         <v>45035.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10881,7 +10881,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10970,7 +10970,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11946,7 +11946,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -12124,7 +12124,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12750,7 +12750,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12839,7 +12839,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12928,7 +12928,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5462005</v>
+        <v>5465525</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,64 +13281,64 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
         <v>3.5</v>
-      </c>
-      <c r="P144">
-        <v>3.8</v>
       </c>
       <c r="Q144">
         <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
         <v>1.95</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>2.5</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13347,10 +13347,10 @@
         <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5469905</v>
+        <v>5462005</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,61 +13370,61 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
         <v>1.95</v>
       </c>
-      <c r="S145">
-        <v>1.75</v>
-      </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
+        <v>1.9</v>
+      </c>
+      <c r="V145">
         <v>1.95</v>
       </c>
-      <c r="V145">
-        <v>1.85</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13433,13 +13433,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.95</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5465525</v>
+        <v>5469905</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,73 +13459,73 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K146">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N146">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.75</v>
+      </c>
+      <c r="T146">
+        <v>3.25</v>
+      </c>
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
         <v>1.85</v>
       </c>
-      <c r="S146">
-        <v>1.95</v>
-      </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
-        <v>1.9</v>
-      </c>
-      <c r="V146">
-        <v>1.9</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y146">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
+        <v>0.75</v>
+      </c>
+      <c r="AB146">
         <v>0.95</v>
-      </c>
-      <c r="AB146">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13637,7 +13637,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -14085,7 +14085,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5494741</v>
+        <v>5499625</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,55 +14260,55 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
         <v>52</v>
       </c>
       <c r="K155">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L155">
         <v>3.6</v>
       </c>
       <c r="M155">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O155">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P155">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q155">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
         <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.3999999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5494742</v>
+        <v>5494741</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,73 +14349,73 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K156">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5494746</v>
+        <v>5494742</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N157">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q157">
         <v>-1</v>
       </c>
       <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>2.025</v>
+      </c>
+      <c r="V157">
         <v>1.825</v>
       </c>
-      <c r="S157">
-        <v>2.025</v>
-      </c>
-      <c r="T157">
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>3</v>
       </c>
-      <c r="U157">
-        <v>2.05</v>
-      </c>
-      <c r="V157">
-        <v>1.8</v>
-      </c>
-      <c r="W157">
-        <v>0.45</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5499625</v>
+        <v>5494746</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>50</v>
+      </c>
+      <c r="K158">
+        <v>1.4</v>
+      </c>
+      <c r="L158">
+        <v>4.333</v>
+      </c>
+      <c r="M158">
+        <v>6</v>
+      </c>
+      <c r="N158">
+        <v>1.45</v>
+      </c>
+      <c r="O158">
+        <v>4</v>
+      </c>
+      <c r="P158">
+        <v>5.25</v>
+      </c>
+      <c r="Q158">
+        <v>-1</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>2.025</v>
+      </c>
+      <c r="T158">
         <v>3</v>
       </c>
-      <c r="J158" t="s">
-        <v>52</v>
-      </c>
-      <c r="K158">
-        <v>2.25</v>
-      </c>
-      <c r="L158">
-        <v>3.6</v>
-      </c>
-      <c r="M158">
-        <v>2.55</v>
-      </c>
-      <c r="N158">
-        <v>1.65</v>
-      </c>
-      <c r="O158">
-        <v>4.5</v>
-      </c>
-      <c r="P158">
-        <v>3.6</v>
-      </c>
-      <c r="Q158">
-        <v>-0.75</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.95</v>
-      </c>
-      <c r="T158">
-        <v>3.5</v>
-      </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5539840</v>
+        <v>5543723</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,76 +14883,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L162">
         <v>3.6</v>
       </c>
       <c r="M162">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O162">
         <v>3.6</v>
       </c>
       <c r="P162">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q162">
         <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X162">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA162">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5549253</v>
+        <v>5539839</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,13 +14972,13 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -14987,43 +14987,43 @@
         <v>50</v>
       </c>
       <c r="K163">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L163">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N163">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O163">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q163">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
         <v>4</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>0.222</v>
+        <v>0.833</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
         <v>0</v>
       </c>
-      <c r="AA163">
+      <c r="AC163">
         <v>-0</v>
-      </c>
-      <c r="AB163">
-        <v>-1</v>
-      </c>
-      <c r="AC163">
-        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5535608</v>
+        <v>5539840</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,76 +15061,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>51</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L164">
         <v>3.6</v>
       </c>
       <c r="M164">
+        <v>1.95</v>
+      </c>
+      <c r="N164">
+        <v>2.05</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>2.75</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.9</v>
+      </c>
+      <c r="S164">
+        <v>1.9</v>
+      </c>
+      <c r="T164">
         <v>3</v>
       </c>
-      <c r="N164">
-        <v>1.444</v>
-      </c>
-      <c r="O164">
-        <v>5</v>
-      </c>
-      <c r="P164">
-        <v>4.75</v>
-      </c>
-      <c r="Q164">
-        <v>-1</v>
-      </c>
-      <c r="R164">
-        <v>1.675</v>
-      </c>
-      <c r="S164">
-        <v>2.25</v>
-      </c>
-      <c r="T164">
-        <v>4</v>
-      </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>1.25</v>
+        <v>0.45</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5543721</v>
+        <v>5549253</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,49 +15150,49 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>3</v>
-      </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M165">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N165">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P165">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
         <v>1.85</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U165">
         <v>1.85</v>
@@ -15201,25 +15201,25 @@
         <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5543723</v>
+        <v>5535608</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,19 +15239,19 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>2</v>
@@ -15263,52 +15263,52 @@
         <v>3</v>
       </c>
       <c r="N166">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P166">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.675</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>2.25</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U166">
         <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5539839</v>
+        <v>5543721</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167" t="s">
+        <v>52</v>
+      </c>
+      <c r="K167">
+        <v>2.3</v>
+      </c>
+      <c r="L167">
+        <v>3.6</v>
+      </c>
+      <c r="M167">
+        <v>2.45</v>
+      </c>
+      <c r="N167">
+        <v>2.1</v>
+      </c>
+      <c r="O167">
         <v>4</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167" t="s">
-        <v>50</v>
-      </c>
-      <c r="K167">
-        <v>2.2</v>
-      </c>
-      <c r="L167">
-        <v>3.75</v>
-      </c>
-      <c r="M167">
+      <c r="P167">
         <v>2.55</v>
       </c>
-      <c r="N167">
-        <v>1.833</v>
-      </c>
-      <c r="O167">
-        <v>4.333</v>
-      </c>
-      <c r="P167">
-        <v>3</v>
-      </c>
       <c r="Q167">
+        <v>-0.25</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.85</v>
+      </c>
+      <c r="T167">
+        <v>3.25</v>
+      </c>
+      <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
+        <v>1.95</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>1.55</v>
+      </c>
+      <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>1.9</v>
-      </c>
-      <c r="S167">
-        <v>1.9</v>
-      </c>
-      <c r="T167">
-        <v>4</v>
-      </c>
-      <c r="U167">
-        <v>1.875</v>
-      </c>
-      <c r="V167">
-        <v>1.925</v>
-      </c>
-      <c r="W167">
-        <v>0.833</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
-      <c r="Z167">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
-      <c r="AB167">
-        <v>0</v>
-      </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15417,7 +15417,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
@@ -15595,7 +15595,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6880835</v>
+        <v>6880443</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,58 +15773,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>50</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q172">
         <v>0</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="V172">
-        <v>1.975</v>
-      </c>
       <c r="W172">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15833,16 +15833,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6880443</v>
+        <v>6880835</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,58 +15862,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N173">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q173">
         <v>0</v>
       </c>
       <c r="R173">
+        <v>1.8</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
         <v>1.825</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="T173">
-        <v>3</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
       <c r="W173">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15922,16 +15922,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6880834</v>
+        <v>6880123</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,10 +16307,10 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16322,43 +16322,43 @@
         <v>50</v>
       </c>
       <c r="K178">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
         <v>3.5</v>
       </c>
       <c r="M178">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N178">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q178">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>4.75</v>
+        <v>0.833</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16367,13 +16367,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC178">
         <v>-0.5</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6880123</v>
+        <v>6880834</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,10 +16396,10 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16411,43 +16411,43 @@
         <v>50</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L179">
         <v>3.5</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N179">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>0.833</v>
+        <v>4.75</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16456,13 +16456,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AC179">
         <v>-0.5</v>
@@ -16841,7 +16841,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -16930,7 +16930,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
         <v>29</v>
@@ -17378,7 +17378,7 @@
         <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6880841</v>
+        <v>6880128</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,10 +17464,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17479,43 +17479,43 @@
         <v>50</v>
       </c>
       <c r="K191">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M191">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N191">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
+        <v>4.5</v>
+      </c>
+      <c r="Q191">
+        <v>-1.25</v>
+      </c>
+      <c r="R191">
         <v>2.05</v>
       </c>
-      <c r="Q191">
-        <v>0.25</v>
-      </c>
-      <c r="R191">
-        <v>1.9</v>
-      </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
         <v>1.9</v>
       </c>
       <c r="W191">
-        <v>1.875</v>
+        <v>0.45</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17524,16 +17524,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6880839</v>
+        <v>6880841</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>1</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
       <c r="J192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N192">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O192">
         <v>3.5</v>
       </c>
       <c r="P192">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6880128</v>
+        <v>6880839</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K193">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB193">
+        <v>0.5</v>
+      </c>
+      <c r="AC193">
         <v>-0.5</v>
-      </c>
-      <c r="AA193">
-        <v>0.4</v>
-      </c>
-      <c r="AB193">
-        <v>0</v>
-      </c>
-      <c r="AC193">
-        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17823,7 +17823,7 @@
         <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -17998,7 +17998,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
         <v>31</v>
@@ -18087,7 +18087,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>48</v>
@@ -18446,7 +18446,7 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18609,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6880132</v>
+        <v>6880445</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18621,76 +18621,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>52</v>
+      </c>
+      <c r="K204">
+        <v>1.727</v>
+      </c>
+      <c r="L204">
+        <v>3.75</v>
+      </c>
+      <c r="M204">
+        <v>3.75</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
         <v>3</v>
       </c>
-      <c r="I204">
-        <v>3</v>
-      </c>
-      <c r="J204" t="s">
-        <v>51</v>
-      </c>
-      <c r="K204">
-        <v>1.833</v>
-      </c>
-      <c r="L204">
-        <v>4</v>
-      </c>
-      <c r="M204">
-        <v>3.1</v>
-      </c>
-      <c r="N204">
-        <v>1.7</v>
-      </c>
-      <c r="O204">
-        <v>4</v>
-      </c>
-      <c r="P204">
-        <v>3.5</v>
-      </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18698,7 +18698,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6880445</v>
+        <v>6880132</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18710,76 +18710,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
         <v>46</v>
@@ -19511,7 +19511,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>43</v>
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6880853</v>
+        <v>6880136</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,76 +20223,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K222">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M222">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N222">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P222">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB222">
         <v>0</v>
       </c>
-      <c r="AA222">
+      <c r="AC222">
         <v>-0</v>
-      </c>
-      <c r="AB222">
-        <v>-1</v>
-      </c>
-      <c r="AC222">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6880136</v>
+        <v>6880853</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,76 +20312,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K223">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N223">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O223">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T223">
         <v>3</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y223">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6879933</v>
+        <v>6882856</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,49 +20401,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L224">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N224">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P224">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q224">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R224">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U224">
         <v>1.825</v>
@@ -20455,22 +20455,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC224">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6882856</v>
+        <v>6879933</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,49 +20579,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M226">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O226">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P226">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
         <v>1.825</v>
@@ -20633,22 +20633,22 @@
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y226">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20938,7 +20938,7 @@
         <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
         <v>37</v>
@@ -21736,10 +21736,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22347,7 +22347,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6880864</v>
+        <v>6880139</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22359,73 +22359,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
         <v>3</v>
       </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
       <c r="J246" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K246">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M246">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="N246">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P246">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R246">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U246">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z246">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB246">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6880139</v>
+        <v>6880864</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,73 +22537,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K248">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="N248">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O248">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P248">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q248">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22626,7 +22626,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
         <v>34</v>
@@ -22985,7 +22985,7 @@
         <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23415,7 +23415,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6880293</v>
+        <v>6880493</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23427,10 +23427,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23442,61 +23442,61 @@
         <v>52</v>
       </c>
       <c r="K258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L258">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N258">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O258">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P258">
+        <v>2.2</v>
+      </c>
+      <c r="Q258">
+        <v>0.25</v>
+      </c>
+      <c r="R258">
+        <v>1.8</v>
+      </c>
+      <c r="S258">
+        <v>2</v>
+      </c>
+      <c r="T258">
         <v>3.25</v>
       </c>
-      <c r="Q258">
+      <c r="U258">
+        <v>1.975</v>
+      </c>
+      <c r="V258">
+        <v>1.825</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>1.2</v>
+      </c>
+      <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>1</v>
+      </c>
+      <c r="AB258">
         <v>-0.5</v>
       </c>
-      <c r="R258">
-        <v>1.95</v>
-      </c>
-      <c r="S258">
-        <v>1.85</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.75</v>
-      </c>
-      <c r="V258">
-        <v>1.95</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
-      <c r="Y258">
-        <v>2.25</v>
-      </c>
-      <c r="Z258">
-        <v>-1</v>
-      </c>
-      <c r="AA258">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB258">
-        <v>0.75</v>
-      </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6880493</v>
+        <v>6880293</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,10 +23516,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -23531,40 +23531,40 @@
         <v>52</v>
       </c>
       <c r="K259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L259">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M259">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N259">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O259">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P259">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q259">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23573,19 +23573,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC259">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23786,7 +23786,7 @@
         <v>49</v>
       </c>
       <c r="G262" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -23961,7 +23961,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G264" t="s">
         <v>47</v>
@@ -24409,7 +24409,7 @@
         <v>41</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24940,7 +24940,7 @@
         <v>45234.375</v>
       </c>
       <c r="F275" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G275" t="s">
         <v>45</v>
@@ -25029,7 +25029,7 @@
         <v>45234.375</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25566,7 +25566,7 @@
         <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6880145</v>
+        <v>6880875</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,70 +25652,70 @@
         <v>45240.625</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
         <v>1</v>
       </c>
-      <c r="I283">
-        <v>0</v>
-      </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K283">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M283">
+        <v>2</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283">
+        <v>3.6</v>
+      </c>
+      <c r="P283">
+        <v>3.1</v>
+      </c>
+      <c r="Q283">
+        <v>-0.25</v>
+      </c>
+      <c r="R283">
         <v>1.8</v>
       </c>
-      <c r="N283">
-        <v>6.5</v>
-      </c>
-      <c r="O283">
-        <v>4.75</v>
-      </c>
-      <c r="P283">
-        <v>1.363</v>
-      </c>
-      <c r="Q283">
-        <v>1.5</v>
-      </c>
-      <c r="R283">
-        <v>1.85</v>
-      </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T283">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V283">
         <v>1.925</v>
       </c>
       <c r="W283">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB283">
         <v>-1</v>
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6880875</v>
+        <v>6880145</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,70 +25741,70 @@
         <v>45240.625</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
         <v>0</v>
       </c>
-      <c r="I284">
-        <v>1</v>
-      </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K284">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L284">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M284">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N284">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="O284">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P284">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R284">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U284">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
         <v>1.925</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA284">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
         <v>-1</v>
@@ -26275,7 +26275,7 @@
         <v>45251.625</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
         <v>43</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6879941</v>
+        <v>6880880</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,73 +26364,73 @@
         <v>45254.625</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G291" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H291">
+        <v>2</v>
+      </c>
+      <c r="I291">
+        <v>2</v>
+      </c>
+      <c r="J291" t="s">
+        <v>51</v>
+      </c>
+      <c r="K291">
+        <v>3.75</v>
+      </c>
+      <c r="L291">
+        <v>3.6</v>
+      </c>
+      <c r="M291">
+        <v>1.75</v>
+      </c>
+      <c r="N291">
+        <v>4.2</v>
+      </c>
+      <c r="O291">
+        <v>3.8</v>
+      </c>
+      <c r="P291">
+        <v>1.666</v>
+      </c>
+      <c r="Q291">
+        <v>0.75</v>
+      </c>
+      <c r="R291">
+        <v>1.95</v>
+      </c>
+      <c r="S291">
+        <v>1.9</v>
+      </c>
+      <c r="T291">
         <v>3</v>
       </c>
-      <c r="I291">
-        <v>2</v>
-      </c>
-      <c r="J291" t="s">
-        <v>50</v>
-      </c>
-      <c r="K291">
-        <v>13</v>
-      </c>
-      <c r="L291">
-        <v>5.75</v>
-      </c>
-      <c r="M291">
-        <v>1.166</v>
-      </c>
-      <c r="N291">
-        <v>4.75</v>
-      </c>
-      <c r="O291">
-        <v>3.75</v>
-      </c>
-      <c r="P291">
-        <v>1.6</v>
-      </c>
-      <c r="Q291">
-        <v>1</v>
-      </c>
-      <c r="R291">
-        <v>1.775</v>
-      </c>
-      <c r="S291">
-        <v>2.1</v>
-      </c>
-      <c r="T291">
-        <v>2.75</v>
-      </c>
       <c r="U291">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V291">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W291">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X291">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6880880</v>
+        <v>6880147</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45254.625</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K292">
+        <v>1.727</v>
+      </c>
+      <c r="L292">
         <v>3.75</v>
       </c>
-      <c r="L292">
-        <v>3.6</v>
-      </c>
       <c r="M292">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="N292">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O292">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P292">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q292">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
+        <v>1.9</v>
+      </c>
+      <c r="S292">
         <v>1.95</v>
       </c>
-      <c r="S292">
-        <v>1.9</v>
-      </c>
       <c r="T292">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U292">
+        <v>1.8</v>
+      </c>
+      <c r="V292">
         <v>2.05</v>
       </c>
-      <c r="V292">
-        <v>1.8</v>
-      </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z292">
+        <v>-1</v>
+      </c>
+      <c r="AA292">
         <v>0.95</v>
       </c>
-      <c r="AA292">
-        <v>-1</v>
-      </c>
       <c r="AB292">
+        <v>-1</v>
+      </c>
+      <c r="AC292">
         <v>1.05</v>
-      </c>
-      <c r="AC292">
-        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6880147</v>
+        <v>6879941</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,76 +26542,76 @@
         <v>45254.625</v>
       </c>
       <c r="F293" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G293" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K293">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L293">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M293">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="N293">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O293">
         <v>3.75</v>
       </c>
       <c r="P293">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q293">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R293">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S293">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T293">
         <v>2.75</v>
       </c>
       <c r="U293">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC293">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26898,7 +26898,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G297" t="s">
         <v>40</v>
@@ -26987,7 +26987,7 @@
         <v>45256.375</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G298" t="s">
         <v>41</v>
@@ -28767,7 +28767,7 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G318" t="s">
         <v>46</v>
@@ -29034,7 +29034,7 @@
         <v>45325.375</v>
       </c>
       <c r="F321" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
         <v>44</v>
@@ -29571,7 +29571,7 @@
         <v>39</v>
       </c>
       <c r="G327" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29734,7 +29734,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29746,46 +29746,46 @@
         <v>45329.625</v>
       </c>
       <c r="F329" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M329">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N329">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O329">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
         <v>4</v>
       </c>
       <c r="Q329">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R329">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T329">
         <v>2.75</v>
@@ -29794,10 +29794,10 @@
         <v>1.975</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W329">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29806,16 +29806,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
+        <v>0.4125</v>
+      </c>
+      <c r="AA329">
+        <v>-0.5</v>
+      </c>
+      <c r="AB329">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA329">
-        <v>-1</v>
-      </c>
-      <c r="AB329">
-        <v>-1</v>
-      </c>
       <c r="AC329">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29823,7 +29823,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29835,46 +29835,46 @@
         <v>45329.625</v>
       </c>
       <c r="F330" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I330">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>50</v>
       </c>
       <c r="K330">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M330">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N330">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O330">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P330">
         <v>4</v>
       </c>
       <c r="Q330">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R330">
+        <v>1.975</v>
+      </c>
+      <c r="S330">
         <v>1.825</v>
-      </c>
-      <c r="S330">
-        <v>2.025</v>
       </c>
       <c r="T330">
         <v>2.75</v>
@@ -29883,10 +29883,10 @@
         <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29895,16 +29895,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29927,7 +29927,7 @@
         <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6880158</v>
+        <v>6882842</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30280,73 +30280,73 @@
         <v>45333.375</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G335" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K335">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="L335">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N335">
+        <v>3</v>
+      </c>
+      <c r="O335">
+        <v>3.2</v>
+      </c>
+      <c r="P335">
+        <v>2.2</v>
+      </c>
+      <c r="Q335">
+        <v>0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.875</v>
+      </c>
+      <c r="S335">
+        <v>1.975</v>
+      </c>
+      <c r="T335">
+        <v>2.5</v>
+      </c>
+      <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
+        <v>1.9</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>-1</v>
+      </c>
+      <c r="Y335">
         <v>1.2</v>
       </c>
-      <c r="O335">
-        <v>7</v>
-      </c>
-      <c r="P335">
-        <v>8</v>
-      </c>
-      <c r="Q335">
-        <v>-1.75</v>
-      </c>
-      <c r="R335">
-        <v>1.75</v>
-      </c>
-      <c r="S335">
-        <v>1.95</v>
-      </c>
-      <c r="T335">
-        <v>3</v>
-      </c>
-      <c r="U335">
-        <v>1.8</v>
-      </c>
-      <c r="V335">
-        <v>2</v>
-      </c>
-      <c r="W335">
-        <v>-1</v>
-      </c>
-      <c r="X335">
-        <v>6</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB335">
         <v>0.95</v>
-      </c>
-      <c r="AB335">
-        <v>0.8</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -30357,7 +30357,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6882842</v>
+        <v>6880158</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30369,73 +30369,73 @@
         <v>45333.375</v>
       </c>
       <c r="F336" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H336">
         <v>2</v>
       </c>
       <c r="I336">
+        <v>2</v>
+      </c>
+      <c r="J336" t="s">
+        <v>51</v>
+      </c>
+      <c r="K336">
+        <v>1.222</v>
+      </c>
+      <c r="L336">
+        <v>6</v>
+      </c>
+      <c r="M336">
+        <v>8</v>
+      </c>
+      <c r="N336">
+        <v>1.2</v>
+      </c>
+      <c r="O336">
+        <v>7</v>
+      </c>
+      <c r="P336">
+        <v>8</v>
+      </c>
+      <c r="Q336">
+        <v>-1.75</v>
+      </c>
+      <c r="R336">
+        <v>1.75</v>
+      </c>
+      <c r="S336">
+        <v>1.95</v>
+      </c>
+      <c r="T336">
         <v>3</v>
       </c>
-      <c r="J336" t="s">
-        <v>52</v>
-      </c>
-      <c r="K336">
-        <v>2.375</v>
-      </c>
-      <c r="L336">
-        <v>3.2</v>
-      </c>
-      <c r="M336">
-        <v>2.625</v>
-      </c>
-      <c r="N336">
-        <v>3</v>
-      </c>
-      <c r="O336">
-        <v>3.2</v>
-      </c>
-      <c r="P336">
-        <v>2.2</v>
-      </c>
-      <c r="Q336">
-        <v>0.25</v>
-      </c>
-      <c r="R336">
-        <v>1.875</v>
-      </c>
-      <c r="S336">
-        <v>1.975</v>
-      </c>
-      <c r="T336">
-        <v>2.5</v>
-      </c>
       <c r="U336">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V336">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y336">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
         <v>-1</v>
       </c>
       <c r="AA336">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB336">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC336">
         <v>-1</v>
@@ -30547,7 +30547,7 @@
         <v>45335.625</v>
       </c>
       <c r="F338" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G338" t="s">
         <v>40</v>
@@ -30713,7 +30713,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6880903</v>
+        <v>6880905</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30722,49 +30722,49 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45339.375</v>
+        <v>45339.5</v>
       </c>
       <c r="F340" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G340" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K340">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L340">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M340">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N340">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O340">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P340">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q340">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R340">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S340">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V340">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30787,7 +30787,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6880500</v>
+        <v>6880457</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30796,49 +30796,49 @@
         <v>28</v>
       </c>
       <c r="E341" s="2">
-        <v>45339.41666666666</v>
+        <v>45340.375</v>
       </c>
       <c r="F341" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G341" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K341">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L341">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M341">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N341">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="O341">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P341">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q341">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R341">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S341">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U341">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V341">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6880905</v>
+        <v>6882841</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30870,40 +30870,40 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45339.5</v>
+        <v>45340.375</v>
       </c>
       <c r="F342" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G342" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K342">
+        <v>1.909</v>
+      </c>
+      <c r="L342">
+        <v>3.75</v>
+      </c>
+      <c r="M342">
+        <v>3.1</v>
+      </c>
+      <c r="N342">
         <v>2.3</v>
       </c>
-      <c r="L342">
+      <c r="O342">
         <v>3.6</v>
       </c>
-      <c r="M342">
+      <c r="P342">
         <v>2.5</v>
       </c>
-      <c r="N342">
-        <v>3.25</v>
-      </c>
-      <c r="O342">
-        <v>3.75</v>
-      </c>
-      <c r="P342">
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
         <v>1.85</v>
       </c>
-      <c r="Q342">
-        <v>0.5</v>
-      </c>
-      <c r="R342">
-        <v>1.875</v>
-      </c>
       <c r="S342">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T342">
         <v>2.75</v>
@@ -30935,7 +30935,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6880457</v>
+        <v>6880160</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30944,49 +30944,49 @@
         <v>28</v>
       </c>
       <c r="E343" s="2">
-        <v>45340.375</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F343" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G343" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K343">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M343">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N343">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="O343">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P343">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q343">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R343">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S343">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T343">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U343">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V343">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -31001,154 +31001,6 @@
         <v>0</v>
       </c>
       <c r="AA343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:29">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344">
-        <v>6882841</v>
-      </c>
-      <c r="C344" t="s">
-        <v>28</v>
-      </c>
-      <c r="D344" t="s">
-        <v>28</v>
-      </c>
-      <c r="E344" s="2">
-        <v>45340.375</v>
-      </c>
-      <c r="F344" t="s">
-        <v>34</v>
-      </c>
-      <c r="G344" t="s">
-        <v>48</v>
-      </c>
-      <c r="K344">
-        <v>1.909</v>
-      </c>
-      <c r="L344">
-        <v>3.75</v>
-      </c>
-      <c r="M344">
-        <v>3.1</v>
-      </c>
-      <c r="N344">
-        <v>2.3</v>
-      </c>
-      <c r="O344">
-        <v>3.6</v>
-      </c>
-      <c r="P344">
-        <v>2.5</v>
-      </c>
-      <c r="Q344">
-        <v>0</v>
-      </c>
-      <c r="R344">
-        <v>1.85</v>
-      </c>
-      <c r="S344">
-        <v>2</v>
-      </c>
-      <c r="T344">
-        <v>2.75</v>
-      </c>
-      <c r="U344">
-        <v>1.85</v>
-      </c>
-      <c r="V344">
-        <v>2</v>
-      </c>
-      <c r="W344">
-        <v>0</v>
-      </c>
-      <c r="X344">
-        <v>0</v>
-      </c>
-      <c r="Y344">
-        <v>0</v>
-      </c>
-      <c r="Z344">
-        <v>0</v>
-      </c>
-      <c r="AA344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:29">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="B345">
-        <v>6880160</v>
-      </c>
-      <c r="C345" t="s">
-        <v>28</v>
-      </c>
-      <c r="D345" t="s">
-        <v>28</v>
-      </c>
-      <c r="E345" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F345" t="s">
-        <v>45</v>
-      </c>
-      <c r="G345" t="s">
-        <v>31</v>
-      </c>
-      <c r="K345">
-        <v>2.4</v>
-      </c>
-      <c r="L345">
-        <v>3.4</v>
-      </c>
-      <c r="M345">
-        <v>2.5</v>
-      </c>
-      <c r="N345">
-        <v>2.45</v>
-      </c>
-      <c r="O345">
-        <v>3.4</v>
-      </c>
-      <c r="P345">
-        <v>2.45</v>
-      </c>
-      <c r="Q345">
-        <v>0</v>
-      </c>
-      <c r="R345">
-        <v>1.95</v>
-      </c>
-      <c r="S345">
-        <v>1.9</v>
-      </c>
-      <c r="T345">
-        <v>2.75</v>
-      </c>
-      <c r="U345">
-        <v>1.925</v>
-      </c>
-      <c r="V345">
-        <v>1.925</v>
-      </c>
-      <c r="W345">
-        <v>0</v>
-      </c>
-      <c r="X345">
-        <v>0</v>
-      </c>
-      <c r="Y345">
-        <v>0</v>
-      </c>
-      <c r="Z345">
-        <v>0</v>
-      </c>
-      <c r="AA345">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -112,16 +112,16 @@
     <t>Hertha Berlin II</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
-    <t>Lichtenberg 47</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
     <t>Berliner AK 07</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>Lichtenberg 47</t>
   </si>
   <si>
     <t>Vfb Germania Halberstadt</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6094312</v>
+        <v>6050219</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -925,25 +925,25 @@
         <v>51</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R5">
         <v>1.9</v>
@@ -952,34 +952,34 @@
         <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6050223</v>
+        <v>6094312</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1020,55 +1020,55 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6050219</v>
+        <v>6050223</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1192,61 +1192,61 @@
         <v>51</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N8">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>44955.5</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5245367</v>
+        <v>5245897</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,76 +2067,76 @@
         <v>44960.625</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P18">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
+        <v>1.925</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1.85</v>
+      </c>
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5245897</v>
+        <v>5245367</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,76 +2156,76 @@
         <v>44960.625</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>1.2</v>
+        <v>1.571</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="N19">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O19">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>44960.625</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5246950</v>
+        <v>5245894</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44962.375</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.8</v>
+        <v>1.833</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q23">
+        <v>0.75</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
+        <v>1.825</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z23">
         <v>-0.5</v>
       </c>
-      <c r="R23">
-        <v>1.8</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>0.8</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.8</v>
-      </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5245894</v>
+        <v>5246950</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,76 +2601,76 @@
         <v>44962.375</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>1.833</v>
+        <v>4.8</v>
       </c>
       <c r="N24">
+        <v>1.8</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
         <v>4</v>
       </c>
-      <c r="O24">
-        <v>3.8</v>
-      </c>
-      <c r="P24">
-        <v>1.65</v>
-      </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2957,7 +2957,7 @@
         <v>44967.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3405,7 +3405,7 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -3583,7 +3583,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5246948</v>
+        <v>5245910</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,76 +3758,76 @@
         <v>44974.625</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M37">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q37">
+        <v>0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>0.8</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>2.025</v>
-      </c>
-      <c r="S37">
-        <v>1.825</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
-      <c r="V37">
-        <v>1.975</v>
-      </c>
-      <c r="W37">
-        <v>0.95</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>1.025</v>
-      </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5245910</v>
+        <v>5246948</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,76 +3847,76 @@
         <v>44974.625</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L38">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4114,10 +4114,10 @@
         <v>44975.375</v>
       </c>
       <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
         <v>33</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5245918</v>
+        <v>5245917</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>44981.625</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51">
+        <v>1.25</v>
+      </c>
+      <c r="L51">
+        <v>4.5</v>
+      </c>
+      <c r="M51">
+        <v>11</v>
+      </c>
+      <c r="N51">
+        <v>1.222</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9.5</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>1.85</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51">
-        <v>3.75</v>
-      </c>
-      <c r="L51">
-        <v>3.25</v>
-      </c>
-      <c r="M51">
-        <v>1.85</v>
-      </c>
-      <c r="N51">
-        <v>6.5</v>
-      </c>
-      <c r="O51">
-        <v>3.8</v>
-      </c>
-      <c r="P51">
-        <v>1.444</v>
-      </c>
-      <c r="Q51">
-        <v>1.25</v>
-      </c>
-      <c r="R51">
+      <c r="U51">
+        <v>1.975</v>
+      </c>
+      <c r="V51">
         <v>1.825</v>
       </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
-      <c r="V51">
-        <v>1.95</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5245917</v>
+        <v>5245918</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,76 +5093,76 @@
         <v>44981.625</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K52">
+        <v>3.75</v>
+      </c>
+      <c r="L52">
+        <v>3.25</v>
+      </c>
+      <c r="M52">
+        <v>1.85</v>
+      </c>
+      <c r="N52">
+        <v>6.5</v>
+      </c>
+      <c r="O52">
+        <v>3.8</v>
+      </c>
+      <c r="P52">
+        <v>1.444</v>
+      </c>
+      <c r="Q52">
         <v>1.25</v>
       </c>
-      <c r="L52">
-        <v>4.5</v>
-      </c>
-      <c r="M52">
-        <v>11</v>
-      </c>
-      <c r="N52">
-        <v>1.222</v>
-      </c>
-      <c r="O52">
-        <v>5.25</v>
-      </c>
-      <c r="P52">
-        <v>9.5</v>
-      </c>
-      <c r="Q52">
-        <v>-1.75</v>
-      </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>1.975</v>
+      </c>
+      <c r="T52">
+        <v>2.75</v>
+      </c>
+      <c r="U52">
+        <v>1.85</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="S52">
-        <v>1.85</v>
-      </c>
-      <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52">
-        <v>1.975</v>
-      </c>
-      <c r="V52">
-        <v>1.825</v>
-      </c>
       <c r="W52">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>44983.375</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -6072,7 +6072,7 @@
         <v>44989.375</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6431,7 +6431,7 @@
         <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>44997.5</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>43</v>
@@ -6787,7 +6787,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5246944</v>
+        <v>5245932</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,49 +7051,49 @@
         <v>45003.375</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
         <v>1.95</v>
@@ -7108,19 +7108,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7128,7 +7128,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5245932</v>
+        <v>5246944</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7140,49 +7140,49 @@
         <v>45003.375</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>52</v>
       </c>
       <c r="K75">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
         <v>1.95</v>
@@ -7197,19 +7197,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7232,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7410,7 +7410,7 @@
         <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>45006.625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -7852,7 +7852,7 @@
         <v>45010.375</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
@@ -7944,7 +7944,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8119,7 +8119,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8297,7 +8297,7 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>34</v>
@@ -8831,7 +8831,7 @@
         <v>45018.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -9012,7 +9012,7 @@
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9101,7 +9101,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9810,7 +9810,7 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5245952</v>
+        <v>5245949</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,10 +9899,10 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9914,37 +9914,37 @@
         <v>51</v>
       </c>
       <c r="K106">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q106">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
         <v>1.975</v>
@@ -9953,19 +9953,19 @@
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5245949</v>
+        <v>5245952</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,10 +9988,10 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10003,37 +10003,37 @@
         <v>51</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M107">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
         <v>1.975</v>
@@ -10042,19 +10042,19 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10077,7 +10077,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>41</v>
@@ -10166,7 +10166,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10700,7 +10700,7 @@
         <v>45035.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10881,7 +10881,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10970,7 +10970,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11946,7 +11946,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -12124,7 +12124,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12750,7 +12750,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12839,7 +12839,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12928,7 +12928,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5465525</v>
+        <v>5462005</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,64 +13281,64 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>51</v>
+      </c>
+      <c r="K144">
+        <v>2.15</v>
+      </c>
+      <c r="L144">
+        <v>3.3</v>
+      </c>
+      <c r="M144">
         <v>3</v>
       </c>
-      <c r="J144" t="s">
-        <v>52</v>
-      </c>
-      <c r="K144">
+      <c r="N144">
         <v>1.833</v>
       </c>
-      <c r="L144">
-        <v>3.6</v>
-      </c>
-      <c r="M144">
-        <v>3.6</v>
-      </c>
-      <c r="N144">
-        <v>1.8</v>
-      </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
         <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
         <v>1.95</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
         <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13347,10 +13347,10 @@
         <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5462005</v>
+        <v>5469905</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,61 +13370,61 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
       </c>
       <c r="K145">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
+        <v>1.75</v>
+      </c>
+      <c r="T145">
+        <v>3.25</v>
+      </c>
+      <c r="U145">
         <v>1.95</v>
       </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.9</v>
-      </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13433,13 +13433,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
+        <v>0.75</v>
+      </c>
+      <c r="AB145">
         <v>0.95</v>
       </c>
-      <c r="AB145">
-        <v>-1</v>
-      </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5469905</v>
+        <v>5465525</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,73 +13459,73 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K146">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
+        <v>1.85</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
       </c>
-      <c r="S146">
-        <v>1.75</v>
-      </c>
       <c r="T146">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13637,7 +13637,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -14085,7 +14085,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5499625</v>
+        <v>5494741</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,55 +14260,55 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J155" t="s">
         <v>52</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L155">
         <v>3.6</v>
       </c>
       <c r="M155">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O155">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P155">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T155">
         <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.6</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14337,7 +14337,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5494741</v>
+        <v>5494742</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14349,73 +14349,73 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>51</v>
+      </c>
+      <c r="K156">
+        <v>1.444</v>
+      </c>
+      <c r="L156">
+        <v>4.2</v>
+      </c>
+      <c r="M156">
+        <v>5.5</v>
+      </c>
+      <c r="N156">
+        <v>1.5</v>
+      </c>
+      <c r="O156">
         <v>4</v>
       </c>
-      <c r="J156" t="s">
-        <v>52</v>
-      </c>
-      <c r="K156">
-        <v>3.75</v>
-      </c>
-      <c r="L156">
-        <v>3.6</v>
-      </c>
-      <c r="M156">
-        <v>1.75</v>
-      </c>
-      <c r="N156">
-        <v>5.25</v>
-      </c>
-      <c r="O156">
-        <v>4.75</v>
-      </c>
       <c r="P156">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="Q156">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
+        <v>3.25</v>
+      </c>
+      <c r="U156">
+        <v>2.025</v>
+      </c>
+      <c r="V156">
         <v>1.825</v>
       </c>
-      <c r="T156">
-        <v>3.5</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y156">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5494742</v>
+        <v>5494746</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
         <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5494746</v>
+        <v>5499625</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K158">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N158">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5494740</v>
+        <v>5499626</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,55 +14705,55 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J160" t="s">
         <v>52</v>
       </c>
       <c r="K160">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N160">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="O160">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R160">
         <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14762,19 +14762,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>3.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5499626</v>
+        <v>5494740</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,76 +14794,76 @@
         <v>45067.33333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
         <v>52</v>
       </c>
       <c r="K161">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L161">
+        <v>3.75</v>
+      </c>
+      <c r="M161">
         <v>3.6</v>
       </c>
-      <c r="M161">
-        <v>2</v>
-      </c>
       <c r="N161">
+        <v>1.45</v>
+      </c>
+      <c r="O161">
         <v>4.5</v>
       </c>
-      <c r="O161">
-        <v>4.2</v>
-      </c>
       <c r="P161">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
         <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
+        <v>3.75</v>
+      </c>
+      <c r="U161">
+        <v>1.8</v>
+      </c>
+      <c r="V161">
+        <v>2</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>3.5</v>
       </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.9</v>
-      </c>
-      <c r="W161">
-        <v>-1</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5539839</v>
+        <v>5539840</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,40 +14972,40 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M163">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="N163">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
         <v>1.9</v>
@@ -15014,34 +15014,34 @@
         <v>1.9</v>
       </c>
       <c r="T163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5539840</v>
+        <v>5549253</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,76 +15061,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>1.222</v>
+      </c>
+      <c r="O164">
+        <v>6.5</v>
+      </c>
+      <c r="P164">
+        <v>7</v>
+      </c>
+      <c r="Q164">
+        <v>-2</v>
+      </c>
+      <c r="R164">
         <v>1.95</v>
       </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>3.6</v>
-      </c>
-      <c r="P164">
-        <v>2.75</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>1.9</v>
-      </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U164">
+        <v>1.85</v>
+      </c>
+      <c r="V164">
         <v>1.95</v>
       </c>
-      <c r="V164">
-        <v>1.85</v>
-      </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X164">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5549253</v>
+        <v>5535608</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>3.6</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
         <v>1.444</v>
       </c>
-      <c r="L165">
-        <v>4.5</v>
-      </c>
-      <c r="M165">
+      <c r="O165">
         <v>5</v>
       </c>
-      <c r="N165">
-        <v>1.222</v>
-      </c>
-      <c r="O165">
-        <v>6.5</v>
-      </c>
       <c r="P165">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.675</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="T165">
         <v>4</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>1.25</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5535608</v>
+        <v>5543721</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L166">
         <v>3.6</v>
       </c>
       <c r="M166">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N166">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>1.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5543721</v>
+        <v>5539839</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15328,76 +15328,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167">
+        <v>4</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
-      <c r="I167">
+      <c r="J167" t="s">
+        <v>50</v>
+      </c>
+      <c r="K167">
+        <v>2.2</v>
+      </c>
+      <c r="L167">
+        <v>3.75</v>
+      </c>
+      <c r="M167">
+        <v>2.55</v>
+      </c>
+      <c r="N167">
+        <v>1.833</v>
+      </c>
+      <c r="O167">
+        <v>4.333</v>
+      </c>
+      <c r="P167">
         <v>3</v>
       </c>
-      <c r="J167" t="s">
-        <v>52</v>
-      </c>
-      <c r="K167">
-        <v>2.3</v>
-      </c>
-      <c r="L167">
-        <v>3.6</v>
-      </c>
-      <c r="M167">
-        <v>2.45</v>
-      </c>
-      <c r="N167">
-        <v>2.1</v>
-      </c>
-      <c r="O167">
+      <c r="Q167">
+        <v>-0.5</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.9</v>
+      </c>
+      <c r="T167">
         <v>4</v>
       </c>
-      <c r="P167">
-        <v>2.55</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>2</v>
-      </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
-      <c r="T167">
-        <v>3.25</v>
-      </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15417,7 +15417,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
@@ -15595,7 +15595,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6880443</v>
+        <v>6880835</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,58 +15773,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>50</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N172">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O172">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q172">
         <v>0</v>
       </c>
       <c r="R172">
+        <v>1.8</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
         <v>1.825</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.975</v>
       </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
-        <v>1.975</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15833,16 +15833,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6880835</v>
+        <v>6880443</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,58 +15862,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>50</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q173">
         <v>0</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="V173">
-        <v>1.975</v>
-      </c>
       <c r="W173">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15922,16 +15922,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16841,7 +16841,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -16930,7 +16930,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>29</v>
@@ -17378,7 +17378,7 @@
         <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17823,7 +17823,7 @@
         <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -17998,7 +17998,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>31</v>
@@ -18087,7 +18087,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>48</v>
@@ -18446,7 +18446,7 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18609,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6880445</v>
+        <v>6880132</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18621,76 +18621,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y204">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18698,7 +18698,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6880132</v>
+        <v>6880445</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18710,76 +18710,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>52</v>
+      </c>
+      <c r="K205">
+        <v>1.727</v>
+      </c>
+      <c r="L205">
+        <v>3.75</v>
+      </c>
+      <c r="M205">
+        <v>3.75</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205">
+        <v>3.6</v>
+      </c>
+      <c r="P205">
         <v>3</v>
       </c>
-      <c r="I205">
-        <v>3</v>
-      </c>
-      <c r="J205" t="s">
-        <v>51</v>
-      </c>
-      <c r="K205">
-        <v>1.833</v>
-      </c>
-      <c r="L205">
-        <v>4</v>
-      </c>
-      <c r="M205">
-        <v>3.1</v>
-      </c>
-      <c r="N205">
-        <v>1.7</v>
-      </c>
-      <c r="O205">
-        <v>4</v>
-      </c>
-      <c r="P205">
-        <v>3.5</v>
-      </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>46</v>
@@ -19511,7 +19511,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
         <v>43</v>
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6880136</v>
+        <v>6880853</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,76 +20223,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K222">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L222">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N222">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O222">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P222">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y222">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6880853</v>
+        <v>6880136</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,76 +20312,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K223">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L223">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M223">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N223">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O223">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P223">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
         <v>3</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB223">
         <v>0</v>
       </c>
-      <c r="AA223">
+      <c r="AC223">
         <v>-0</v>
-      </c>
-      <c r="AB223">
-        <v>-1</v>
-      </c>
-      <c r="AC223">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6882856</v>
+        <v>6879933</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,49 +20401,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M224">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N224">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O224">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P224">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="Q224">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
         <v>1.825</v>
@@ -20455,22 +20455,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y224">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6879933</v>
+        <v>6882856</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,49 +20579,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F226" t="s">
+        <v>48</v>
+      </c>
+      <c r="G226" t="s">
         <v>32</v>
       </c>
-      <c r="G226" t="s">
-        <v>34</v>
-      </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K226">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L226">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N226">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O226">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P226">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
         <v>1.825</v>
@@ -20633,22 +20633,22 @@
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20938,7 +20938,7 @@
         <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
         <v>37</v>
@@ -21546,7 +21546,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6880291</v>
+        <v>6880860</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21558,76 +21558,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K237">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M237">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N237">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P237">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
+        <v>3.25</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.85</v>
       </c>
-      <c r="S237">
-        <v>2</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>1.9</v>
-      </c>
-      <c r="V237">
-        <v>1.95</v>
-      </c>
       <c r="W237">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21635,7 +21635,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6880860</v>
+        <v>6880291</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21647,76 +21647,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K238">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N238">
+        <v>2.7</v>
+      </c>
+      <c r="O238">
+        <v>3.5</v>
+      </c>
+      <c r="P238">
+        <v>2.2</v>
+      </c>
+      <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.85</v>
+      </c>
+      <c r="S238">
+        <v>2</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
+        <v>1.9</v>
+      </c>
+      <c r="V238">
+        <v>1.95</v>
+      </c>
+      <c r="W238">
         <v>1.7</v>
       </c>
-      <c r="O238">
-        <v>4</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>-0.75</v>
-      </c>
-      <c r="R238">
-        <v>1.95</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>3.25</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21736,10 +21736,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F239" t="s">
+        <v>33</v>
+      </c>
+      <c r="G239" t="s">
         <v>32</v>
-      </c>
-      <c r="G239" t="s">
-        <v>35</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22347,7 +22347,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6880139</v>
+        <v>6880864</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22359,73 +22359,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K246">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L246">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M246">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="N246">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O246">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P246">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q246">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S246">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA246">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,52 +22448,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L247">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M247">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N247">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P247">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S247">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
         <v>3</v>
       </c>
       <c r="U247">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
         <v>1.95</v>
@@ -22502,19 +22502,19 @@
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z247">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB247">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6880864</v>
+        <v>6880449</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,73 +22537,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>3</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L248">
         <v>3.6</v>
       </c>
       <c r="M248">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U248">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB248">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22626,7 +22626,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
         <v>34</v>
@@ -22985,7 +22985,7 @@
         <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23326,7 +23326,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6880868</v>
+        <v>6880293</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23338,55 +23338,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>52</v>
       </c>
       <c r="K257">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M257">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N257">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P257">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q257">
         <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T257">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V257">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23395,19 +23395,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC257">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6880293</v>
+        <v>6880868</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,55 +23516,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
         <v>1</v>
-      </c>
-      <c r="I259">
-        <v>2</v>
       </c>
       <c r="J259" t="s">
         <v>52</v>
       </c>
       <c r="K259">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M259">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N259">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O259">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P259">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q259">
         <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V259">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
         <v>-1</v>
@@ -23573,19 +23573,19 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB259">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23786,7 +23786,7 @@
         <v>49</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -23961,7 +23961,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
         <v>47</v>
@@ -24409,7 +24409,7 @@
         <v>41</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24940,7 +24940,7 @@
         <v>45234.375</v>
       </c>
       <c r="F275" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G275" t="s">
         <v>45</v>
@@ -25029,7 +25029,7 @@
         <v>45234.375</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6880876</v>
+        <v>6880145</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,13 +25563,13 @@
         <v>45240.625</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G282" t="s">
         <v>32</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -25578,43 +25578,43 @@
         <v>50</v>
       </c>
       <c r="K282">
+        <v>3.25</v>
+      </c>
+      <c r="L282">
+        <v>4</v>
+      </c>
+      <c r="M282">
         <v>1.8</v>
       </c>
-      <c r="L282">
-        <v>3.75</v>
-      </c>
-      <c r="M282">
-        <v>3.4</v>
-      </c>
       <c r="N282">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O282">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P282">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R282">
+        <v>1.85</v>
+      </c>
+      <c r="S282">
         <v>1.95</v>
       </c>
-      <c r="S282">
-        <v>1.75</v>
-      </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25623,7 +25623,7 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA282">
         <v>-1</v>
@@ -25632,7 +25632,7 @@
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6880145</v>
+        <v>6880876</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,13 +25741,13 @@
         <v>45240.625</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -25756,43 +25756,43 @@
         <v>50</v>
       </c>
       <c r="K284">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M284">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N284">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O284">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q284">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
+        <v>1.95</v>
+      </c>
+      <c r="S284">
+        <v>1.75</v>
+      </c>
+      <c r="T284">
+        <v>2.5</v>
+      </c>
+      <c r="U284">
+        <v>1.95</v>
+      </c>
+      <c r="V284">
         <v>1.85</v>
       </c>
-      <c r="S284">
-        <v>1.95</v>
-      </c>
-      <c r="T284">
-        <v>3.25</v>
-      </c>
-      <c r="U284">
-        <v>1.875</v>
-      </c>
-      <c r="V284">
-        <v>1.925</v>
-      </c>
       <c r="W284">
-        <v>5.5</v>
+        <v>1.05</v>
       </c>
       <c r="X284">
         <v>-1</v>
@@ -25801,16 +25801,16 @@
         <v>-1</v>
       </c>
       <c r="Z284">
+        <v>0.95</v>
+      </c>
+      <c r="AA284">
+        <v>-1</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA284">
-        <v>-1</v>
-      </c>
-      <c r="AB284">
-        <v>-1</v>
-      </c>
-      <c r="AC284">
-        <v>0.925</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26275,7 +26275,7 @@
         <v>45251.625</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
         <v>43</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6880880</v>
+        <v>6879941</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,73 +26364,73 @@
         <v>45254.625</v>
       </c>
       <c r="F291" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I291">
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K291">
+        <v>13</v>
+      </c>
+      <c r="L291">
+        <v>5.75</v>
+      </c>
+      <c r="M291">
+        <v>1.166</v>
+      </c>
+      <c r="N291">
+        <v>4.75</v>
+      </c>
+      <c r="O291">
         <v>3.75</v>
       </c>
-      <c r="L291">
-        <v>3.6</v>
-      </c>
-      <c r="M291">
-        <v>1.75</v>
-      </c>
-      <c r="N291">
-        <v>4.2</v>
-      </c>
-      <c r="O291">
-        <v>3.8</v>
-      </c>
       <c r="P291">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="Q291">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R291">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S291">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T291">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V291">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X291">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6880147</v>
+        <v>6880880</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45254.625</v>
       </c>
       <c r="F292" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G292" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K292">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L292">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M292">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="N292">
+        <v>4.2</v>
+      </c>
+      <c r="O292">
+        <v>3.8</v>
+      </c>
+      <c r="P292">
+        <v>1.666</v>
+      </c>
+      <c r="Q292">
+        <v>0.75</v>
+      </c>
+      <c r="R292">
+        <v>1.95</v>
+      </c>
+      <c r="S292">
+        <v>1.9</v>
+      </c>
+      <c r="T292">
+        <v>3</v>
+      </c>
+      <c r="U292">
+        <v>2.05</v>
+      </c>
+      <c r="V292">
         <v>1.8</v>
       </c>
-      <c r="O292">
-        <v>3.75</v>
-      </c>
-      <c r="P292">
-        <v>3.4</v>
-      </c>
-      <c r="Q292">
-        <v>-0.5</v>
-      </c>
-      <c r="R292">
-        <v>1.9</v>
-      </c>
-      <c r="S292">
-        <v>1.95</v>
-      </c>
-      <c r="T292">
-        <v>2.75</v>
-      </c>
-      <c r="U292">
-        <v>1.8</v>
-      </c>
-      <c r="V292">
-        <v>2.05</v>
-      </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y292">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA292">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC292">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6879941</v>
+        <v>6880147</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,76 +26542,76 @@
         <v>45254.625</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G293" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K293">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="L293">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M293">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="N293">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O293">
         <v>3.75</v>
       </c>
       <c r="P293">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q293">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S293">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
         <v>2.75</v>
       </c>
       <c r="U293">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V293">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W293">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z293">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB293">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26898,7 +26898,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
         <v>40</v>
@@ -26987,7 +26987,7 @@
         <v>45256.375</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G298" t="s">
         <v>41</v>
@@ -28767,7 +28767,7 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G318" t="s">
         <v>46</v>
@@ -29022,7 +29022,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6880300</v>
+        <v>6880157</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29034,73 +29034,73 @@
         <v>45325.375</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H321">
+        <v>2</v>
+      </c>
+      <c r="I321">
+        <v>4</v>
+      </c>
+      <c r="J321" t="s">
+        <v>52</v>
+      </c>
+      <c r="K321">
+        <v>2.4</v>
+      </c>
+      <c r="L321">
+        <v>3.4</v>
+      </c>
+      <c r="M321">
+        <v>2.5</v>
+      </c>
+      <c r="N321">
         <v>3</v>
       </c>
-      <c r="I321">
-        <v>2</v>
-      </c>
-      <c r="J321" t="s">
-        <v>50</v>
-      </c>
-      <c r="K321">
-        <v>1.5</v>
-      </c>
-      <c r="L321">
-        <v>4</v>
-      </c>
-      <c r="M321">
-        <v>5</v>
-      </c>
-      <c r="N321">
-        <v>1.5</v>
-      </c>
       <c r="O321">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R321">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
         <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB321">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC321">
         <v>-1</v>
@@ -29111,7 +29111,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6880157</v>
+        <v>6880894</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29123,52 +29123,52 @@
         <v>45325.375</v>
       </c>
       <c r="F322" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G322" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322" t="s">
+        <v>51</v>
+      </c>
+      <c r="K322">
+        <v>1.615</v>
+      </c>
+      <c r="L322">
         <v>4</v>
       </c>
-      <c r="J322" t="s">
-        <v>52</v>
-      </c>
-      <c r="K322">
-        <v>2.4</v>
-      </c>
-      <c r="L322">
-        <v>3.4</v>
-      </c>
       <c r="M322">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N322">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O322">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P322">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q322">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R322">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S322">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T322">
         <v>2.75</v>
       </c>
       <c r="U322">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V322">
         <v>1.9</v>
@@ -29177,22 +29177,22 @@
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y322">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB322">
+        <v>-1</v>
+      </c>
+      <c r="AC322">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC322">
-        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29200,7 +29200,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6880894</v>
+        <v>6880300</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29212,76 +29212,76 @@
         <v>45325.375</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G323" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K323">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L323">
         <v>4</v>
       </c>
       <c r="M323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N323">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O323">
         <v>4</v>
       </c>
       <c r="P323">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q323">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R323">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T323">
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V323">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X323">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC323">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29571,7 +29571,7 @@
         <v>39</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29734,7 +29734,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29746,46 +29746,46 @@
         <v>45329.625</v>
       </c>
       <c r="F329" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G329" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>50</v>
       </c>
       <c r="K329">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M329">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N329">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O329">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P329">
         <v>4</v>
       </c>
       <c r="Q329">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R329">
+        <v>1.975</v>
+      </c>
+      <c r="S329">
         <v>1.825</v>
-      </c>
-      <c r="S329">
-        <v>2.025</v>
       </c>
       <c r="T329">
         <v>2.75</v>
@@ -29794,10 +29794,10 @@
         <v>1.975</v>
       </c>
       <c r="V329">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29806,16 +29806,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29823,7 +29823,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29835,46 +29835,46 @@
         <v>45329.625</v>
       </c>
       <c r="F330" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G330" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
         <v>50</v>
       </c>
       <c r="K330">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M330">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N330">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O330">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P330">
         <v>4</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T330">
         <v>2.75</v>
@@ -29883,10 +29883,10 @@
         <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29895,16 +29895,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
+        <v>0.4125</v>
+      </c>
+      <c r="AA330">
+        <v>-0.5</v>
+      </c>
+      <c r="AB330">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA330">
-        <v>-1</v>
-      </c>
-      <c r="AB330">
-        <v>-1</v>
-      </c>
       <c r="AC330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29927,7 +29927,7 @@
         <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6882842</v>
+        <v>6880158</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30280,73 +30280,73 @@
         <v>45333.375</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G335" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H335">
         <v>2</v>
       </c>
       <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335" t="s">
+        <v>51</v>
+      </c>
+      <c r="K335">
+        <v>1.222</v>
+      </c>
+      <c r="L335">
+        <v>6</v>
+      </c>
+      <c r="M335">
+        <v>8</v>
+      </c>
+      <c r="N335">
+        <v>1.2</v>
+      </c>
+      <c r="O335">
+        <v>7</v>
+      </c>
+      <c r="P335">
+        <v>8</v>
+      </c>
+      <c r="Q335">
+        <v>-1.75</v>
+      </c>
+      <c r="R335">
+        <v>1.75</v>
+      </c>
+      <c r="S335">
+        <v>1.95</v>
+      </c>
+      <c r="T335">
         <v>3</v>
       </c>
-      <c r="J335" t="s">
-        <v>52</v>
-      </c>
-      <c r="K335">
-        <v>2.375</v>
-      </c>
-      <c r="L335">
-        <v>3.2</v>
-      </c>
-      <c r="M335">
-        <v>2.625</v>
-      </c>
-      <c r="N335">
-        <v>3</v>
-      </c>
-      <c r="O335">
-        <v>3.2</v>
-      </c>
-      <c r="P335">
-        <v>2.2</v>
-      </c>
-      <c r="Q335">
-        <v>0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.875</v>
-      </c>
-      <c r="S335">
-        <v>1.975</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
       <c r="U335">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V335">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y335">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB335">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC335">
         <v>-1</v>
@@ -30357,7 +30357,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6880158</v>
+        <v>6880159</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30369,76 +30369,76 @@
         <v>45333.375</v>
       </c>
       <c r="F336" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G336" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K336">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L336">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M336">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N336">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O336">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P336">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q336">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R336">
+        <v>1.825</v>
+      </c>
+      <c r="S336">
+        <v>1.975</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
         <v>1.75</v>
       </c>
-      <c r="S336">
+      <c r="V336">
         <v>1.95</v>
       </c>
-      <c r="T336">
-        <v>3</v>
-      </c>
-      <c r="U336">
-        <v>1.8</v>
-      </c>
-      <c r="V336">
-        <v>2</v>
-      </c>
       <c r="W336">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X336">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
+        <v>-1</v>
+      </c>
+      <c r="AC336">
         <v>0.95</v>
-      </c>
-      <c r="AB336">
-        <v>0.8</v>
-      </c>
-      <c r="AC336">
-        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30446,7 +30446,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6880159</v>
+        <v>6882842</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30458,43 +30458,43 @@
         <v>45333.375</v>
       </c>
       <c r="F337" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G337" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J337" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K337">
+        <v>2.375</v>
+      </c>
+      <c r="L337">
+        <v>3.2</v>
+      </c>
+      <c r="M337">
+        <v>2.625</v>
+      </c>
+      <c r="N337">
+        <v>3</v>
+      </c>
+      <c r="O337">
+        <v>3.2</v>
+      </c>
+      <c r="P337">
         <v>2.2</v>
       </c>
-      <c r="L337">
-        <v>3.25</v>
-      </c>
-      <c r="M337">
-        <v>2.8</v>
-      </c>
-      <c r="N337">
-        <v>2</v>
-      </c>
-      <c r="O337">
-        <v>3.4</v>
-      </c>
-      <c r="P337">
-        <v>3.1</v>
-      </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S337">
         <v>1.975</v>
@@ -30503,31 +30503,31 @@
         <v>2.5</v>
       </c>
       <c r="U337">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V337">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W337">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z337">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC337">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30547,7 +30547,7 @@
         <v>45335.625</v>
       </c>
       <c r="F338" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G338" t="s">
         <v>40</v>
@@ -30713,7 +30713,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6880905</v>
+        <v>6880457</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30722,49 +30722,49 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45339.5</v>
+        <v>45340.375</v>
       </c>
       <c r="F340" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G340" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K340">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L340">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M340">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N340">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O340">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P340">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q340">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R340">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S340">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T340">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U340">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V340">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30787,7 +30787,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30799,46 +30799,46 @@
         <v>45340.375</v>
       </c>
       <c r="F341" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G341" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K341">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M341">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N341">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O341">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P341">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q341">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R341">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S341">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T341">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U341">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V341">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6882841</v>
+        <v>6880160</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30870,49 +30870,49 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45340.375</v>
+        <v>45340.39583333334</v>
       </c>
       <c r="F342" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G342" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K342">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L342">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M342">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N342">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O342">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P342">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q342">
         <v>0</v>
       </c>
       <c r="R342">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S342">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T342">
         <v>2.75</v>
       </c>
       <c r="U342">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V342">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30927,80 +30927,6 @@
         <v>0</v>
       </c>
       <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:29">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>6880160</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45340.39583333334</v>
-      </c>
-      <c r="F343" t="s">
-        <v>45</v>
-      </c>
-      <c r="G343" t="s">
-        <v>31</v>
-      </c>
-      <c r="K343">
-        <v>2.4</v>
-      </c>
-      <c r="L343">
-        <v>3.4</v>
-      </c>
-      <c r="M343">
-        <v>2.5</v>
-      </c>
-      <c r="N343">
-        <v>2.45</v>
-      </c>
-      <c r="O343">
-        <v>3.4</v>
-      </c>
-      <c r="P343">
-        <v>2.45</v>
-      </c>
-      <c r="Q343">
-        <v>0</v>
-      </c>
-      <c r="R343">
-        <v>1.95</v>
-      </c>
-      <c r="S343">
-        <v>1.9</v>
-      </c>
-      <c r="T343">
-        <v>2.75</v>
-      </c>
-      <c r="U343">
-        <v>1.95</v>
-      </c>
-      <c r="V343">
-        <v>1.9</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Hertha Berlin II</t>
   </si>
   <si>
+    <t>Berliner AK 07</t>
+  </si>
+  <si>
     <t>BSG Chemie Leipzig</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>Lichtenberg 47</t>
-  </si>
-  <si>
-    <t>Berliner AK 07</t>
   </si>
   <si>
     <t>Vfb Germania Halberstadt</t>
@@ -145,10 +145,10 @@
     <t>Babelsberg 03</t>
   </si>
   <si>
-    <t>Chemnitzer</t>
+    <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
-    <t>FSV 63 Luckenwalde</t>
+    <t>Chemnitzer</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6094312</v>
+        <v>6050222</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,73 +913,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X5">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6050219</v>
+        <v>6094312</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1014,25 +1014,25 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1.9</v>
@@ -1041,34 +1041,34 @@
         <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6050223</v>
+        <v>6050219</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1103,61 +1103,61 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>-2</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
         <v>1.85</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.875</v>
-      </c>
-      <c r="S7">
-        <v>1.925</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6050222</v>
+        <v>6050223</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,43 +1180,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N8">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
         <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>2.75</v>
@@ -1228,25 +1228,25 @@
         <v>1.85</v>
       </c>
       <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>2.6</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>0.875</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.475</v>
-      </c>
-      <c r="AC8">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1269,7 +1269,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5245890</v>
+        <v>5244195</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,76 +1355,76 @@
         <v>44953.625</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z10">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
+        <v>0.875</v>
+      </c>
+      <c r="AB10">
+        <v>0.425</v>
+      </c>
+      <c r="AC10">
         <v>-0.5</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5244195</v>
+        <v>5245890</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,76 +1444,76 @@
         <v>44953.625</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
+        <v>1.6</v>
+      </c>
+      <c r="O11">
+        <v>4.333</v>
+      </c>
+      <c r="P11">
+        <v>3.8</v>
+      </c>
+      <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
         <v>3</v>
       </c>
-      <c r="O11">
-        <v>3.5</v>
-      </c>
-      <c r="P11">
-        <v>2.15</v>
-      </c>
-      <c r="Q11">
-        <v>0.25</v>
-      </c>
-      <c r="R11">
-        <v>1.925</v>
-      </c>
-      <c r="S11">
-        <v>1.875</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1536,7 +1536,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1889,7 +1889,7 @@
         <v>44955.5</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
@@ -1981,7 +1981,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2245,10 +2245,10 @@
         <v>44960.625</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2334,7 +2334,7 @@
         <v>44961.375</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5246950</v>
+        <v>5245894</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44962.375</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.8</v>
+        <v>1.833</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q23">
+        <v>0.75</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
+        <v>1.825</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z23">
         <v>-0.5</v>
       </c>
-      <c r="R23">
-        <v>1.8</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>0.8</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.8</v>
-      </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2601,7 +2601,7 @@
         <v>44962.375</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2678,7 +2678,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5245894</v>
+        <v>5246950</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2690,76 +2690,76 @@
         <v>44962.375</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>1.833</v>
+        <v>4.8</v>
       </c>
       <c r="N25">
+        <v>1.8</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
         <v>4</v>
       </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
-      <c r="P25">
-        <v>1.65</v>
-      </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2868,10 +2868,10 @@
         <v>44967.625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -3583,7 +3583,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3758,10 +3758,10 @@
         <v>44974.625</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>44974.625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4025,10 +4025,10 @@
         <v>44975.375</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>44976.5</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
         <v>36</v>
@@ -4562,7 +4562,7 @@
         <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4918,7 +4918,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5245918</v>
+        <v>5245917</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5004,76 +5004,76 @@
         <v>44981.625</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>1.25</v>
+      </c>
+      <c r="L51">
+        <v>4.5</v>
+      </c>
+      <c r="M51">
+        <v>11</v>
+      </c>
+      <c r="N51">
+        <v>1.222</v>
+      </c>
+      <c r="O51">
+        <v>5.25</v>
+      </c>
+      <c r="P51">
+        <v>9.5</v>
+      </c>
+      <c r="Q51">
+        <v>-1.75</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>1.85</v>
+      </c>
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51">
-        <v>3.75</v>
-      </c>
-      <c r="L51">
-        <v>3.25</v>
-      </c>
-      <c r="M51">
-        <v>1.85</v>
-      </c>
-      <c r="N51">
-        <v>6.5</v>
-      </c>
-      <c r="O51">
-        <v>3.8</v>
-      </c>
-      <c r="P51">
-        <v>1.444</v>
-      </c>
-      <c r="Q51">
-        <v>1.25</v>
-      </c>
-      <c r="R51">
+      <c r="U51">
+        <v>1.975</v>
+      </c>
+      <c r="V51">
         <v>1.825</v>
       </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
-      <c r="V51">
-        <v>1.95</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5245917</v>
+        <v>5245918</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,76 +5093,76 @@
         <v>44981.625</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52">
+        <v>3.75</v>
+      </c>
+      <c r="L52">
+        <v>3.25</v>
+      </c>
+      <c r="M52">
+        <v>1.85</v>
+      </c>
+      <c r="N52">
+        <v>6.5</v>
+      </c>
+      <c r="O52">
+        <v>3.8</v>
+      </c>
+      <c r="P52">
+        <v>1.444</v>
+      </c>
+      <c r="Q52">
         <v>1.25</v>
       </c>
-      <c r="L52">
-        <v>4.5</v>
-      </c>
-      <c r="M52">
-        <v>11</v>
-      </c>
-      <c r="N52">
-        <v>1.222</v>
-      </c>
-      <c r="O52">
-        <v>5.25</v>
-      </c>
-      <c r="P52">
-        <v>9.5</v>
-      </c>
-      <c r="Q52">
-        <v>-1.75</v>
-      </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>1.975</v>
+      </c>
+      <c r="T52">
+        <v>2.75</v>
+      </c>
+      <c r="U52">
+        <v>1.85</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="S52">
-        <v>1.85</v>
-      </c>
-      <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52">
-        <v>1.975</v>
-      </c>
-      <c r="V52">
-        <v>1.825</v>
-      </c>
       <c r="W52">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5185,7 +5185,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5363,7 +5363,7 @@
         <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5245369</v>
+        <v>5245913</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5449,64 +5449,64 @@
         <v>44983.375</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56">
+        <v>5.25</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>1.6</v>
+      </c>
+      <c r="N56">
+        <v>5.75</v>
+      </c>
+      <c r="O56">
+        <v>3.8</v>
+      </c>
+      <c r="P56">
+        <v>1.45</v>
+      </c>
+      <c r="Q56">
         <v>1</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56">
-        <v>1.6</v>
-      </c>
-      <c r="L56">
-        <v>3.5</v>
-      </c>
-      <c r="M56">
-        <v>4.75</v>
-      </c>
-      <c r="N56">
-        <v>1.95</v>
-      </c>
-      <c r="O56">
-        <v>3.3</v>
-      </c>
-      <c r="P56">
-        <v>3.4</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
       <c r="R56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S56">
         <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z56">
         <v>-1</v>
@@ -5515,10 +5515,10 @@
         <v>0.8</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5245913</v>
+        <v>5245369</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,64 +5538,64 @@
         <v>44983.375</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="L57">
+        <v>3.5</v>
+      </c>
+      <c r="M57">
+        <v>4.75</v>
+      </c>
+      <c r="N57">
+        <v>1.95</v>
+      </c>
+      <c r="O57">
+        <v>3.3</v>
+      </c>
+      <c r="P57">
         <v>3.4</v>
       </c>
-      <c r="M57">
-        <v>1.6</v>
-      </c>
-      <c r="N57">
-        <v>5.75</v>
-      </c>
-      <c r="O57">
-        <v>3.8</v>
-      </c>
-      <c r="P57">
-        <v>1.45</v>
-      </c>
       <c r="Q57">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S57">
         <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
@@ -5604,10 +5604,10 @@
         <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5627,7 +5627,7 @@
         <v>44983.375</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
         <v>42</v>
@@ -5716,7 +5716,7 @@
         <v>44983.375</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5805,7 +5805,7 @@
         <v>44988.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5244199</v>
+        <v>5245921</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,76 +5894,76 @@
         <v>44988.625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>1.222</v>
+      </c>
+      <c r="L61">
+        <v>5.5</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>1.285</v>
+      </c>
+      <c r="O61">
+        <v>4.75</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61">
+        <v>-1.5</v>
+      </c>
+      <c r="R61">
+        <v>1.8</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
+        <v>1.825</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>3.75</v>
+      </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61">
-        <v>2.55</v>
-      </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>2.45</v>
-      </c>
-      <c r="N61">
-        <v>2.9</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>2.1</v>
-      </c>
-      <c r="Q61">
-        <v>0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.875</v>
-      </c>
-      <c r="S61">
-        <v>1.925</v>
-      </c>
-      <c r="T61">
-        <v>2.75</v>
-      </c>
-      <c r="U61">
-        <v>1.825</v>
-      </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>1.1</v>
-      </c>
-      <c r="Z61">
-        <v>-1</v>
-      </c>
-      <c r="AA61">
-        <v>0.925</v>
-      </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5245921</v>
+        <v>5244199</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,76 +5983,76 @@
         <v>44988.625</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K62">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>1.975</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6072,10 +6072,10 @@
         <v>44989.375</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6431,7 +6431,7 @@
         <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>44996.375</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -6695,10 +6695,10 @@
         <v>44997.5</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6784,10 +6784,10 @@
         <v>45002.625</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7318,10 +7318,10 @@
         <v>45004.375</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6401282</v>
+        <v>6311735</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7674,55 +7674,55 @@
         <v>45006.625</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>52</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N81">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P81">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7731,19 +7731,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>3.333</v>
+        <v>4.5</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AB81">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6311735</v>
+        <v>6401282</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,55 +7763,55 @@
         <v>45006.625</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
         <v>52</v>
       </c>
       <c r="K82">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7820,19 +7820,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>4.5</v>
+        <v>3.333</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>45010.375</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
@@ -7941,10 +7941,10 @@
         <v>45012.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>46</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>45016.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>41</v>
@@ -8297,10 +8297,10 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5245939</v>
+        <v>5246943</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8653,76 +8653,76 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L92">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
         <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
+        <v>1.95</v>
+      </c>
+      <c r="V92">
         <v>1.85</v>
       </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X92">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5246943</v>
+        <v>5245939</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,76 +8742,76 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O93">
         <v>3.4</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.825</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>2.4</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.5125</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="R93">
-        <v>1.875</v>
-      </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
-      <c r="T93">
-        <v>2.75</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
-      <c r="W93">
-        <v>0.833</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.875</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8831,7 +8831,7 @@
         <v>45018.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -9012,7 +9012,7 @@
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9190,7 +9190,7 @@
         <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9276,7 +9276,7 @@
         <v>45023.375</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>45</v>
@@ -9454,10 +9454,10 @@
         <v>45024.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9635,7 +9635,7 @@
         <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9899,7 +9899,7 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9988,7 +9988,7 @@
         <v>45030.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>42</v>
@@ -10077,7 +10077,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10166,7 +10166,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>41</v>
@@ -10344,7 +10344,7 @@
         <v>45032.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>40</v>
@@ -10436,7 +10436,7 @@
         <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10789,10 +10789,10 @@
         <v>45035.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10881,7 +10881,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11056,10 +11056,10 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11237,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
         <v>38</v>
@@ -11768,7 +11768,7 @@
         <v>45044.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11857,7 +11857,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11946,7 +11946,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -12035,7 +12035,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12124,7 +12124,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12379,7 +12379,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5245376</v>
+        <v>5244205</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12391,13 +12391,13 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -12406,43 +12406,43 @@
         <v>51</v>
       </c>
       <c r="K134">
+        <v>1.615</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
         <v>1.8</v>
       </c>
-      <c r="L134">
-        <v>3.5</v>
-      </c>
-      <c r="M134">
-        <v>3.6</v>
-      </c>
-      <c r="N134">
-        <v>1.5</v>
-      </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12451,16 +12451,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.825</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0</v>
       </c>
-      <c r="AA134">
+      <c r="AC134">
         <v>-0</v>
-      </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
-      <c r="AC134">
-        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5244205</v>
+        <v>5245376</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12480,13 +12480,13 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -12495,43 +12495,43 @@
         <v>51</v>
       </c>
       <c r="K135">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>3.6</v>
+      </c>
+      <c r="N135">
+        <v>1.5</v>
+      </c>
+      <c r="O135">
         <v>4</v>
       </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-      <c r="N135">
+      <c r="P135">
+        <v>5</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
         <v>1.8</v>
       </c>
-      <c r="O135">
-        <v>3.8</v>
-      </c>
-      <c r="P135">
-        <v>3.4</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.825</v>
-      </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12540,16 +12540,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5245966</v>
+        <v>5245968</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5245968</v>
+        <v>5245966</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,73 +12925,73 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>52</v>
+      </c>
+      <c r="K140">
+        <v>1.615</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.5</v>
+      </c>
+      <c r="O140">
+        <v>4.5</v>
+      </c>
+      <c r="P140">
+        <v>4.333</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
         <v>3</v>
       </c>
-      <c r="I140">
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
+        <v>1.975</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>3.333</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
         <v>1</v>
       </c>
-      <c r="J140" t="s">
-        <v>51</v>
-      </c>
-      <c r="K140">
-        <v>2</v>
-      </c>
-      <c r="L140">
-        <v>3.4</v>
-      </c>
-      <c r="M140">
-        <v>3.1</v>
-      </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
-      <c r="O140">
-        <v>3.4</v>
-      </c>
-      <c r="P140">
-        <v>2.8</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.95</v>
-      </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>1.15</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0.95</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13017,7 +13017,7 @@
         <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5469905</v>
+        <v>5462005</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,61 +13281,61 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>50</v>
       </c>
       <c r="K144">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="S144">
-        <v>1.75</v>
-      </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
         <v>1.95</v>
       </c>
-      <c r="V144">
-        <v>1.85</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13344,13 +13344,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.95</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13370,7 +13370,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>30</v>
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5462005</v>
+        <v>5469905</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,61 +13459,61 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>50</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N146">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
+        <v>1.75</v>
+      </c>
+      <c r="T146">
+        <v>3.25</v>
+      </c>
+      <c r="U146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.9</v>
-      </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13522,13 +13522,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
+        <v>0.75</v>
+      </c>
+      <c r="AB146">
         <v>0.95</v>
       </c>
-      <c r="AB146">
-        <v>-1</v>
-      </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13637,7 +13637,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13815,7 +13815,7 @@
         <v>45060.33333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G150" t="s">
         <v>39</v>
@@ -13904,7 +13904,7 @@
         <v>45060.33333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>31</v>
@@ -14085,7 +14085,7 @@
         <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14174,7 +14174,7 @@
         <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14263,7 +14263,7 @@
         <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14708,7 +14708,7 @@
         <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -14797,7 +14797,7 @@
         <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -15061,7 +15061,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>46</v>
@@ -15150,7 +15150,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>30</v>
@@ -15239,7 +15239,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
         <v>37</v>
@@ -15328,7 +15328,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15417,7 +15417,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15506,7 +15506,7 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169" t="s">
         <v>38</v>
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6882862</v>
+        <v>6880835</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,13 +15684,13 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15699,43 +15699,43 @@
         <v>51</v>
       </c>
       <c r="K171">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N171">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q171">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15744,16 +15744,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,13 +15773,13 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -15788,43 +15788,43 @@
         <v>51</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
         <v>1.8</v>
-      </c>
-      <c r="S172">
-        <v>2</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15833,16 +15833,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16129,7 +16129,7 @@
         <v>45136.37847222222</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
         <v>41</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6880834</v>
+        <v>6879928</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,49 +16218,49 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N177">
+        <v>1.4</v>
+      </c>
+      <c r="O177">
+        <v>4.333</v>
+      </c>
+      <c r="P177">
         <v>5.75</v>
       </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>1.45</v>
-      </c>
       <c r="Q177">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
         <v>1.825</v>
@@ -16269,7 +16269,7 @@
         <v>1.975</v>
       </c>
       <c r="W177">
-        <v>4.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16278,16 +16278,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6879928</v>
+        <v>6880834</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,49 +16307,49 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="O178">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
         <v>1.825</v>
@@ -16358,7 +16358,7 @@
         <v>1.975</v>
       </c>
       <c r="W178">
-        <v>0.3999999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16367,16 +16367,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16577,7 +16577,7 @@
         <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H181">
         <v>6</v>
@@ -16841,7 +16841,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -16930,7 +16930,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6879930</v>
+        <v>6880287</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,76 +17108,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
+        <v>2.25</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>5</v>
-      </c>
-      <c r="N187">
-        <v>1.181</v>
-      </c>
-      <c r="O187">
-        <v>6.5</v>
-      </c>
       <c r="P187">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q187">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
+        <v>1.925</v>
+      </c>
+      <c r="S187">
+        <v>1.925</v>
+      </c>
+      <c r="T187">
+        <v>3</v>
+      </c>
+      <c r="U187">
+        <v>1.8</v>
+      </c>
+      <c r="V187">
         <v>2.05</v>
       </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>3.5</v>
-      </c>
-      <c r="U187">
-        <v>1.875</v>
-      </c>
-      <c r="V187">
-        <v>1.975</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
+        <v>0.925</v>
+      </c>
+      <c r="AB187">
         <v>0.8</v>
       </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6880287</v>
+        <v>6879930</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,76 +17197,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>50</v>
+      </c>
+      <c r="K188">
+        <v>1.5</v>
+      </c>
+      <c r="L188">
         <v>4</v>
       </c>
-      <c r="J188" t="s">
-        <v>52</v>
-      </c>
-      <c r="K188">
-        <v>2.5</v>
-      </c>
-      <c r="L188">
-        <v>3.75</v>
-      </c>
       <c r="M188">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.181</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P188">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y188">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17553,7 +17553,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17823,7 +17823,7 @@
         <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -17909,7 +17909,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
         <v>31</v>
@@ -18087,7 +18087,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>48</v>
@@ -18268,7 +18268,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18446,7 +18446,7 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18710,7 +18710,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
         <v>47</v>
@@ -18802,7 +18802,7 @@
         <v>48</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19155,7 +19155,7 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>46</v>
@@ -19333,7 +19333,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
         <v>37</v>
@@ -19425,7 +19425,7 @@
         <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>3</v>
@@ -19511,10 +19511,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -20045,7 +20045,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G220" t="s">
         <v>39</v>
@@ -20134,7 +20134,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G221" t="s">
         <v>40</v>
@@ -20401,10 +20401,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F224" t="s">
+        <v>33</v>
+      </c>
+      <c r="G224" t="s">
         <v>32</v>
-      </c>
-      <c r="G224" t="s">
-        <v>35</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6880135</v>
+        <v>6882856</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>52</v>
+      </c>
+      <c r="K225">
+        <v>2.5</v>
+      </c>
+      <c r="L225">
+        <v>3.6</v>
+      </c>
+      <c r="M225">
+        <v>2.3</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225">
+        <v>5</v>
+      </c>
+      <c r="P225">
+        <v>1.533</v>
+      </c>
+      <c r="Q225">
+        <v>1</v>
+      </c>
+      <c r="R225">
+        <v>1.925</v>
+      </c>
+      <c r="S225">
+        <v>1.875</v>
+      </c>
+      <c r="T225">
+        <v>3.25</v>
+      </c>
+      <c r="U225">
+        <v>1.825</v>
+      </c>
+      <c r="V225">
+        <v>1.975</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-      <c r="J225" t="s">
-        <v>50</v>
-      </c>
-      <c r="K225">
-        <v>1.444</v>
-      </c>
-      <c r="L225">
-        <v>4.333</v>
-      </c>
-      <c r="M225">
-        <v>5.25</v>
-      </c>
-      <c r="N225">
-        <v>1.571</v>
-      </c>
-      <c r="O225">
-        <v>4</v>
-      </c>
-      <c r="P225">
-        <v>4.333</v>
-      </c>
-      <c r="Q225">
-        <v>-1</v>
-      </c>
-      <c r="R225">
-        <v>2.025</v>
-      </c>
-      <c r="S225">
-        <v>1.825</v>
-      </c>
-      <c r="T225">
-        <v>3</v>
-      </c>
-      <c r="U225">
-        <v>1.95</v>
-      </c>
-      <c r="V225">
-        <v>1.9</v>
-      </c>
-      <c r="W225">
-        <v>-1</v>
-      </c>
-      <c r="X225">
-        <v>3</v>
-      </c>
-      <c r="Y225">
-        <v>-1</v>
-      </c>
-      <c r="Z225">
-        <v>-1</v>
-      </c>
       <c r="AA225">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC225">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6882856</v>
+        <v>6880135</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M226">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N226">
+        <v>1.571</v>
+      </c>
+      <c r="O226">
         <v>4</v>
       </c>
-      <c r="O226">
-        <v>5</v>
-      </c>
       <c r="P226">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y226">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20760,7 +20760,7 @@
         <v>42</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20846,10 +20846,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20938,7 +20938,7 @@
         <v>49</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21380,7 +21380,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
         <v>37</v>
@@ -21546,7 +21546,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6880291</v>
+        <v>6880860</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21558,76 +21558,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K237">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M237">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N237">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P237">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
+        <v>3.25</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.85</v>
       </c>
-      <c r="S237">
-        <v>2</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>1.9</v>
-      </c>
-      <c r="V237">
-        <v>1.95</v>
-      </c>
       <c r="W237">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21635,7 +21635,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6880860</v>
+        <v>6880291</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21647,76 +21647,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K238">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N238">
+        <v>2.7</v>
+      </c>
+      <c r="O238">
+        <v>3.5</v>
+      </c>
+      <c r="P238">
+        <v>2.2</v>
+      </c>
+      <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.85</v>
+      </c>
+      <c r="S238">
+        <v>2</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
+        <v>1.9</v>
+      </c>
+      <c r="V238">
+        <v>1.95</v>
+      </c>
+      <c r="W238">
         <v>1.7</v>
       </c>
-      <c r="O238">
-        <v>4</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>-0.75</v>
-      </c>
-      <c r="R238">
-        <v>1.95</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>3.25</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21736,10 +21736,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22003,7 +22003,7 @@
         <v>45199.37847222222</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G242" t="s">
         <v>30</v>
@@ -22092,7 +22092,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
         <v>49</v>
@@ -22804,10 +22804,10 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H251">
         <v>3</v>
@@ -22896,7 +22896,7 @@
         <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H252">
         <v>4</v>
@@ -22985,7 +22985,7 @@
         <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23074,7 +23074,7 @@
         <v>49</v>
       </c>
       <c r="G254" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23163,7 +23163,7 @@
         <v>48</v>
       </c>
       <c r="G255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23338,10 +23338,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F257" t="s">
+        <v>44</v>
+      </c>
+      <c r="G257" t="s">
         <v>43</v>
-      </c>
-      <c r="G257" t="s">
-        <v>44</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23605,7 +23605,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
         <v>45</v>
@@ -23786,7 +23786,7 @@
         <v>49</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -23961,7 +23961,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
         <v>47</v>
@@ -24142,7 +24142,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -24228,7 +24228,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G267" t="s">
         <v>31</v>
@@ -24409,7 +24409,7 @@
         <v>41</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24762,7 +24762,7 @@
         <v>45233.625</v>
       </c>
       <c r="F273" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G273" t="s">
         <v>41</v>
@@ -24854,7 +24854,7 @@
         <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -24940,7 +24940,7 @@
         <v>45234.375</v>
       </c>
       <c r="F275" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G275" t="s">
         <v>45</v>
@@ -25029,7 +25029,7 @@
         <v>45234.375</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25207,7 +25207,7 @@
         <v>45235.375</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G278" t="s">
         <v>31</v>
@@ -25655,7 +25655,7 @@
         <v>47</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25744,7 +25744,7 @@
         <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H284">
         <v>2</v>
@@ -25833,7 +25833,7 @@
         <v>39</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -26008,7 +26008,7 @@
         <v>45242.375</v>
       </c>
       <c r="F287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G287" t="s">
         <v>46</v>
@@ -26189,7 +26189,7 @@
         <v>45</v>
       </c>
       <c r="G289" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26275,10 +26275,10 @@
         <v>45251.625</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26542,7 +26542,7 @@
         <v>45254.625</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G293" t="s">
         <v>42</v>
@@ -26631,7 +26631,7 @@
         <v>45255.375</v>
       </c>
       <c r="F294" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G294" t="s">
         <v>38</v>
@@ -26898,7 +26898,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
         <v>40</v>
@@ -26987,7 +26987,7 @@
         <v>45256.375</v>
       </c>
       <c r="F298" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
         <v>41</v>
@@ -27168,7 +27168,7 @@
         <v>46</v>
       </c>
       <c r="G300" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H300">
         <v>7</v>
@@ -27702,7 +27702,7 @@
         <v>41</v>
       </c>
       <c r="G306" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>45315.625</v>
       </c>
       <c r="F310" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G310" t="s">
         <v>37</v>
@@ -28144,7 +28144,7 @@
         <v>45317.625</v>
       </c>
       <c r="F311" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G311" t="s">
         <v>48</v>
@@ -28414,7 +28414,7 @@
         <v>31</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H314">
         <v>3</v>
@@ -28500,7 +28500,7 @@
         <v>45319.375</v>
       </c>
       <c r="F315" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G315" t="s">
         <v>49</v>
@@ -28678,7 +28678,7 @@
         <v>45322.625</v>
       </c>
       <c r="F317" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G317" t="s">
         <v>47</v>
@@ -28767,7 +28767,7 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G318" t="s">
         <v>46</v>
@@ -28945,7 +28945,7 @@
         <v>45324.625</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G320" t="s">
         <v>38</v>
@@ -29034,10 +29034,10 @@
         <v>45325.375</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G321" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H321">
         <v>3</v>
@@ -29215,7 +29215,7 @@
         <v>39</v>
       </c>
       <c r="G323" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>39</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29657,10 +29657,10 @@
         <v>45328.625</v>
       </c>
       <c r="F328" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G328" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -29734,7 +29734,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29746,46 +29746,46 @@
         <v>45329.625</v>
       </c>
       <c r="F329" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G329" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>51</v>
       </c>
       <c r="K329">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M329">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N329">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O329">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P329">
         <v>4</v>
       </c>
       <c r="Q329">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R329">
+        <v>1.975</v>
+      </c>
+      <c r="S329">
         <v>1.825</v>
-      </c>
-      <c r="S329">
-        <v>2.025</v>
       </c>
       <c r="T329">
         <v>2.75</v>
@@ -29794,10 +29794,10 @@
         <v>1.975</v>
       </c>
       <c r="V329">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29806,16 +29806,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29823,7 +29823,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29835,46 +29835,46 @@
         <v>45329.625</v>
       </c>
       <c r="F330" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G330" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
         <v>51</v>
       </c>
       <c r="K330">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L330">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M330">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N330">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O330">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P330">
         <v>4</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T330">
         <v>2.75</v>
@@ -29883,10 +29883,10 @@
         <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29895,16 +29895,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
+        <v>0.4125</v>
+      </c>
+      <c r="AA330">
+        <v>-0.5</v>
+      </c>
+      <c r="AB330">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA330">
-        <v>-1</v>
-      </c>
-      <c r="AB330">
-        <v>-1</v>
-      </c>
       <c r="AC330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29927,7 +29927,7 @@
         <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -30016,7 +30016,7 @@
         <v>46</v>
       </c>
       <c r="G332" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H332">
         <v>1</v>
@@ -30191,7 +30191,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G334" t="s">
         <v>37</v>
@@ -30372,7 +30372,7 @@
         <v>48</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>2</v>
@@ -30458,7 +30458,7 @@
         <v>45333.375</v>
       </c>
       <c r="F337" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G337" t="s">
         <v>45</v>
@@ -30547,7 +30547,7 @@
         <v>45335.625</v>
       </c>
       <c r="F338" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G338" t="s">
         <v>40</v>
@@ -30639,7 +30639,7 @@
         <v>47</v>
       </c>
       <c r="G339" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -30725,7 +30725,7 @@
         <v>45339.375</v>
       </c>
       <c r="F340" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G340" t="s">
         <v>38</v>
@@ -31081,7 +31081,7 @@
         <v>45340.375</v>
       </c>
       <c r="F344" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G344" t="s">
         <v>48</v>
@@ -31437,10 +31437,10 @@
         <v>45343.625</v>
       </c>
       <c r="F348" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G348" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H348">
         <v>1</v>
@@ -31781,7 +31781,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6880301</v>
+        <v>6880906</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31790,49 +31790,49 @@
         <v>28</v>
       </c>
       <c r="E352" s="2">
-        <v>45346.375</v>
+        <v>45346.5</v>
       </c>
       <c r="F352" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G352" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K352">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L352">
         <v>3.75</v>
       </c>
       <c r="M352">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N352">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O352">
         <v>3.6</v>
       </c>
       <c r="P352">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q352">
         <v>0.25</v>
       </c>
       <c r="R352">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S352">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T352">
         <v>2.75</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
         <v>0</v>
@@ -31855,7 +31855,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6879948</v>
+        <v>6880163</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31864,49 +31864,49 @@
         <v>28</v>
       </c>
       <c r="E353" s="2">
-        <v>45346.375</v>
+        <v>45347.375</v>
       </c>
       <c r="F353" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G353" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K353">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L353">
+        <v>4</v>
+      </c>
+      <c r="M353">
         <v>6</v>
       </c>
-      <c r="M353">
-        <v>9</v>
-      </c>
       <c r="N353">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="O353">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P353">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="Q353">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R353">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U353">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V353">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31929,7 +31929,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6882840</v>
+        <v>6880907</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31938,49 +31938,49 @@
         <v>28</v>
       </c>
       <c r="E354" s="2">
-        <v>45346.41666666666</v>
+        <v>45347.375</v>
       </c>
       <c r="F354" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G354" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="K354">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L354">
+        <v>3.75</v>
+      </c>
+      <c r="M354">
         <v>4</v>
       </c>
-      <c r="M354">
-        <v>1.95</v>
-      </c>
       <c r="N354">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O354">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P354">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q354">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R354">
+        <v>1.875</v>
+      </c>
+      <c r="S354">
         <v>1.975</v>
       </c>
-      <c r="S354">
-        <v>1.875</v>
-      </c>
       <c r="T354">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V354">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -31995,228 +31995,6 @@
         <v>0</v>
       </c>
       <c r="AA354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355">
-        <v>6880906</v>
-      </c>
-      <c r="C355" t="s">
-        <v>28</v>
-      </c>
-      <c r="D355" t="s">
-        <v>28</v>
-      </c>
-      <c r="E355" s="2">
-        <v>45346.5</v>
-      </c>
-      <c r="F355" t="s">
-        <v>46</v>
-      </c>
-      <c r="G355" t="s">
-        <v>33</v>
-      </c>
-      <c r="K355">
-        <v>2</v>
-      </c>
-      <c r="L355">
-        <v>3.75</v>
-      </c>
-      <c r="M355">
-        <v>2.875</v>
-      </c>
-      <c r="N355">
-        <v>2.8</v>
-      </c>
-      <c r="O355">
-        <v>3.6</v>
-      </c>
-      <c r="P355">
-        <v>2.15</v>
-      </c>
-      <c r="Q355">
-        <v>0.25</v>
-      </c>
-      <c r="R355">
-        <v>1.9</v>
-      </c>
-      <c r="S355">
-        <v>1.95</v>
-      </c>
-      <c r="T355">
-        <v>2.75</v>
-      </c>
-      <c r="U355">
-        <v>1.85</v>
-      </c>
-      <c r="V355">
-        <v>2</v>
-      </c>
-      <c r="W355">
-        <v>0</v>
-      </c>
-      <c r="X355">
-        <v>0</v>
-      </c>
-      <c r="Y355">
-        <v>0</v>
-      </c>
-      <c r="Z355">
-        <v>0</v>
-      </c>
-      <c r="AA355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356">
-        <v>6880163</v>
-      </c>
-      <c r="C356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D356" t="s">
-        <v>28</v>
-      </c>
-      <c r="E356" s="2">
-        <v>45347.375</v>
-      </c>
-      <c r="F356" t="s">
-        <v>38</v>
-      </c>
-      <c r="G356" t="s">
-        <v>45</v>
-      </c>
-      <c r="K356">
-        <v>1.444</v>
-      </c>
-      <c r="L356">
-        <v>4</v>
-      </c>
-      <c r="M356">
-        <v>6</v>
-      </c>
-      <c r="N356">
-        <v>1.65</v>
-      </c>
-      <c r="O356">
-        <v>3.6</v>
-      </c>
-      <c r="P356">
-        <v>4.5</v>
-      </c>
-      <c r="Q356">
-        <v>-0.75</v>
-      </c>
-      <c r="R356">
-        <v>1.875</v>
-      </c>
-      <c r="S356">
-        <v>1.975</v>
-      </c>
-      <c r="T356">
-        <v>2.5</v>
-      </c>
-      <c r="U356">
-        <v>1.85</v>
-      </c>
-      <c r="V356">
-        <v>2</v>
-      </c>
-      <c r="W356">
-        <v>0</v>
-      </c>
-      <c r="X356">
-        <v>0</v>
-      </c>
-      <c r="Y356">
-        <v>0</v>
-      </c>
-      <c r="Z356">
-        <v>0</v>
-      </c>
-      <c r="AA356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357">
-        <v>6880907</v>
-      </c>
-      <c r="C357" t="s">
-        <v>28</v>
-      </c>
-      <c r="D357" t="s">
-        <v>28</v>
-      </c>
-      <c r="E357" s="2">
-        <v>45347.375</v>
-      </c>
-      <c r="F357" t="s">
-        <v>43</v>
-      </c>
-      <c r="G357" t="s">
-        <v>32</v>
-      </c>
-      <c r="K357">
-        <v>1.666</v>
-      </c>
-      <c r="L357">
-        <v>3.75</v>
-      </c>
-      <c r="M357">
-        <v>4</v>
-      </c>
-      <c r="N357">
-        <v>1.833</v>
-      </c>
-      <c r="O357">
-        <v>3.75</v>
-      </c>
-      <c r="P357">
-        <v>3.5</v>
-      </c>
-      <c r="Q357">
-        <v>-0.5</v>
-      </c>
-      <c r="R357">
-        <v>1.925</v>
-      </c>
-      <c r="S357">
-        <v>1.925</v>
-      </c>
-      <c r="T357">
-        <v>2.5</v>
-      </c>
-      <c r="U357">
-        <v>2</v>
-      </c>
-      <c r="V357">
-        <v>1.85</v>
-      </c>
-      <c r="W357">
-        <v>0</v>
-      </c>
-      <c r="X357">
-        <v>0</v>
-      </c>
-      <c r="Y357">
-        <v>0</v>
-      </c>
-      <c r="Z357">
-        <v>0</v>
-      </c>
-      <c r="AA357">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
-    <t>Hertha Berlin II</t>
+    <t>RotWeiss Erfurt</t>
   </si>
   <si>
-    <t>RotWeiss Erfurt</t>
+    <t>Hertha Berlin II</t>
   </si>
   <si>
     <t>FC Lok Leipzig</t>
@@ -121,13 +121,13 @@
     <t>Chemnitzer</t>
   </si>
   <si>
+    <t>FSV 63 Luckenwalde</t>
+  </si>
+  <si>
     <t>Babelsberg 03</t>
   </si>
   <si>
     <t>Viktoria 89 Berlin</t>
-  </si>
-  <si>
-    <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
     <t>Eilenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,10 +637,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -649,43 +649,43 @@
         <v>47</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6882862</v>
+        <v>6880835</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,43 +738,43 @@
         <v>47</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6880123</v>
+        <v>6879928</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,55 +1171,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
+        <v>1.925</v>
+      </c>
+      <c r="S8">
         <v>1.875</v>
       </c>
-      <c r="S8">
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.85</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
       <c r="W8">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,16 +1228,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6880834</v>
+        <v>6880123</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1272,43 +1272,43 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
         <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>4.75</v>
+        <v>0.833</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,13 +1317,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC9">
         <v>-0.5</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6879928</v>
+        <v>6880834</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,46 +1349,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
         <v>1.825</v>
@@ -1397,7 +1397,7 @@
         <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6880127</v>
+        <v>6880287</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6880840</v>
+        <v>6880127</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N19">
         <v>1.5</v>
       </c>
       <c r="O19">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
         <v>1.925</v>
       </c>
-      <c r="V19">
-        <v>1.875</v>
-      </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.925</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6880287</v>
+        <v>6880840</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,73 +2325,73 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
         <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
+        <v>0.375</v>
+      </c>
+      <c r="AB21">
         <v>0.925</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880841</v>
+        <v>6880839</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
         <v>2.5</v>
-      </c>
-      <c r="N22">
-        <v>2.875</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880839</v>
+        <v>6880128</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
+        <v>1.333</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>1.45</v>
+      </c>
+      <c r="O23">
+        <v>4.75</v>
+      </c>
+      <c r="P23">
+        <v>4.5</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>2.05</v>
       </c>
-      <c r="L23">
-        <v>3.5</v>
-      </c>
-      <c r="M23">
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <v>2.5</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>2.375</v>
-      </c>
-      <c r="Q23">
+      <c r="U23">
+        <v>1.95</v>
+      </c>
+      <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>0.45</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.4</v>
+      </c>
+      <c r="AB23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.85</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>1.375</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>0.5</v>
-      </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880128</v>
+        <v>6880841</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2696,43 +2696,43 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="O25">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
         <v>1.9</v>
       </c>
       <c r="W25">
-        <v>0.45</v>
+        <v>1.875</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,16 +2741,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -2862,7 +2862,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2951,7 +2951,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6880848</v>
+        <v>6880489</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
+        <v>3.3</v>
+      </c>
+      <c r="M33">
+        <v>2.5</v>
+      </c>
+      <c r="N33">
+        <v>2.1</v>
+      </c>
+      <c r="O33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>4.5</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
       <c r="P33">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
+        <v>1.875</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>3.25</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,10 +3459,10 @@
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6880489</v>
+        <v>6880848</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,58 +3482,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,10 +3548,10 @@
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6880131</v>
+        <v>6882858</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,25 +3764,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,19 +3791,19 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3818,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6882858</v>
+        <v>6880131</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3853,25 +3853,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N38">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O38">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
         <v>1.975</v>
@@ -3880,19 +3880,19 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6879932</v>
+        <v>6880133</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="L42">
+        <v>5.5</v>
+      </c>
+      <c r="M42">
+        <v>1.2</v>
+      </c>
+      <c r="N42">
+        <v>4.75</v>
+      </c>
+      <c r="O42">
         <v>4.333</v>
       </c>
-      <c r="M42">
-        <v>1.444</v>
-      </c>
-      <c r="N42">
-        <v>11</v>
-      </c>
-      <c r="O42">
-        <v>5.5</v>
-      </c>
       <c r="P42">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="Q42">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.75</v>
-      </c>
-      <c r="AB42">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6880133</v>
+        <v>6879932</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>1.444</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
         <v>5.5</v>
       </c>
-      <c r="M43">
-        <v>1.2</v>
-      </c>
-      <c r="N43">
-        <v>4.75</v>
-      </c>
-      <c r="O43">
-        <v>4.333</v>
-      </c>
       <c r="P43">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4375,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6880490</v>
+        <v>6882857</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
         <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X46">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA46">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6882857</v>
+        <v>6880490</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.6</v>
       </c>
       <c r="M47">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
+        <v>1.875</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
         <v>1.95</v>
       </c>
-      <c r="T47">
-        <v>3.25</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880289</v>
+        <v>6880491</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880491</v>
+        <v>6880447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,13 +4995,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5010,43 +5010,43 @@
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,16 +5055,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880447</v>
+        <v>6880289</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z52">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6880853</v>
+        <v>6880136</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,73 +5176,73 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N53">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P53">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB53">
         <v>0</v>
       </c>
-      <c r="AA53">
+      <c r="AC53">
         <v>-0</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6880136</v>
+        <v>6880853</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,73 +5265,73 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N54">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6882856</v>
+        <v>6880135</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N55">
+        <v>1.571</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
       <c r="P55">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y55">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6880135</v>
+        <v>6879933</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,10 +5440,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5455,46 +5455,46 @@
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P56">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
+        <v>1.95</v>
+      </c>
+      <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5503,13 +5503,13 @@
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6879933</v>
+        <v>6882856</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,49 +5529,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
         <v>1.825</v>
@@ -5583,22 +5583,22 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5707,10 +5707,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
         <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6880858</v>
+        <v>6880137</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880137</v>
+        <v>6880858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
+        <v>1.571</v>
+      </c>
+      <c r="O63">
+        <v>3.75</v>
+      </c>
+      <c r="P63">
         <v>4.75</v>
       </c>
-      <c r="O63">
-        <v>4.5</v>
-      </c>
-      <c r="P63">
-        <v>1.45</v>
-      </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880857</v>
+        <v>6880855</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
+        <v>2.45</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.35</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
         <v>2.2</v>
       </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <v>2.1</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.1</v>
-      </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880855</v>
+        <v>6880857</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880860</v>
+        <v>6880291</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
+        <v>2.7</v>
+      </c>
+      <c r="O68">
+        <v>3.5</v>
+      </c>
+      <c r="P68">
+        <v>2.2</v>
+      </c>
+      <c r="Q68">
+        <v>0.25</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>1.9</v>
+      </c>
+      <c r="V68">
+        <v>1.95</v>
+      </c>
+      <c r="W68">
         <v>1.7</v>
       </c>
-      <c r="O68">
-        <v>4</v>
-      </c>
-      <c r="P68">
-        <v>3.6</v>
-      </c>
-      <c r="Q68">
-        <v>-0.75</v>
-      </c>
-      <c r="R68">
-        <v>1.95</v>
-      </c>
-      <c r="S68">
-        <v>1.9</v>
-      </c>
-      <c r="T68">
-        <v>3.25</v>
-      </c>
-      <c r="U68">
-        <v>2</v>
-      </c>
-      <c r="V68">
-        <v>1.85</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6880861</v>
+        <v>6880860</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,56 +6597,56 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
         <v>1.95</v>
       </c>
       <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.75</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
@@ -6654,19 +6654,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6880291</v>
+        <v>6880861</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="O70">
         <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
         <v>1.85</v>
       </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
         <v>1.95</v>
       </c>
       <c r="W70">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6879935</v>
+        <v>6882854</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <v>3.75</v>
       </c>
       <c r="M74">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N74">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
         <v>1.8</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T74">
+        <v>3.25</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.85</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>3</v>
       </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
-      <c r="W74">
-        <v>2.25</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6882854</v>
+        <v>6879935</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L75">
         <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N75">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
         <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6880864</v>
+        <v>6880139</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>3</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P77">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R77">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z77">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880449</v>
+        <v>6880864</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,73 +7487,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
+        <v>2.625</v>
+      </c>
+      <c r="N79">
         <v>2.2</v>
       </c>
-      <c r="N79">
-        <v>2.8</v>
-      </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6882853</v>
+        <v>6879936</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,13 +7576,13 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7591,43 +7591,43 @@
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M80">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P80">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>3.75</v>
+      </c>
+      <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="S80">
-        <v>1.975</v>
-      </c>
-      <c r="T80">
-        <v>3</v>
-      </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.925</v>
-      </c>
       <c r="W80">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6880865</v>
+        <v>6882853</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M81">
+        <v>3.5</v>
+      </c>
+      <c r="N81">
+        <v>1.615</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
+        <v>-0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
+        <v>1.975</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="N81">
-        <v>2.25</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>1.75</v>
-      </c>
-      <c r="S81">
-        <v>2.125</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6879936</v>
+        <v>6880865</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,61 +7754,61 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O82">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7820,10 +7820,10 @@
         <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8113,7 +8113,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880868</v>
+        <v>6880293</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,55 +8288,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8345,19 +8345,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880493</v>
+        <v>6880868</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,52 +8380,52 @@
         <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>49</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8434,19 +8434,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880293</v>
+        <v>6880493</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,10 +8466,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8481,61 +8481,61 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
+        <v>2.2</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
         <v>3.25</v>
       </c>
-      <c r="Q90">
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>1.2</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.95</v>
-      </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>1.75</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>2.25</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>0.75</v>
-      </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6880866</v>
+        <v>6880450</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>5</v>
-      </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
         <v>1.875</v>
       </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6880450</v>
+        <v>6880866</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>5</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R94">
+        <v>1.875</v>
+      </c>
+      <c r="S94">
         <v>1.925</v>
       </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
         <v>0.925</v>
       </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9178,10 +9178,10 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6882851</v>
+        <v>6880871</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,10 +9356,10 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9371,43 +9371,43 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6880295</v>
+        <v>6879939</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,67 +9712,67 @@
         <v>45233.625</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9781,7 +9781,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6879939</v>
+        <v>6880295</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,67 +9801,67 @@
         <v>45233.625</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9870,7 +9870,7 @@
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6880143</v>
+        <v>6880873</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45234.375</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K106">
-        <v>1.5</v>
-      </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N106">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.775</v>
-      </c>
       <c r="V106">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6880873</v>
+        <v>6880143</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>1.3</v>
+      </c>
+      <c r="O107">
+        <v>5</v>
+      </c>
+      <c r="P107">
+        <v>6.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.5</v>
+      </c>
+      <c r="R107">
         <v>1.95</v>
       </c>
-      <c r="N107">
-        <v>3.1</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
-      <c r="P107">
-        <v>1.95</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.8</v>
-      </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10160,7 +10160,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10249,7 +10249,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -10513,10 +10513,10 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880145</v>
+        <v>6880876</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,13 +10602,13 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10617,43 +10617,43 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.75</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
         <v>1.85</v>
       </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>3.25</v>
-      </c>
-      <c r="U114">
-        <v>1.875</v>
-      </c>
-      <c r="V114">
-        <v>1.925</v>
-      </c>
       <c r="W114">
-        <v>5.5</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>0.95</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6880876</v>
+        <v>6880145</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,13 +10691,13 @@
         <v>45240.625</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10706,43 +10706,43 @@
         <v>47</v>
       </c>
       <c r="K115">
+        <v>3.25</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
         <v>1.8</v>
       </c>
-      <c r="L115">
-        <v>3.75</v>
-      </c>
-      <c r="M115">
-        <v>3.4</v>
-      </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.75</v>
-      </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10751,7 +10751,7 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10760,7 +10760,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6880296</v>
+        <v>6882849</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,49 +10958,49 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N118">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -11009,25 +11009,25 @@
         <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6882849</v>
+        <v>6880296</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,49 +11047,49 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N119">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11098,25 +11098,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X119">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6880880</v>
+        <v>6879941</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,73 +11314,73 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
+        <v>13</v>
+      </c>
+      <c r="L122">
+        <v>5.75</v>
+      </c>
+      <c r="M122">
+        <v>1.166</v>
+      </c>
+      <c r="N122">
+        <v>4.75</v>
+      </c>
+      <c r="O122">
         <v>3.75</v>
       </c>
-      <c r="L122">
-        <v>3.6</v>
-      </c>
-      <c r="M122">
-        <v>1.75</v>
-      </c>
-      <c r="N122">
-        <v>4.2</v>
-      </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
       <c r="P122">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6879941</v>
+        <v>6880880</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,73 +11492,73 @@
         <v>45254.625</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>48</v>
+      </c>
+      <c r="K124">
+        <v>3.75</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>1.75</v>
+      </c>
+      <c r="N124">
+        <v>4.2</v>
+      </c>
+      <c r="O124">
+        <v>3.8</v>
+      </c>
+      <c r="P124">
+        <v>1.666</v>
+      </c>
+      <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.95</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>13</v>
-      </c>
-      <c r="L124">
-        <v>5.75</v>
-      </c>
-      <c r="M124">
-        <v>1.166</v>
-      </c>
-      <c r="N124">
-        <v>4.75</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>1.6</v>
-      </c>
-      <c r="Q124">
-        <v>1</v>
-      </c>
-      <c r="R124">
-        <v>1.775</v>
-      </c>
-      <c r="S124">
-        <v>2.1</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
         <v>30</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12385,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -13005,7 +13005,7 @@
         <v>45315.625</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13183,7 +13183,7 @@
         <v>45318.375</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6880299</v>
+        <v>6879945</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>4.75</v>
+      </c>
+      <c r="N145">
+        <v>1.571</v>
+      </c>
+      <c r="O145">
         <v>3.75</v>
       </c>
-      <c r="M145">
-        <v>3.6</v>
-      </c>
-      <c r="N145">
-        <v>2.1</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6879945</v>
+        <v>6880299</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13720,7 +13720,7 @@
         <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880894</v>
+        <v>6880300</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L153">
         <v>4</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880300</v>
+        <v>6880894</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L154">
         <v>4</v>
       </c>
       <c r="M154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N154">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>4</v>
@@ -14874,7 +14874,7 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>43</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6880901</v>
+        <v>6879947</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
         <v>0</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M163">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P163">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
         <v>1.8</v>
@@ -15005,34 +15005,34 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6879947</v>
+        <v>6880901</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N164">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O164">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
         <v>1.8</v>
@@ -15094,34 +15094,34 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6880159</v>
+        <v>6882842</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,43 +15230,43 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K166">
+        <v>2.375</v>
+      </c>
+      <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.625</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166">
+        <v>3.2</v>
+      </c>
+      <c r="P166">
         <v>2.2</v>
       </c>
-      <c r="L166">
-        <v>3.25</v>
-      </c>
-      <c r="M166">
-        <v>2.8</v>
-      </c>
-      <c r="N166">
-        <v>2</v>
-      </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
-      <c r="P166">
-        <v>3.1</v>
-      </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
         <v>1.975</v>
@@ -15275,31 +15275,31 @@
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6882842</v>
+        <v>6880158</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,73 +15319,73 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
       <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>48</v>
+      </c>
+      <c r="K167">
+        <v>1.222</v>
+      </c>
+      <c r="L167">
+        <v>6</v>
+      </c>
+      <c r="M167">
+        <v>8</v>
+      </c>
+      <c r="N167">
+        <v>1.2</v>
+      </c>
+      <c r="O167">
+        <v>7</v>
+      </c>
+      <c r="P167">
+        <v>8</v>
+      </c>
+      <c r="Q167">
+        <v>-1.75</v>
+      </c>
+      <c r="R167">
+        <v>1.75</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
         <v>3</v>
       </c>
-      <c r="J167" t="s">
-        <v>49</v>
-      </c>
-      <c r="K167">
-        <v>2.375</v>
-      </c>
-      <c r="L167">
-        <v>3.2</v>
-      </c>
-      <c r="M167">
-        <v>2.625</v>
-      </c>
-      <c r="N167">
-        <v>3</v>
-      </c>
-      <c r="O167">
-        <v>3.2</v>
-      </c>
-      <c r="P167">
-        <v>2.2</v>
-      </c>
-      <c r="Q167">
-        <v>0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.875</v>
-      </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>2.5</v>
-      </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y167">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880158</v>
+        <v>6880159</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N168">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>1.975</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
         <v>1.75</v>
       </c>
-      <c r="S168">
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="T168">
-        <v>3</v>
-      </c>
-      <c r="U168">
-        <v>1.8</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X168">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.95</v>
-      </c>
-      <c r="AB168">
-        <v>0.8</v>
-      </c>
-      <c r="AC168">
-        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15678,7 +15678,7 @@
         <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16209,7 +16209,7 @@
         <v>45342.625</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16298,10 +16298,10 @@
         <v>45343.625</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16390,7 +16390,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16568,7 +16568,7 @@
         <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16654,7 +16654,7 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>38</v>
@@ -16832,7 +16832,7 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>40</v>
@@ -17010,7 +17010,7 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>43</v>
@@ -17099,7 +17099,7 @@
         <v>45347.375</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>44</v>
@@ -17258,6 +17258,228 @@
       </c>
       <c r="AC188">
         <v>0.475</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7774567</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45349.625</v>
+      </c>
+      <c r="F189" t="s">
+        <v>46</v>
+      </c>
+      <c r="G189" t="s">
+        <v>33</v>
+      </c>
+      <c r="K189">
+        <v>5.25</v>
+      </c>
+      <c r="L189">
+        <v>4.333</v>
+      </c>
+      <c r="M189">
+        <v>1.444</v>
+      </c>
+      <c r="N189">
+        <v>7.5</v>
+      </c>
+      <c r="O189">
+        <v>4.5</v>
+      </c>
+      <c r="P189">
+        <v>1.3</v>
+      </c>
+      <c r="Q189">
+        <v>1.5</v>
+      </c>
+      <c r="R189">
+        <v>1.9</v>
+      </c>
+      <c r="S189">
+        <v>1.95</v>
+      </c>
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>1.925</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7792819</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45349.625</v>
+      </c>
+      <c r="F190" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="K190">
+        <v>1.4</v>
+      </c>
+      <c r="L190">
+        <v>4.5</v>
+      </c>
+      <c r="M190">
+        <v>5.5</v>
+      </c>
+      <c r="N190">
+        <v>1.45</v>
+      </c>
+      <c r="O190">
+        <v>4.5</v>
+      </c>
+      <c r="P190">
+        <v>5</v>
+      </c>
+      <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>2.025</v>
+      </c>
+      <c r="S190">
+        <v>1.825</v>
+      </c>
+      <c r="T190">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7864790</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45349.625</v>
+      </c>
+      <c r="F191" t="s">
+        <v>38</v>
+      </c>
+      <c r="G191" t="s">
+        <v>40</v>
+      </c>
+      <c r="K191">
+        <v>3.8</v>
+      </c>
+      <c r="L191">
+        <v>3.6</v>
+      </c>
+      <c r="M191">
+        <v>1.727</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191">
+        <v>3.6</v>
+      </c>
+      <c r="P191">
+        <v>1.7</v>
+      </c>
+      <c r="Q191">
+        <v>0.75</v>
+      </c>
+      <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2.75</v>
+      </c>
+      <c r="U191">
+        <v>2.025</v>
+      </c>
+      <c r="V191">
+        <v>1.825</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>1.75</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
+        <v>2.7</v>
+      </c>
+      <c r="N16">
+        <v>2.1</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2061,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6879930</v>
+        <v>6880840</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.25</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
         <v>1.5</v>
       </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>1.181</v>
-      </c>
       <c r="O20">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P20">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q20">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
+        <v>1.925</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6880840</v>
+        <v>6879930</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>1.5</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>2.25</v>
-      </c>
-      <c r="L21">
-        <v>3.75</v>
-      </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P21">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880839</v>
+        <v>6880841</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O22">
         <v>3.5</v>
       </c>
       <c r="P22">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880841</v>
+        <v>6880839</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
         <v>2.5</v>
-      </c>
-      <c r="N25">
-        <v>2.875</v>
       </c>
       <c r="O25">
         <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
+        <v>2.75</v>
+      </c>
+      <c r="N28">
+        <v>2.15</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
+        <v>2.625</v>
+      </c>
+      <c r="Q28">
+        <v>-0.25</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
-      <c r="P28">
-        <v>3.8</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3.5</v>
-      </c>
       <c r="U28">
+        <v>1.875</v>
+      </c>
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3485,7 +3485,7 @@
         <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6880133</v>
+        <v>6879932</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>1.444</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
         <v>5.5</v>
       </c>
-      <c r="M42">
-        <v>1.2</v>
-      </c>
-      <c r="N42">
-        <v>4.75</v>
-      </c>
-      <c r="O42">
-        <v>4.333</v>
-      </c>
       <c r="P42">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6879932</v>
+        <v>6880133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="L43">
+        <v>5.5</v>
+      </c>
+      <c r="M43">
+        <v>1.2</v>
+      </c>
+      <c r="N43">
+        <v>4.75</v>
+      </c>
+      <c r="O43">
         <v>4.333</v>
       </c>
-      <c r="M43">
-        <v>1.444</v>
-      </c>
-      <c r="N43">
-        <v>11</v>
-      </c>
-      <c r="O43">
-        <v>5.5</v>
-      </c>
       <c r="P43">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="Q43">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.75</v>
-      </c>
-      <c r="AB43">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6882857</v>
+        <v>6880490</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
         <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
+        <v>1.875</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
         <v>1.95</v>
       </c>
-      <c r="T46">
-        <v>3.25</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6880490</v>
+        <v>6882857</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.6</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880491</v>
+        <v>6880289</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
+        <v>1.909</v>
+      </c>
+      <c r="N50">
         <v>3</v>
       </c>
-      <c r="N50">
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
+        <v>2.05</v>
+      </c>
+      <c r="Q50">
+        <v>0.25</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.85</v>
       </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
-      <c r="P50">
-        <v>3.3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.95</v>
-      </c>
-      <c r="S50">
-        <v>1.9</v>
-      </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0.95</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
       <c r="AB50">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880447</v>
+        <v>6880491</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,13 +4995,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5010,43 +5010,43 @@
         <v>47</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,16 +5055,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880289</v>
+        <v>6880447</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6880135</v>
+        <v>6882856</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L55">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
+        <v>1.875</v>
+      </c>
+      <c r="T55">
+        <v>3.25</v>
+      </c>
+      <c r="U55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5440,7 +5440,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6882856</v>
+        <v>6880135</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N57">
+        <v>1.571</v>
+      </c>
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="O57">
-        <v>5</v>
-      </c>
       <c r="P57">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y57">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6880290</v>
+        <v>6879934</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
+        <v>3.4</v>
+      </c>
+      <c r="M59">
+        <v>2.375</v>
+      </c>
+      <c r="N59">
+        <v>4.2</v>
+      </c>
+      <c r="O59">
         <v>3.8</v>
       </c>
-      <c r="M59">
-        <v>4.5</v>
-      </c>
-      <c r="N59">
-        <v>1.75</v>
-      </c>
-      <c r="O59">
-        <v>3.75</v>
-      </c>
       <c r="P59">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q59">
+        <v>0.75</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>1.8</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
+        <v>1.9</v>
+      </c>
+      <c r="V59">
+        <v>1.9</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>0.615</v>
+      </c>
+      <c r="Z59">
         <v>-0.5</v>
       </c>
-      <c r="R59">
-        <v>1.775</v>
-      </c>
-      <c r="S59">
-        <v>1.925</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.925</v>
-      </c>
-      <c r="V59">
-        <v>1.875</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>2.6</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6879934</v>
+        <v>6880290</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,55 +5796,55 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5853,19 +5853,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.615</v>
+        <v>2.6</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880855</v>
+        <v>6880857</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880857</v>
+        <v>6880855</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K66">
+        <v>2.45</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.35</v>
+      </c>
+      <c r="N66">
+        <v>2.7</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
         <v>2.2</v>
       </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
-        <v>2.1</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.1</v>
-      </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880291</v>
+        <v>6880860</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.95</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>3.25</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6880860</v>
+        <v>6880861</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,55 +6597,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
+        <v>3.4</v>
+      </c>
+      <c r="M69">
+        <v>2.6</v>
+      </c>
+      <c r="N69">
         <v>3.75</v>
       </c>
-      <c r="M69">
-        <v>2.875</v>
-      </c>
-      <c r="N69">
-        <v>1.7</v>
-      </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
         <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6654,19 +6654,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
+        <v>0.375</v>
+      </c>
+      <c r="AC69">
         <v>-0.5</v>
-      </c>
-      <c r="AC69">
-        <v>0.425</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6880861</v>
+        <v>6880291</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>2.55</v>
+      </c>
+      <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
         <v>2.3</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>2.6</v>
-      </c>
       <c r="N70">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
         <v>3.5</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
         <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6880139</v>
+        <v>6880864</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O77">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880864</v>
+        <v>6880449</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,73 +7487,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6879936</v>
+        <v>6880865</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,61 +7576,61 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W80">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7642,10 +7642,10 @@
         <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6880865</v>
+        <v>6879936</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,61 +7754,61 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N82">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P82">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="V82">
-        <v>2.025</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7820,10 +7820,10 @@
         <v>-0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880293</v>
+        <v>6880493</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,10 +8288,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8303,61 +8303,61 @@
         <v>49</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
+        <v>2.2</v>
+      </c>
+      <c r="Q88">
+        <v>0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
         <v>3.25</v>
       </c>
-      <c r="Q88">
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.2</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
         <v>-0.5</v>
       </c>
-      <c r="R88">
-        <v>1.95</v>
-      </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.75</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>2.25</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>0.75</v>
-      </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880493</v>
+        <v>6880293</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,10 +8466,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8481,40 +8481,40 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N90">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8523,19 +8523,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC90">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6879938</v>
+        <v>6880294</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
         <v>1.825</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6880294</v>
+        <v>6879938</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
         <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6882851</v>
+        <v>6880870</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,40 +9356,40 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L100">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O100">
         <v>4</v>
       </c>
       <c r="P100">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
         <v>1.8</v>
@@ -9401,31 +9401,31 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6880870</v>
+        <v>6882851</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,40 +9445,40 @@
         <v>45228.375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M101">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="N101">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
         <v>1.8</v>
@@ -9490,31 +9490,31 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6879939</v>
+        <v>6880295</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,67 +9712,67 @@
         <v>45233.625</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N104">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9781,7 +9781,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6880295</v>
+        <v>6879939</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,67 +9801,67 @@
         <v>45233.625</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N105">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9870,7 +9870,7 @@
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6880873</v>
+        <v>6880143</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>1.3</v>
+      </c>
+      <c r="O106">
+        <v>5</v>
+      </c>
+      <c r="P106">
+        <v>6.5</v>
+      </c>
+      <c r="Q106">
+        <v>-1.5</v>
+      </c>
+      <c r="R106">
         <v>1.95</v>
       </c>
-      <c r="N106">
-        <v>3.1</v>
-      </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
-      <c r="P106">
-        <v>1.95</v>
-      </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.8</v>
-      </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6880143</v>
+        <v>6880873</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>48</v>
+      </c>
+      <c r="K107">
         <v>3</v>
       </c>
-      <c r="J107" t="s">
-        <v>49</v>
-      </c>
-      <c r="K107">
-        <v>1.5</v>
-      </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N107">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.9</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.775</v>
-      </c>
       <c r="V107">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y107">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6880872</v>
+        <v>6880874</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,58 +10157,58 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
         <v>4</v>
       </c>
       <c r="P109">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>2.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,13 +10217,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880874</v>
+        <v>6880872</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,58 +10246,58 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N110">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>0.6499999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880875</v>
+        <v>6880876</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
         <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880876</v>
+        <v>6880875</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
         <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>2.1</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1.05</v>
       </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.95</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6882849</v>
+        <v>6880296</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,49 +10958,49 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -11009,25 +11009,25 @@
         <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6880296</v>
+        <v>6882849</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,49 +11047,49 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N119">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11098,25 +11098,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11848,7 +11848,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11937,7 +11937,7 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6879945</v>
+        <v>6880299</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6880299</v>
+        <v>6879945</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>4.75</v>
+      </c>
+      <c r="N146">
+        <v>1.571</v>
+      </c>
+      <c r="O146">
         <v>3.75</v>
       </c>
-      <c r="M146">
-        <v>3.6</v>
-      </c>
-      <c r="N146">
-        <v>2.1</v>
-      </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13717,7 +13717,7 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -14073,7 +14073,7 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
         <v>35</v>
@@ -14521,7 +14521,7 @@
         <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14788,7 +14788,7 @@
         <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14877,7 +14877,7 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6879947</v>
+        <v>6880901</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
         <v>1.8</v>
@@ -15005,34 +15005,34 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6880901</v>
+        <v>6879947</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P164">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
         <v>1.8</v>
@@ -15094,34 +15094,34 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15233,7 +15233,7 @@
         <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15497,7 +15497,7 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>31</v>
@@ -15675,7 +15675,7 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>37</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
         <v>35</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6879948</v>
+        <v>6880301</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,40 +16743,40 @@
         <v>45346.375</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N183">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q183">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
         <v>1.875</v>
@@ -16785,22 +16785,22 @@
         <v>1.975</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
@@ -16809,10 +16809,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6880301</v>
+        <v>6879948</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,40 +16832,40 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P184">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R184">
         <v>1.875</v>
@@ -16874,22 +16874,22 @@
         <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
@@ -16898,10 +16898,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6880163</v>
+        <v>6880907</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45347.375</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>6</v>
-      </c>
       <c r="N187">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.4</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.85</v>
-      </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6880907</v>
+        <v>6880163</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M188">
+        <v>6</v>
+      </c>
+      <c r="N188">
+        <v>1.75</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
         <v>4</v>
       </c>
-      <c r="N188">
-        <v>2.15</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.9</v>
-      </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
         <v>1.95</v>
       </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7774567</v>
+        <v>7864790</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,61 +17277,76 @@
         <v>45349.625</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>48</v>
       </c>
       <c r="K189">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="N189">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q189">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
+        <v>1.975</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.75</v>
+      </c>
+      <c r="V189">
         <v>1.95</v>
       </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17356,6 +17371,15 @@
       <c r="G190" t="s">
         <v>30</v>
       </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>47</v>
+      </c>
       <c r="K190">
         <v>1.4</v>
       </c>
@@ -17366,46 +17390,52 @@
         <v>5.5</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O190">
+        <v>4.333</v>
+      </c>
+      <c r="P190">
         <v>4.5</v>
       </c>
-      <c r="P190">
-        <v>5</v>
-      </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
         <v>3</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17413,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7864790</v>
+        <v>7774567</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17425,60 +17455,919 @@
         <v>45349.625</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>49</v>
       </c>
       <c r="K191">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M191">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="N191">
+        <v>6</v>
+      </c>
+      <c r="O191">
         <v>4</v>
       </c>
-      <c r="O191">
-        <v>3.6</v>
-      </c>
       <c r="P191">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="Q191">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
         <v>2.75</v>
       </c>
       <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
         <v>2.025</v>
       </c>
-      <c r="V191">
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>0.444</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>1.025</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7782560</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45350.625</v>
+      </c>
+      <c r="F192" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>48</v>
+      </c>
+      <c r="K192">
+        <v>1.727</v>
+      </c>
+      <c r="L192">
+        <v>3.75</v>
+      </c>
+      <c r="M192">
+        <v>3.75</v>
+      </c>
+      <c r="N192">
+        <v>1.65</v>
+      </c>
+      <c r="O192">
+        <v>3.8</v>
+      </c>
+      <c r="P192">
+        <v>4.2</v>
+      </c>
+      <c r="Q192">
+        <v>-0.75</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>1.925</v>
+      </c>
+      <c r="V192">
+        <v>1.875</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>2.8</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
+        <v>0.95</v>
+      </c>
+      <c r="AB192">
+        <v>0.925</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7793355</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45350.625</v>
+      </c>
+      <c r="F193" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" t="s">
+        <v>44</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>47</v>
+      </c>
+      <c r="K193">
+        <v>1.909</v>
+      </c>
+      <c r="L193">
+        <v>3.5</v>
+      </c>
+      <c r="M193">
+        <v>3.3</v>
+      </c>
+      <c r="N193">
+        <v>1.95</v>
+      </c>
+      <c r="O193">
+        <v>3.5</v>
+      </c>
+      <c r="P193">
+        <v>3.2</v>
+      </c>
+      <c r="Q193">
+        <v>-0.25</v>
+      </c>
+      <c r="R193">
+        <v>1.75</v>
+      </c>
+      <c r="S193">
+        <v>1.95</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
         <v>1.825</v>
       </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-      <c r="AA191">
+      <c r="W193">
+        <v>0.95</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>0.75</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6880164</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45352.625</v>
+      </c>
+      <c r="F194" t="s">
+        <v>38</v>
+      </c>
+      <c r="G194" t="s">
+        <v>37</v>
+      </c>
+      <c r="K194">
+        <v>3.4</v>
+      </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>1.75</v>
+      </c>
+      <c r="N194">
+        <v>3.4</v>
+      </c>
+      <c r="O194">
+        <v>3.8</v>
+      </c>
+      <c r="P194">
+        <v>1.8</v>
+      </c>
+      <c r="Q194">
+        <v>0.5</v>
+      </c>
+      <c r="R194">
+        <v>2.025</v>
+      </c>
+      <c r="S194">
+        <v>1.825</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.9</v>
+      </c>
+      <c r="V194">
+        <v>1.95</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6880502</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F195" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s">
+        <v>33</v>
+      </c>
+      <c r="K195">
+        <v>2.25</v>
+      </c>
+      <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>2.5</v>
+      </c>
+      <c r="N195">
+        <v>2.45</v>
+      </c>
+      <c r="O195">
+        <v>3.6</v>
+      </c>
+      <c r="P195">
+        <v>2.375</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
+        <v>2.025</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6882839</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F196" t="s">
+        <v>42</v>
+      </c>
+      <c r="G196" t="s">
+        <v>39</v>
+      </c>
+      <c r="K196">
+        <v>1.166</v>
+      </c>
+      <c r="L196">
+        <v>7</v>
+      </c>
+      <c r="M196">
+        <v>9</v>
+      </c>
+      <c r="N196">
+        <v>1.142</v>
+      </c>
+      <c r="O196">
+        <v>7</v>
+      </c>
+      <c r="P196">
+        <v>12</v>
+      </c>
+      <c r="Q196">
+        <v>-2.25</v>
+      </c>
+      <c r="R196">
+        <v>2.05</v>
+      </c>
+      <c r="S196">
+        <v>1.8</v>
+      </c>
+      <c r="T196">
+        <v>3.25</v>
+      </c>
+      <c r="U196">
+        <v>1.925</v>
+      </c>
+      <c r="V196">
+        <v>1.925</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6880908</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+      <c r="K197">
+        <v>1.85</v>
+      </c>
+      <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>3.4</v>
+      </c>
+      <c r="N197">
+        <v>1.95</v>
+      </c>
+      <c r="O197">
+        <v>3.5</v>
+      </c>
+      <c r="P197">
+        <v>3.1</v>
+      </c>
+      <c r="Q197">
+        <v>-0.5</v>
+      </c>
+      <c r="R197">
+        <v>2.05</v>
+      </c>
+      <c r="S197">
+        <v>1.8</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>1.925</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6880459</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>31</v>
+      </c>
+      <c r="G198" t="s">
+        <v>34</v>
+      </c>
+      <c r="K198">
+        <v>2.1</v>
+      </c>
+      <c r="L198">
+        <v>3.6</v>
+      </c>
+      <c r="M198">
+        <v>2.8</v>
+      </c>
+      <c r="N198">
+        <v>2.1</v>
+      </c>
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.925</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.95</v>
+      </c>
+      <c r="V198">
+        <v>1.9</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6879949</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F199" t="s">
+        <v>46</v>
+      </c>
+      <c r="G199" t="s">
+        <v>43</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>3.75</v>
+      </c>
+      <c r="M199">
+        <v>1.95</v>
+      </c>
+      <c r="N199">
+        <v>2.9</v>
+      </c>
+      <c r="O199">
+        <v>3.6</v>
+      </c>
+      <c r="P199">
+        <v>2</v>
+      </c>
+      <c r="Q199">
+        <v>0.25</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>1.85</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6880302</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="K200">
+        <v>1.5</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>5</v>
+      </c>
+      <c r="N200">
+        <v>1.444</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>5.5</v>
+      </c>
+      <c r="Q200">
+        <v>-1.25</v>
+      </c>
+      <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
+        <v>1.825</v>
+      </c>
+      <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>2.025</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6880909</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F201" t="s">
+        <v>45</v>
+      </c>
+      <c r="G201" t="s">
+        <v>41</v>
+      </c>
+      <c r="K201">
+        <v>3.6</v>
+      </c>
+      <c r="L201">
+        <v>3.75</v>
+      </c>
+      <c r="M201">
+        <v>1.75</v>
+      </c>
+      <c r="N201">
+        <v>3.75</v>
+      </c>
+      <c r="O201">
+        <v>3.75</v>
+      </c>
+      <c r="P201">
+        <v>1.727</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>1.9</v>
+      </c>
+      <c r="V201">
+        <v>1.95</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6880165</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45354.39583333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+      <c r="K202">
+        <v>2.8</v>
+      </c>
+      <c r="L202">
+        <v>3.6</v>
+      </c>
+      <c r="M202">
+        <v>2.1</v>
+      </c>
+      <c r="N202">
+        <v>2.8</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>2.1</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.9</v>
+      </c>
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.95</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
-    <t>RotWeiss Erfurt</t>
+    <t>Hertha Berlin II</t>
   </si>
   <si>
-    <t>Hertha Berlin II</t>
+    <t>RotWeiss Erfurt</t>
   </si>
   <si>
     <t>FC Lok Leipzig</t>
   </si>
   <si>
-    <t>Greifswalder SV 04</t>
+    <t>BFC Dynamo</t>
   </si>
   <si>
-    <t>BFC Dynamo</t>
+    <t>Greifswalder SV 04</t>
   </si>
   <si>
     <t>Chemnitzer</t>
@@ -124,10 +124,10 @@
     <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
-    <t>Babelsberg 03</t>
+    <t>Viktoria 89 Berlin</t>
   </si>
   <si>
-    <t>Viktoria 89 Berlin</t>
+    <t>Babelsberg 03</t>
   </si>
   <si>
     <t>Eilenburg</t>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6882862</v>
+        <v>6880835</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,10 +637,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -649,43 +649,43 @@
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,43 +738,43 @@
         <v>47</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880124</v>
+        <v>6880487</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,43 +904,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -949,10 +949,10 @@
         <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880487</v>
+        <v>6880124</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,43 +993,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
         <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3</v>
@@ -1038,10 +1038,10 @@
         <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.875</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6880123</v>
+        <v>6880834</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1272,43 +1272,43 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N9">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.833</v>
+        <v>4.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,13 +1317,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AC9">
         <v>-0.5</v>
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6880834</v>
+        <v>6880123</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1361,43 +1361,43 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L10">
         <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>4.75</v>
+        <v>0.833</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,13 +1406,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC10">
         <v>-0.5</v>
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
+        <v>2.7</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6880287</v>
+        <v>6880127</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.925</v>
-      </c>
-      <c r="AB18">
-        <v>0.8</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6880127</v>
+        <v>6879930</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,61 +2147,61 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
       </c>
       <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>1.181</v>
+      </c>
+      <c r="O19">
+        <v>6.5</v>
+      </c>
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>-2.25</v>
+      </c>
+      <c r="R19">
+        <v>2.05</v>
+      </c>
+      <c r="S19">
         <v>1.8</v>
       </c>
-      <c r="L19">
-        <v>3.8</v>
-      </c>
-      <c r="M19">
-        <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>1.5</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>1.825</v>
-      </c>
-      <c r="S19">
-        <v>1.975</v>
-      </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
         <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2210,13 +2210,13 @@
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>0.8</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,7 +2236,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6879930</v>
+        <v>6880287</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>2.25</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <v>1.181</v>
-      </c>
-      <c r="O21">
-        <v>6.5</v>
-      </c>
       <c r="P21">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q21">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
+        <v>1.925</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.8</v>
+      </c>
+      <c r="V21">
         <v>2.05</v>
       </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.975</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.925</v>
+      </c>
+      <c r="AB21">
         <v>0.8</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880841</v>
+        <v>6882860</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,34 +2414,34 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
         <v>2.05</v>
@@ -2450,37 +2450,37 @@
         <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880128</v>
+        <v>6880841</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,10 +2503,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2518,43 +2518,43 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="O23">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
         <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.45</v>
+        <v>1.875</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,16 +2563,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6882860</v>
+        <v>6880839</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,55 +2592,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
         <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2649,19 +2649,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880839</v>
+        <v>6880128</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>1.333</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>1.45</v>
+      </c>
+      <c r="O25">
+        <v>4.75</v>
+      </c>
+      <c r="P25">
+        <v>4.5</v>
+      </c>
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
         <v>2.05</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>2.375</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,10 +2770,10 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
+        <v>2.75</v>
+      </c>
+      <c r="N27">
+        <v>2.15</v>
+      </c>
+      <c r="O27">
+        <v>3.6</v>
+      </c>
+      <c r="P27">
+        <v>2.625</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.65</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <v>3.8</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3.5</v>
-      </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.925</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6880489</v>
+        <v>6880848</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,10 +3459,10 @@
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6880848</v>
+        <v>6880489</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,58 +3482,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>2.5</v>
+      </c>
+      <c r="N34">
+        <v>2.1</v>
+      </c>
+      <c r="O34">
         <v>3.4</v>
       </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>4.5</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
       <c r="P34">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
+        <v>1.875</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
         <v>1.925</v>
       </c>
-      <c r="T34">
-        <v>3.25</v>
-      </c>
-      <c r="U34">
-        <v>2.025</v>
-      </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,10 +3548,10 @@
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6880132</v>
+        <v>6880445</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>1.727</v>
+      </c>
+      <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
+        <v>3.75</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>3.6</v>
+      </c>
+      <c r="P35">
         <v>3</v>
       </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35">
-        <v>1.833</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>3.1</v>
-      </c>
-      <c r="N35">
-        <v>1.7</v>
-      </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
-      <c r="P35">
-        <v>3.5</v>
-      </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6880445</v>
+        <v>6880132</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3838,7 +3838,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6879932</v>
+        <v>6880133</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="L42">
+        <v>5.5</v>
+      </c>
+      <c r="M42">
+        <v>1.2</v>
+      </c>
+      <c r="N42">
+        <v>4.75</v>
+      </c>
+      <c r="O42">
         <v>4.333</v>
       </c>
-      <c r="M42">
-        <v>1.444</v>
-      </c>
-      <c r="N42">
-        <v>11</v>
-      </c>
-      <c r="O42">
-        <v>5.5</v>
-      </c>
       <c r="P42">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="Q42">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.75</v>
-      </c>
-      <c r="AB42">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6880133</v>
+        <v>6879932</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>1.444</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
         <v>5.5</v>
       </c>
-      <c r="M43">
-        <v>1.2</v>
-      </c>
-      <c r="N43">
-        <v>4.75</v>
-      </c>
-      <c r="O43">
-        <v>4.333</v>
-      </c>
       <c r="P43">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4550,10 +4550,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
         <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880289</v>
+        <v>6880447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q50">
         <v>0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880491</v>
+        <v>6880289</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
         <v>33</v>
       </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
+        <v>1.909</v>
+      </c>
+      <c r="N51">
         <v>3</v>
       </c>
-      <c r="N51">
+      <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
+        <v>2.05</v>
+      </c>
+      <c r="Q51">
+        <v>0.25</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.85</v>
       </c>
-      <c r="O51">
-        <v>3.75</v>
-      </c>
-      <c r="P51">
-        <v>3.3</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.95</v>
-      </c>
-      <c r="S51">
-        <v>1.9</v>
-      </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
-      <c r="Z51">
-        <v>0.95</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880447</v>
+        <v>6880491</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,13 +5084,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5099,43 +5099,43 @@
         <v>47</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5144,16 +5144,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -5262,7 +5262,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5354,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6879933</v>
+        <v>6880135</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,10 +5440,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5455,46 +5455,46 @@
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L56">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M56">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N56">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
+        <v>1.825</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>2.75</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5503,13 +5503,13 @@
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6880135</v>
+        <v>6879933</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,10 +5529,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5544,46 +5544,46 @@
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M57">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
         <v>1.825</v>
       </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5592,13 +5592,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5796,7 +5796,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6241,10 +6241,10 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -6330,7 +6330,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6508,10 +6508,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6597,10 +6597,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
         <v>43</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7309,10 +7309,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
         <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,52 +7487,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N79">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
         <v>1.95</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z79">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6880865</v>
+        <v>6882853</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M80">
+        <v>3.5</v>
+      </c>
+      <c r="N80">
+        <v>1.615</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <v>-0.75</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
+        <v>1.975</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="N80">
-        <v>2.25</v>
-      </c>
-      <c r="O80">
-        <v>3.5</v>
-      </c>
-      <c r="P80">
-        <v>2.625</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>1.75</v>
-      </c>
-      <c r="S80">
-        <v>2.125</v>
-      </c>
-      <c r="T80">
-        <v>2.75</v>
-      </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X80">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6882853</v>
+        <v>6880865</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>2.25</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="N81">
-        <v>1.615</v>
-      </c>
-      <c r="O81">
-        <v>4</v>
-      </c>
       <c r="P81">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.75</v>
+      </c>
+      <c r="S81">
+        <v>2.125</v>
+      </c>
+      <c r="T81">
+        <v>2.75</v>
+      </c>
+      <c r="U81">
         <v>1.825</v>
       </c>
-      <c r="S81">
-        <v>1.975</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
-      <c r="U81">
-        <v>1.875</v>
-      </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7843,7 +7843,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880493</v>
+        <v>6880868</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,52 +8291,52 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>3.6</v>
       </c>
       <c r="P88">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8345,19 +8345,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880868</v>
+        <v>6880493</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,73 +8380,73 @@
         <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>49</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q89">
+        <v>0.25</v>
+      </c>
+      <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>3.25</v>
+      </c>
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>1.2</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
         <v>-0.5</v>
       </c>
-      <c r="R89">
-        <v>1.925</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.925</v>
-      </c>
-      <c r="V89">
-        <v>1.925</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>2.3</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.925</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6880450</v>
+        <v>6880866</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>5</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N93">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
         <v>1.925</v>
       </c>
-      <c r="S93">
-        <v>1.875</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>0.925</v>
       </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6880866</v>
+        <v>6880450</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
         <v>1.875</v>
       </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9000,10 +9000,10 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6880294</v>
+        <v>6879938</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
         <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6879938</v>
+        <v>6880294</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
         <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6880870</v>
+        <v>6880871</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
+        <v>5.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
         <v>1.95</v>
       </c>
-      <c r="Q100">
-        <v>0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6882851</v>
+        <v>6880870</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,40 +9445,40 @@
         <v>45228.375</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N101">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
         <v>1.8</v>
@@ -9490,31 +9490,31 @@
         <v>3</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6880295</v>
+        <v>6879939</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,67 +9712,67 @@
         <v>45233.625</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N104">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z104">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9781,7 +9781,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6879939</v>
+        <v>6880295</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,67 +9801,67 @@
         <v>45233.625</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9870,7 +9870,7 @@
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>45234.375</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
         <v>44</v>
@@ -9979,10 +9979,10 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10068,10 +10068,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6880874</v>
+        <v>6880872</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,58 +10157,58 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
         <v>4</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.6499999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,13 +10217,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880872</v>
+        <v>6880874</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,58 +10246,58 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>2.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880876</v>
+        <v>6880875</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" t="s">
         <v>36</v>
       </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
         <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>2.1</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1.05</v>
       </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>0.95</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880875</v>
+        <v>6880876</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
         <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10780,7 +10780,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -10961,7 +10961,7 @@
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6879941</v>
+        <v>6880880</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,73 +11314,73 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>48</v>
+      </c>
+      <c r="K122">
+        <v>3.75</v>
+      </c>
+      <c r="L122">
+        <v>3.6</v>
+      </c>
+      <c r="M122">
+        <v>1.75</v>
+      </c>
+      <c r="N122">
+        <v>4.2</v>
+      </c>
+      <c r="O122">
+        <v>3.8</v>
+      </c>
+      <c r="P122">
+        <v>1.666</v>
+      </c>
+      <c r="Q122">
+        <v>0.75</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
         <v>3</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
-      <c r="J122" t="s">
-        <v>47</v>
-      </c>
-      <c r="K122">
-        <v>13</v>
-      </c>
-      <c r="L122">
-        <v>5.75</v>
-      </c>
-      <c r="M122">
-        <v>1.166</v>
-      </c>
-      <c r="N122">
-        <v>4.75</v>
-      </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
-      <c r="P122">
-        <v>1.6</v>
-      </c>
-      <c r="Q122">
-        <v>1</v>
-      </c>
-      <c r="R122">
-        <v>1.775</v>
-      </c>
-      <c r="S122">
-        <v>2.1</v>
-      </c>
-      <c r="T122">
-        <v>2.75</v>
-      </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6880147</v>
+        <v>6879941</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45254.625</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O123">
         <v>3.75</v>
       </c>
       <c r="P123">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6880880</v>
+        <v>6880147</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45254.625</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
+        <v>1.727</v>
+      </c>
+      <c r="L124">
         <v>3.75</v>
       </c>
-      <c r="L124">
-        <v>3.6</v>
-      </c>
       <c r="M124">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
         <v>1.95</v>
       </c>
-      <c r="S124">
-        <v>1.9</v>
-      </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
+        <v>1.8</v>
+      </c>
+      <c r="V124">
         <v>2.05</v>
       </c>
-      <c r="V124">
-        <v>1.8</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>0.95</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1.05</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s">
         <v>29</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11937,7 +11937,7 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -13183,7 +13183,7 @@
         <v>45318.375</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13450,7 +13450,7 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>46</v>
@@ -13539,7 +13539,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>40</v>
@@ -13717,10 +13717,10 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880300</v>
+        <v>6880894</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L153">
         <v>4</v>
       </c>
       <c r="M153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N153">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880894</v>
+        <v>6880300</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
         <v>4</v>
       </c>
       <c r="M154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N154">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14254,7 +14254,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,10 +14518,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,46 +14696,46 @@
         <v>45329.625</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>47</v>
       </c>
       <c r="K160">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M160">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -14744,10 +14744,10 @@
         <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14756,16 +14756,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L161">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N161">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -14833,10 +14833,10 @@
         <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
+        <v>0.4125</v>
+      </c>
+      <c r="AA161">
+        <v>-0.5</v>
+      </c>
+      <c r="AB161">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>-1</v>
-      </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,10 +14874,10 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6880901</v>
+        <v>6879947</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M163">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P163">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
         <v>1.8</v>
@@ -15005,34 +15005,34 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6879947</v>
+        <v>6880901</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N164">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O164">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
         <v>1.8</v>
@@ -15094,34 +15094,34 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6882842</v>
+        <v>6880159</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,43 +15230,43 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
         <v>1.975</v>
@@ -15275,31 +15275,31 @@
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.75</v>
+      </c>
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
         <v>0.95</v>
-      </c>
-      <c r="AC166">
-        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>38</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880159</v>
+        <v>6882842</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,43 +15408,43 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
+        <v>2.375</v>
+      </c>
+      <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
+        <v>2.625</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168">
+        <v>3.2</v>
+      </c>
+      <c r="P168">
         <v>2.2</v>
       </c>
-      <c r="L168">
-        <v>3.25</v>
-      </c>
-      <c r="M168">
-        <v>2.8</v>
-      </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
-      <c r="O168">
-        <v>3.4</v>
-      </c>
-      <c r="P168">
-        <v>3.1</v>
-      </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
         <v>1.975</v>
@@ -15453,31 +15453,31 @@
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>31</v>
@@ -15675,10 +15675,10 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16209,7 +16209,7 @@
         <v>45342.625</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7774571</v>
+        <v>7793354</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,34 +16298,34 @@
         <v>45343.625</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>48</v>
       </c>
       <c r="K178">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N178">
         <v>2.05</v>
       </c>
       <c r="O178">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
         <v>3.1</v>
@@ -16334,25 +16334,25 @@
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16361,13 +16361,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7793354</v>
+        <v>7774571</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,34 +16387,34 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>48</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
         <v>2.05</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
         <v>3.1</v>
@@ -16423,25 +16423,25 @@
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -16450,13 +16450,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880501</v>
+        <v>6880162</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880458</v>
+        <v>6880501</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K181">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L181">
         <v>3.4</v>
       </c>
       <c r="M181">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N181">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6880162</v>
+        <v>6880458</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R182">
         <v>1.825</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6880301</v>
+        <v>6879948</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,40 +16743,40 @@
         <v>45346.375</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M183">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P183">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R183">
         <v>1.875</v>
@@ -16785,22 +16785,22 @@
         <v>1.975</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
@@ -16809,10 +16809,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6879948</v>
+        <v>6880301</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,40 +16832,40 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L184">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O184">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q184">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
         <v>1.875</v>
@@ -16874,22 +16874,22 @@
         <v>1.975</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
@@ -16898,10 +16898,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,10 +17010,10 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17102,7 +17102,7 @@
         <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7864790</v>
+        <v>7774567</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45349.625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="N189">
+        <v>6</v>
+      </c>
+      <c r="O189">
         <v>4</v>
       </c>
-      <c r="O189">
-        <v>3.6</v>
-      </c>
       <c r="P189">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="Q189">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R189">
         <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7774567</v>
+        <v>7864790</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,76 +17455,76 @@
         <v>45349.625</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="L191">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P191">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="Q191">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R191">
         <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y191">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7782560</v>
+        <v>7793355</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,43 +17544,43 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N192">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S192">
         <v>1.95</v>
@@ -17589,28 +17589,28 @@
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7793355</v>
+        <v>7782560</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,43 +17633,43 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
         <v>1.95</v>
@@ -17678,28 +17678,28 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>2.8</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
         <v>0.95</v>
       </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>0.75</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17725,7 +17725,16 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>47</v>
       </c>
       <c r="K194">
         <v>3.4</v>
@@ -17749,34 +17758,40 @@
         <v>0.5</v>
       </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>0.4375</v>
+      </c>
+      <c r="AC194">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17784,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6880502</v>
+        <v>6882839</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,46 +17811,46 @@
         <v>45353.375</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K195">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M195">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N195">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P195">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17858,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6882839</v>
+        <v>6880908</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17870,46 +17885,46 @@
         <v>45353.375</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K196">
-        <v>1.166</v>
+        <v>1.85</v>
       </c>
       <c r="L196">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N196">
-        <v>1.142</v>
+        <v>1.727</v>
       </c>
       <c r="O196">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17932,7 +17947,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880908</v>
+        <v>6880502</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17944,46 +17959,46 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K197">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
+        <v>2.5</v>
+      </c>
+      <c r="N197">
+        <v>2.6</v>
+      </c>
+      <c r="O197">
         <v>3.6</v>
       </c>
-      <c r="M197">
-        <v>3.4</v>
-      </c>
-      <c r="N197">
+      <c r="P197">
+        <v>2.2</v>
+      </c>
+      <c r="Q197">
+        <v>0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>2.05</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
         <v>1.95</v>
-      </c>
-      <c r="O197">
-        <v>3.5</v>
-      </c>
-      <c r="P197">
-        <v>3.1</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>2.05</v>
-      </c>
-      <c r="S197">
-        <v>1.8</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.925</v>
-      </c>
-      <c r="V197">
-        <v>1.925</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18033,31 +18048,31 @@
         <v>2.8</v>
       </c>
       <c r="N198">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
         <v>3.6</v>
       </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -18095,7 +18110,7 @@
         <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K199">
         <v>3</v>
@@ -18107,31 +18122,31 @@
         <v>1.95</v>
       </c>
       <c r="N199">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q199">
         <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -18166,7 +18181,7 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18202,10 +18217,10 @@
         <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18255,10 +18270,10 @@
         <v>1.75</v>
       </c>
       <c r="N201">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O201">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P201">
         <v>1.727</v>
@@ -18267,19 +18282,19 @@
         <v>0.75</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18317,7 +18332,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K202">
         <v>2.8</v>
@@ -18329,31 +18344,31 @@
         <v>2.1</v>
       </c>
       <c r="N202">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,28 +103,28 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
-    <t>Hertha Berlin II</t>
+    <t>RotWeiss Erfurt</t>
   </si>
   <si>
-    <t>RotWeiss Erfurt</t>
+    <t>Hertha Berlin II</t>
   </si>
   <si>
     <t>FC Lok Leipzig</t>
   </si>
   <si>
-    <t>BFC Dynamo</t>
+    <t>Greifswalder SV 04</t>
   </si>
   <si>
-    <t>Greifswalder SV 04</t>
+    <t>BFC Dynamo</t>
   </si>
   <si>
     <t>Chemnitzer</t>
   </si>
   <si>
-    <t>FSV 63 Luckenwalde</t>
+    <t>Viktoria 89 Berlin</t>
   </si>
   <si>
-    <t>Viktoria 89 Berlin</t>
+    <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
     <t>Babelsberg 03</t>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,10 +637,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -649,43 +649,43 @@
         <v>47</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6882862</v>
+        <v>6880835</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,43 +738,43 @@
         <v>47</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880487</v>
+        <v>6880124</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,43 +904,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -949,10 +949,10 @@
         <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.875</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880124</v>
+        <v>6880487</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,43 +993,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q6">
         <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>3</v>
@@ -1038,10 +1038,10 @@
         <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6879928</v>
+        <v>6880834</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,46 +1171,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>1.825</v>
@@ -1219,7 +1219,7 @@
         <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,16 +1228,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6880834</v>
+        <v>6879928</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,46 +1260,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N9">
+        <v>1.4</v>
+      </c>
+      <c r="O9">
+        <v>4.333</v>
+      </c>
+      <c r="P9">
         <v>5.75</v>
       </c>
-      <c r="O9">
-        <v>3.8</v>
-      </c>
-      <c r="P9">
-        <v>1.45</v>
-      </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>1.825</v>
@@ -1308,7 +1308,7 @@
         <v>1.975</v>
       </c>
       <c r="W9">
-        <v>4.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>1.75</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
+        <v>2.7</v>
+      </c>
+      <c r="N16">
+        <v>2.1</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6880127</v>
+        <v>6880287</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6879930</v>
+        <v>6880840</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
+        <v>2.25</v>
+      </c>
+      <c r="L19">
+        <v>3.75</v>
+      </c>
+      <c r="M19">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
         <v>1.5</v>
       </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>1.181</v>
-      </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P19">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
         <v>1.875</v>
       </c>
-      <c r="V19">
-        <v>1.975</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6880840</v>
+        <v>6880127</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
         <v>1.5</v>
       </c>
       <c r="O20">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
+        <v>1.875</v>
+      </c>
+      <c r="V20">
         <v>1.925</v>
       </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.925</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6880287</v>
+        <v>6879930</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,73 +2328,73 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>1.5</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>2.5</v>
-      </c>
-      <c r="L21">
-        <v>3.75</v>
-      </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.181</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P21">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y21">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880841</v>
+        <v>6880128</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,10 +2503,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2518,43 +2518,43 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
+        <v>4.5</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>2.05</v>
       </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.9</v>
-      </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
         <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.875</v>
+        <v>0.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,16 +2563,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880839</v>
+        <v>6880841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O24">
         <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880128</v>
+        <v>6880839</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>0.5</v>
+      </c>
+      <c r="AC25">
         <v>-0.5</v>
-      </c>
-      <c r="AA25">
-        <v>0.4</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,10 +2770,10 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2862,7 +2862,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2948,10 +2948,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6880848</v>
+        <v>6880489</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L33">
+        <v>3.3</v>
+      </c>
+      <c r="M33">
+        <v>2.5</v>
+      </c>
+      <c r="N33">
+        <v>2.1</v>
+      </c>
+      <c r="O33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>4.5</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
       <c r="P33">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
+        <v>1.875</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>3.25</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,10 +3459,10 @@
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6880489</v>
+        <v>6880848</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,58 +3482,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,10 +3548,10 @@
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6880445</v>
+        <v>6880132</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6880132</v>
+        <v>6880445</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>1.727</v>
+      </c>
+      <c r="L36">
+        <v>3.75</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
         <v>3</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36">
-        <v>1.833</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36">
-        <v>3.1</v>
-      </c>
-      <c r="N36">
-        <v>1.7</v>
-      </c>
-      <c r="O36">
-        <v>4</v>
-      </c>
-      <c r="P36">
-        <v>3.5</v>
-      </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6882858</v>
+        <v>6880131</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,25 +3764,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N37">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q37">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,19 +3791,19 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3818,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6880131</v>
+        <v>6882858</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3853,25 +3853,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R38">
         <v>1.975</v>
@@ -3880,19 +3880,19 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4105,10 +4105,10 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6880133</v>
+        <v>6879932</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>1.444</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
         <v>5.5</v>
       </c>
-      <c r="M42">
-        <v>1.2</v>
-      </c>
-      <c r="N42">
-        <v>4.75</v>
-      </c>
-      <c r="O42">
-        <v>4.333</v>
-      </c>
       <c r="P42">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6879932</v>
+        <v>6880133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="L43">
+        <v>5.5</v>
+      </c>
+      <c r="M43">
+        <v>1.2</v>
+      </c>
+      <c r="N43">
+        <v>4.75</v>
+      </c>
+      <c r="O43">
         <v>4.333</v>
       </c>
-      <c r="M43">
-        <v>1.444</v>
-      </c>
-      <c r="N43">
-        <v>11</v>
-      </c>
-      <c r="O43">
-        <v>5.5</v>
-      </c>
       <c r="P43">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="Q43">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.75</v>
-      </c>
-      <c r="AB43">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4375,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4550,10 +4550,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
         <v>33</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880447</v>
+        <v>6880491</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,13 +4906,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4921,43 +4921,43 @@
         <v>47</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,16 +4966,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,10 +4995,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880491</v>
+        <v>6880447</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,13 +5084,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5099,43 +5099,43 @@
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5144,16 +5144,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -5262,7 +5262,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5354,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>38</v>
@@ -5529,7 +5529,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6879934</v>
+        <v>6880290</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,55 +5707,55 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N59">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5764,19 +5764,19 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.615</v>
+        <v>2.6</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6880290</v>
+        <v>6879934</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>1</v>
-      </c>
-      <c r="I60">
-        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
+        <v>3.4</v>
+      </c>
+      <c r="M60">
+        <v>2.375</v>
+      </c>
+      <c r="N60">
+        <v>4.2</v>
+      </c>
+      <c r="O60">
         <v>3.8</v>
       </c>
-      <c r="M60">
-        <v>4.5</v>
-      </c>
-      <c r="N60">
-        <v>1.75</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q60">
+        <v>0.75</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>1.8</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
+        <v>1.9</v>
+      </c>
+      <c r="V60">
+        <v>1.9</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>0.615</v>
+      </c>
+      <c r="Z60">
         <v>-0.5</v>
       </c>
-      <c r="R60">
-        <v>1.775</v>
-      </c>
-      <c r="S60">
-        <v>1.925</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.925</v>
-      </c>
-      <c r="V60">
-        <v>1.875</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>2.6</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
-      </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6880137</v>
+        <v>6880858</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
+        <v>1.571</v>
+      </c>
+      <c r="O62">
+        <v>3.75</v>
+      </c>
+      <c r="P62">
         <v>4.75</v>
       </c>
-      <c r="O62">
-        <v>4.5</v>
-      </c>
-      <c r="P62">
-        <v>1.45</v>
-      </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880858</v>
+        <v>6880137</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N63">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y63">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880857</v>
+        <v>6880855</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
+        <v>2.45</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.35</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
         <v>2.2</v>
       </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <v>2.1</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.1</v>
-      </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880855</v>
+        <v>6880857</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6597,10 +6597,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s">
         <v>42</v>
-      </c>
-      <c r="G69" t="s">
-        <v>43</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -6864,10 +6864,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6882854</v>
+        <v>6879935</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74">
         <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
         <v>1.8</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6879935</v>
+        <v>6882854</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N75">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
         <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T75">
+        <v>3.25</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.85</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
         <v>3</v>
       </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
-      <c r="W75">
-        <v>2.25</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7312,7 +7312,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,52 +7487,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V79">
         <v>1.95</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7665,10 +7665,10 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7754,7 +7754,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7843,10 +7843,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880868</v>
+        <v>6880493</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,73 +8291,73 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O88">
         <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q88">
+        <v>0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.2</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
         <v>-0.5</v>
       </c>
-      <c r="R88">
-        <v>1.925</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.925</v>
-      </c>
-      <c r="V88">
-        <v>1.925</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>2.3</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.925</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880493</v>
+        <v>6880868</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,52 +8380,52 @@
         <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>49</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8434,19 +8434,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9000,10 +9000,10 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9178,10 +9178,10 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6882851</v>
+        <v>6880871</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,10 +9356,10 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9371,43 +9371,43 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45228.375</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>41</v>
@@ -9537,7 +9537,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9801,10 +9801,10 @@
         <v>45233.625</v>
       </c>
       <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
         <v>36</v>
-      </c>
-      <c r="G105" t="s">
-        <v>35</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9890,7 +9890,7 @@
         <v>45234.375</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
         <v>44</v>
@@ -9979,10 +9979,10 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10068,10 +10068,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6880872</v>
+        <v>6880874</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,58 +10157,58 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
         <v>4</v>
       </c>
       <c r="P109">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>2.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,13 +10217,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880874</v>
+        <v>6880872</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,58 +10246,58 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N110">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>0.6499999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880875</v>
+        <v>6880876</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
         <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880876</v>
+        <v>6880875</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
         <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>2.1</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1.05</v>
       </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.95</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10780,7 +10780,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -10958,10 +10958,10 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6880880</v>
+        <v>6880147</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
+        <v>1.727</v>
+      </c>
+      <c r="L122">
         <v>3.75</v>
       </c>
-      <c r="L122">
-        <v>3.6</v>
-      </c>
       <c r="M122">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
+        <v>1.8</v>
+      </c>
+      <c r="V122">
         <v>2.05</v>
       </c>
-      <c r="V122">
-        <v>1.8</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>0.95</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>1.05</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6879941</v>
+        <v>6880880</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,73 +11403,73 @@
         <v>45254.625</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>48</v>
+      </c>
+      <c r="K123">
+        <v>3.75</v>
+      </c>
+      <c r="L123">
+        <v>3.6</v>
+      </c>
+      <c r="M123">
+        <v>1.75</v>
+      </c>
+      <c r="N123">
+        <v>4.2</v>
+      </c>
+      <c r="O123">
+        <v>3.8</v>
+      </c>
+      <c r="P123">
+        <v>1.666</v>
+      </c>
+      <c r="Q123">
+        <v>0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
-      <c r="J123" t="s">
-        <v>47</v>
-      </c>
-      <c r="K123">
-        <v>13</v>
-      </c>
-      <c r="L123">
-        <v>5.75</v>
-      </c>
-      <c r="M123">
-        <v>1.166</v>
-      </c>
-      <c r="N123">
-        <v>4.75</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>1.6</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="R123">
-        <v>1.775</v>
-      </c>
-      <c r="S123">
-        <v>2.1</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6880147</v>
+        <v>6879941</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45254.625</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O124">
         <v>3.75</v>
       </c>
       <c r="P124">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
         <v>30</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11937,7 +11937,7 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -13005,7 +13005,7 @@
         <v>45315.625</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6880299</v>
+        <v>6879945</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>4.75</v>
+      </c>
+      <c r="N145">
+        <v>1.571</v>
+      </c>
+      <c r="O145">
         <v>3.75</v>
       </c>
-      <c r="M145">
-        <v>3.6</v>
-      </c>
-      <c r="N145">
-        <v>2.1</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6879945</v>
+        <v>6880299</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>40</v>
@@ -13717,10 +13717,10 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880157</v>
+        <v>6880894</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,52 +13984,52 @@
         <v>45325.375</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>48</v>
+      </c>
+      <c r="K152">
+        <v>1.615</v>
+      </c>
+      <c r="L152">
         <v>4</v>
       </c>
-      <c r="J152" t="s">
-        <v>49</v>
-      </c>
-      <c r="K152">
-        <v>2.4</v>
-      </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
         <v>1.9</v>
@@ -14038,22 +14038,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y152">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC152">
-        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880894</v>
+        <v>6880157</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,52 +14073,52 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
         <v>1.9</v>
@@ -14127,22 +14127,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,10 +14162,10 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,10 +14518,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,46 +14696,46 @@
         <v>45329.625</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>47</v>
       </c>
       <c r="K160">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -14744,10 +14744,10 @@
         <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14756,16 +14756,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
+        <v>0.4125</v>
+      </c>
+      <c r="AA160">
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M161">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N161">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
-      </c>
-      <c r="S161">
-        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -14833,10 +14833,10 @@
         <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,10 +14874,10 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6879947</v>
+        <v>6880901</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
         <v>1.8</v>
@@ -15005,34 +15005,34 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6880901</v>
+        <v>6879947</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P164">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
         <v>1.8</v>
@@ -15094,34 +15094,34 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6880159</v>
+        <v>6882842</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,43 +15230,43 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K166">
+        <v>2.375</v>
+      </c>
+      <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.625</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166">
+        <v>3.2</v>
+      </c>
+      <c r="P166">
         <v>2.2</v>
       </c>
-      <c r="L166">
-        <v>3.25</v>
-      </c>
-      <c r="M166">
-        <v>2.8</v>
-      </c>
-      <c r="N166">
-        <v>2</v>
-      </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
-      <c r="P166">
-        <v>3.1</v>
-      </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
         <v>1.975</v>
@@ -15275,31 +15275,31 @@
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>38</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6882842</v>
+        <v>6880159</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,43 +15408,43 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
         <v>1.975</v>
@@ -15453,31 +15453,31 @@
         <v>2.5</v>
       </c>
       <c r="U168">
+        <v>1.75</v>
+      </c>
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="V168">
-        <v>1.9</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.95</v>
-      </c>
-      <c r="AC168">
-        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>31</v>
@@ -15589,7 +15589,7 @@
         <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15675,10 +15675,10 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7793354</v>
+        <v>7774571</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,34 +16298,34 @@
         <v>45343.625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>48</v>
       </c>
       <c r="K178">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N178">
         <v>2.05</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P178">
         <v>3.1</v>
@@ -16334,25 +16334,25 @@
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16361,13 +16361,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7774571</v>
+        <v>7793354</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,34 +16387,34 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
+        <v>43</v>
+      </c>
+      <c r="G179" t="s">
         <v>36</v>
       </c>
-      <c r="G179" t="s">
-        <v>30</v>
-      </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>48</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N179">
         <v>2.05</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
         <v>3.1</v>
@@ -16423,25 +16423,25 @@
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -16450,13 +16450,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16565,10 +16565,10 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" t="s">
         <v>32</v>
-      </c>
-      <c r="G181" t="s">
-        <v>33</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6879948</v>
+        <v>6880301</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,40 +16743,40 @@
         <v>45346.375</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N183">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q183">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
         <v>1.875</v>
@@ -16785,22 +16785,22 @@
         <v>1.975</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
@@ -16809,10 +16809,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6880301</v>
+        <v>6879948</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,40 +16832,40 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P184">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R184">
         <v>1.875</v>
@@ -16874,22 +16874,22 @@
         <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
@@ -16898,10 +16898,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,10 +17010,10 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6880907</v>
+        <v>6880163</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45347.375</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M187">
+        <v>6</v>
+      </c>
+      <c r="N187">
+        <v>1.75</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
         <v>4</v>
       </c>
-      <c r="N187">
-        <v>2.15</v>
-      </c>
-      <c r="O187">
-        <v>3.4</v>
-      </c>
-      <c r="P187">
-        <v>2.9</v>
-      </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
+        <v>1.85</v>
+      </c>
+      <c r="S187">
         <v>1.95</v>
       </c>
-      <c r="S187">
-        <v>1.85</v>
-      </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6880163</v>
+        <v>6880907</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
         <v>4</v>
       </c>
-      <c r="M188">
-        <v>6</v>
-      </c>
       <c r="N188">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>2.4</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>-0.5</v>
       </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.9</v>
-      </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.5</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7774567</v>
+        <v>7792819</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45349.625</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>5.5</v>
+      </c>
+      <c r="N189">
+        <v>1.5</v>
+      </c>
+      <c r="O189">
         <v>4.333</v>
       </c>
-      <c r="M189">
-        <v>1.444</v>
-      </c>
-      <c r="N189">
-        <v>6</v>
-      </c>
-      <c r="O189">
-        <v>4</v>
-      </c>
       <c r="P189">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7792819</v>
+        <v>7774567</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45349.625</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M190">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W190">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17633,7 +17633,7 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6882839</v>
+        <v>6880502</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,61 +17811,76 @@
         <v>45353.375</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L195">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N195">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="Q195">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
         <v>1.8</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
         <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17903,16 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>47</v>
       </c>
       <c r="K196">
         <v>1.85</v>
@@ -17909,37 +17933,43 @@
         <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.825</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17947,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880502</v>
+        <v>6882839</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17959,61 +17989,76 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>3</v>
+      </c>
+      <c r="J197" t="s">
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M197">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB197">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18038,6 +18083,15 @@
       <c r="G198" t="s">
         <v>34</v>
       </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>48</v>
+      </c>
       <c r="K198">
         <v>2.1</v>
       </c>
@@ -18048,46 +18102,52 @@
         <v>2.8</v>
       </c>
       <c r="N198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O198">
         <v>3.6</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
+        <v>2.025</v>
+      </c>
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.825</v>
+      </c>
+      <c r="V198">
+        <v>2.025</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>2.6</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
         <v>-0.5</v>
       </c>
-      <c r="R198">
-        <v>2.025</v>
-      </c>
-      <c r="S198">
-        <v>1.825</v>
-      </c>
-      <c r="T198">
-        <v>2.75</v>
-      </c>
-      <c r="U198">
-        <v>2.05</v>
-      </c>
-      <c r="V198">
-        <v>1.8</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>1.025</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18110,7 +18170,7 @@
         <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>3</v>
@@ -18143,10 +18203,10 @@
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -18169,7 +18229,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6880302</v>
+        <v>6880909</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18181,46 +18241,46 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L200">
+        <v>3.75</v>
+      </c>
+      <c r="M200">
+        <v>1.75</v>
+      </c>
+      <c r="N200">
         <v>4</v>
       </c>
-      <c r="M200">
-        <v>5</v>
-      </c>
-      <c r="N200">
-        <v>1.444</v>
-      </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P200">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q200">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18243,7 +18303,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6880909</v>
+        <v>6880302</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18255,46 +18315,46 @@
         <v>45354.375</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K201">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
         <v>1.875</v>
       </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18332,7 +18392,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K202">
         <v>2.8</v>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
-    <t>RotWeiss Erfurt</t>
-  </si>
-  <si>
     <t>Hertha Berlin II</t>
   </si>
   <si>
     <t>FC Lok Leipzig</t>
   </si>
   <si>
-    <t>Greifswalder SV 04</t>
+    <t>RotWeiss Erfurt</t>
   </si>
   <si>
     <t>BFC Dynamo</t>
+  </si>
+  <si>
+    <t>Greifswalder SV 04</t>
   </si>
   <si>
     <t>Chemnitzer</t>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6882862</v>
+        <v>6880835</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,10 +637,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -649,43 +649,43 @@
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>0.3999999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6880835</v>
+        <v>6880443</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,52 +729,52 @@
         <v>43</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6880443</v>
+        <v>6882862</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,55 +815,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -872,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880124</v>
+        <v>6880487</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,43 +904,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -949,10 +949,10 @@
         <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880487</v>
+        <v>6880124</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,43 +993,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
         <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3</v>
@@ -1038,10 +1038,10 @@
         <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.875</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
+        <v>2.7</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6880287</v>
+        <v>6879930</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>1.5</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>2.5</v>
-      </c>
-      <c r="L18">
-        <v>3.75</v>
-      </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.181</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6880127</v>
+        <v>6880287</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>4</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6879930</v>
+        <v>6880127</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,61 +2325,61 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
       </c>
       <c r="K21">
+        <v>1.8</v>
+      </c>
+      <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
+        <v>3.4</v>
+      </c>
+      <c r="N21">
         <v>1.5</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>5</v>
       </c>
-      <c r="N21">
-        <v>1.181</v>
-      </c>
-      <c r="O21">
-        <v>6.5</v>
-      </c>
-      <c r="P21">
-        <v>12</v>
-      </c>
       <c r="Q21">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U21">
         <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2388,13 +2388,13 @@
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6882860</v>
+        <v>6880841</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,34 +2414,34 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
         <v>2.05</v>
@@ -2450,37 +2450,37 @@
         <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.9</v>
+      </c>
+      <c r="V22">
+        <v>1.9</v>
+      </c>
+      <c r="W22">
         <v>1.875</v>
       </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880128</v>
+        <v>6882860</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N23">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O23">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880841</v>
+        <v>6880839</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
         <v>2.5</v>
-      </c>
-      <c r="N24">
-        <v>2.875</v>
       </c>
       <c r="O24">
         <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880839</v>
+        <v>6880128</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>1.333</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>1.45</v>
+      </c>
+      <c r="O25">
+        <v>4.75</v>
+      </c>
+      <c r="P25">
+        <v>4.5</v>
+      </c>
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
         <v>2.05</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>2.375</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,10 +2770,10 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
+        <v>2.75</v>
+      </c>
+      <c r="N28">
+        <v>2.15</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
+        <v>2.625</v>
+      </c>
+      <c r="Q28">
+        <v>-0.25</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
-      <c r="P28">
-        <v>3.8</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3.5</v>
-      </c>
       <c r="U28">
+        <v>1.875</v>
+      </c>
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3393,7 +3393,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3485,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3660,10 +3660,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4105,10 +4105,10 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6879932</v>
+        <v>6880133</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="L42">
+        <v>5.5</v>
+      </c>
+      <c r="M42">
+        <v>1.2</v>
+      </c>
+      <c r="N42">
+        <v>4.75</v>
+      </c>
+      <c r="O42">
         <v>4.333</v>
       </c>
-      <c r="M42">
-        <v>1.444</v>
-      </c>
-      <c r="N42">
-        <v>11</v>
-      </c>
-      <c r="O42">
-        <v>5.5</v>
-      </c>
       <c r="P42">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="Q42">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>0.75</v>
-      </c>
-      <c r="AB42">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6880133</v>
+        <v>6879932</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="L43">
+        <v>4.333</v>
+      </c>
+      <c r="M43">
+        <v>1.444</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
         <v>5.5</v>
       </c>
-      <c r="M43">
-        <v>1.2</v>
-      </c>
-      <c r="N43">
-        <v>4.75</v>
-      </c>
-      <c r="O43">
-        <v>4.333</v>
-      </c>
       <c r="P43">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4550,10 +4550,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
         <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4906,7 +4906,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880289</v>
+        <v>6880447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
         <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880447</v>
+        <v>6880289</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z52">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -5262,7 +5262,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5354,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6880135</v>
+        <v>6879933</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,10 +5440,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5455,46 +5455,46 @@
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M56">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P56">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
+        <v>1.95</v>
+      </c>
+      <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
         <v>1.825</v>
       </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5503,13 +5503,13 @@
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6879933</v>
+        <v>6880135</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,10 +5529,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5544,46 +5544,46 @@
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N57">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5592,13 +5592,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6880290</v>
+        <v>6879934</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
+        <v>3.4</v>
+      </c>
+      <c r="M59">
+        <v>2.375</v>
+      </c>
+      <c r="N59">
+        <v>4.2</v>
+      </c>
+      <c r="O59">
         <v>3.8</v>
       </c>
-      <c r="M59">
-        <v>4.5</v>
-      </c>
-      <c r="N59">
-        <v>1.75</v>
-      </c>
-      <c r="O59">
-        <v>3.75</v>
-      </c>
       <c r="P59">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q59">
+        <v>0.75</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>1.8</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
+        <v>1.9</v>
+      </c>
+      <c r="V59">
+        <v>1.9</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>0.615</v>
+      </c>
+      <c r="Z59">
         <v>-0.5</v>
       </c>
-      <c r="R59">
-        <v>1.775</v>
-      </c>
-      <c r="S59">
-        <v>1.925</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.925</v>
-      </c>
-      <c r="V59">
-        <v>1.875</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>2.6</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6879934</v>
+        <v>6880290</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,55 +5796,55 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5853,19 +5853,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.615</v>
+        <v>2.6</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6880858</v>
+        <v>6880137</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880137</v>
+        <v>6880858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
+        <v>1.571</v>
+      </c>
+      <c r="O63">
+        <v>3.75</v>
+      </c>
+      <c r="P63">
         <v>4.75</v>
       </c>
-      <c r="O63">
-        <v>4.5</v>
-      </c>
-      <c r="P63">
-        <v>1.45</v>
-      </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6152,10 +6152,10 @@
         <v>45192.37847222222</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6241,7 +6241,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6330,10 +6330,10 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880860</v>
+        <v>6880861</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,55 +6508,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>49</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>2.6</v>
+      </c>
+      <c r="N68">
         <v>3.75</v>
       </c>
-      <c r="M68">
-        <v>2.875</v>
-      </c>
-      <c r="N68">
-        <v>1.7</v>
-      </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
         <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6565,19 +6565,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
+        <v>0.375</v>
+      </c>
+      <c r="AC68">
         <v>-0.5</v>
-      </c>
-      <c r="AC68">
-        <v>0.425</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6880861</v>
+        <v>6880860</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,56 +6597,56 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
         <v>1.95</v>
       </c>
       <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.75</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
@@ -6654,19 +6654,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6867,7 +6867,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,52 +7487,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N79">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
         <v>1.95</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z79">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6882853</v>
+        <v>6879936</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,13 +7576,13 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7591,43 +7591,43 @@
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M80">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P80">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>3.75</v>
+      </c>
+      <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="S80">
-        <v>1.975</v>
-      </c>
-      <c r="T80">
-        <v>3</v>
-      </c>
-      <c r="U80">
-        <v>1.875</v>
-      </c>
-      <c r="V80">
-        <v>1.925</v>
-      </c>
       <c r="W80">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6880865</v>
+        <v>6882853</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M81">
+        <v>3.5</v>
+      </c>
+      <c r="N81">
+        <v>1.615</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
+        <v>-0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
+        <v>1.975</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="N81">
-        <v>2.25</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>1.75</v>
-      </c>
-      <c r="S81">
-        <v>2.125</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6879936</v>
+        <v>6880865</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,61 +7754,61 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O82">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7820,10 +7820,10 @@
         <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880493</v>
+        <v>6880868</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,55 +8288,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>3.6</v>
       </c>
       <c r="P88">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8345,19 +8345,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880868</v>
+        <v>6880293</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,55 +8377,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>49</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8434,19 +8434,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880293</v>
+        <v>6880493</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,10 +8466,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8481,61 +8481,61 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
+        <v>2.2</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
         <v>3.25</v>
       </c>
-      <c r="Q90">
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>1.2</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.95</v>
-      </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>1.75</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>2.25</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>0.75</v>
-      </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>5</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9000,7 +9000,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>35</v>
@@ -9181,7 +9181,7 @@
         <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6882851</v>
+        <v>6880871</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,10 +9356,10 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9371,43 +9371,43 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45228.375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>41</v>
@@ -9534,10 +9534,10 @@
         <v>45228.5</v>
       </c>
       <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
         <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6880143</v>
+        <v>6880873</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K106">
-        <v>1.5</v>
-      </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N106">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.775</v>
-      </c>
       <c r="V106">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6880873</v>
+        <v>6880143</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>1.3</v>
+      </c>
+      <c r="O107">
+        <v>5</v>
+      </c>
+      <c r="P107">
+        <v>6.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.5</v>
+      </c>
+      <c r="R107">
         <v>1.95</v>
       </c>
-      <c r="N107">
-        <v>3.1</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
-      <c r="P107">
-        <v>1.95</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.8</v>
-      </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,10 +10068,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10249,7 +10249,7 @@
         <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -10427,7 +10427,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10602,7 +10602,7 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10780,7 +10780,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -10869,7 +10869,7 @@
         <v>45241.5</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
         <v>41</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6880296</v>
+        <v>6882849</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,49 +10958,49 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N118">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -11009,25 +11009,25 @@
         <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6882849</v>
+        <v>6880296</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,49 +11047,49 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N119">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11098,25 +11098,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X119">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6880147</v>
+        <v>6880880</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="N122">
+        <v>4.2</v>
+      </c>
+      <c r="O122">
+        <v>3.8</v>
+      </c>
+      <c r="P122">
+        <v>1.666</v>
+      </c>
+      <c r="Q122">
+        <v>0.75</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
+        <v>2.05</v>
+      </c>
+      <c r="V122">
         <v>1.8</v>
       </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
-      <c r="P122">
-        <v>3.4</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.9</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>2.75</v>
-      </c>
-      <c r="U122">
-        <v>1.8</v>
-      </c>
-      <c r="V122">
-        <v>2.05</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6880880</v>
+        <v>6880147</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45254.625</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
+        <v>1.727</v>
+      </c>
+      <c r="L123">
         <v>3.75</v>
       </c>
-      <c r="L123">
-        <v>3.6</v>
-      </c>
       <c r="M123">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
         <v>1.95</v>
       </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
+        <v>1.8</v>
+      </c>
+      <c r="V123">
         <v>2.05</v>
       </c>
-      <c r="V123">
-        <v>1.8</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
         <v>0.95</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>1.05</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s">
         <v>29</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11848,10 +11848,10 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11937,7 +11937,7 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12207,7 +12207,7 @@
         <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6879945</v>
+        <v>6880299</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6880299</v>
+        <v>6879945</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>4.75</v>
+      </c>
+      <c r="N146">
+        <v>1.571</v>
+      </c>
+      <c r="O146">
         <v>3.75</v>
       </c>
-      <c r="M146">
-        <v>3.6</v>
-      </c>
-      <c r="N146">
-        <v>2.1</v>
-      </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>40</v>
@@ -13717,10 +13717,10 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880894</v>
+        <v>6880300</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45325.375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="L152">
         <v>4</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
         <v>4</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880300</v>
+        <v>6880894</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K154">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L154">
         <v>4</v>
       </c>
       <c r="M154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N154">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,10 +14518,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14785,10 +14785,10 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14874,10 +14874,10 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>46</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6882842</v>
+        <v>6880158</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,73 +15230,73 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166">
+        <v>1.222</v>
+      </c>
+      <c r="L166">
+        <v>6</v>
+      </c>
+      <c r="M166">
+        <v>8</v>
+      </c>
+      <c r="N166">
+        <v>1.2</v>
+      </c>
+      <c r="O166">
+        <v>7</v>
+      </c>
+      <c r="P166">
+        <v>8</v>
+      </c>
+      <c r="Q166">
+        <v>-1.75</v>
+      </c>
+      <c r="R166">
+        <v>1.75</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
         <v>3</v>
       </c>
-      <c r="J166" t="s">
-        <v>49</v>
-      </c>
-      <c r="K166">
-        <v>2.375</v>
-      </c>
-      <c r="L166">
-        <v>3.2</v>
-      </c>
-      <c r="M166">
-        <v>2.625</v>
-      </c>
-      <c r="N166">
-        <v>3</v>
-      </c>
-      <c r="O166">
-        <v>3.2</v>
-      </c>
-      <c r="P166">
-        <v>2.2</v>
-      </c>
-      <c r="Q166">
-        <v>0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.875</v>
-      </c>
-      <c r="S166">
-        <v>1.975</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6880158</v>
+        <v>6880159</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.825</v>
+      </c>
+      <c r="S167">
+        <v>1.975</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
         <v>1.75</v>
       </c>
-      <c r="S167">
+      <c r="V167">
         <v>1.95</v>
       </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>1.8</v>
-      </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X167">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA167">
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
         <v>0.95</v>
-      </c>
-      <c r="AB167">
-        <v>0.8</v>
-      </c>
-      <c r="AC167">
-        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880159</v>
+        <v>6882842</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,43 +15408,43 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K168">
+        <v>2.375</v>
+      </c>
+      <c r="L168">
+        <v>3.2</v>
+      </c>
+      <c r="M168">
+        <v>2.625</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168">
+        <v>3.2</v>
+      </c>
+      <c r="P168">
         <v>2.2</v>
       </c>
-      <c r="L168">
-        <v>3.25</v>
-      </c>
-      <c r="M168">
-        <v>2.8</v>
-      </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
-      <c r="O168">
-        <v>3.4</v>
-      </c>
-      <c r="P168">
-        <v>3.1</v>
-      </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
         <v>1.975</v>
@@ -15453,31 +15453,31 @@
         <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,10 +15497,10 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15675,7 +15675,7 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15767,7 +15767,7 @@
         <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16301,7 +16301,7 @@
         <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16387,7 +16387,7 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
         <v>36</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880162</v>
+        <v>6880501</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880501</v>
+        <v>6880162</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,7 +16654,7 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>37</v>
@@ -17010,10 +17010,10 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6880163</v>
+        <v>6880907</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45347.375</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>6</v>
-      </c>
       <c r="N187">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.4</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.85</v>
-      </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6880907</v>
+        <v>6880163</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M188">
+        <v>6</v>
+      </c>
+      <c r="N188">
+        <v>1.75</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
         <v>4</v>
       </c>
-      <c r="N188">
-        <v>2.15</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.9</v>
-      </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
         <v>1.95</v>
       </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7792819</v>
+        <v>7774567</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45349.625</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7774567</v>
+        <v>7864790</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45349.625</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="L190">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="N190">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="Q190">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R190">
         <v>1.825</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y190">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7864790</v>
+        <v>7792819</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,49 +17455,49 @@
         <v>45349.625</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M191">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q191">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
         <v>1.75</v>
@@ -17506,25 +17506,25 @@
         <v>1.95</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X191">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7793355</v>
+        <v>7782560</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,43 +17544,43 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N192">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
         <v>1.95</v>
@@ -17589,28 +17589,28 @@
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>2.8</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
         <v>0.95</v>
       </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
-      <c r="Z192">
-        <v>0.75</v>
-      </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
       <c r="AB192">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7782560</v>
+        <v>7793355</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,43 +17633,43 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N193">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O193">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S193">
         <v>1.95</v>
@@ -17678,28 +17678,28 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X193">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17814,7 +17814,7 @@
         <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17903,7 +17903,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -17989,7 +17989,7 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
         <v>39</v>
@@ -18078,7 +18078,7 @@
         <v>45353.5</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
         <v>34</v>
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6879949</v>
+        <v>6880302</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,61 +18167,76 @@
         <v>45354.375</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
       </c>
       <c r="K199">
+        <v>1.5</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>5</v>
+      </c>
+      <c r="N199">
+        <v>1.533</v>
+      </c>
+      <c r="O199">
+        <v>4</v>
+      </c>
+      <c r="P199">
+        <v>4.75</v>
+      </c>
+      <c r="Q199">
+        <v>-1</v>
+      </c>
+      <c r="R199">
+        <v>1.925</v>
+      </c>
+      <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
         <v>3</v>
       </c>
-      <c r="L199">
-        <v>3.75</v>
-      </c>
-      <c r="M199">
-        <v>1.95</v>
-      </c>
-      <c r="N199">
-        <v>2.8</v>
-      </c>
-      <c r="O199">
-        <v>3.5</v>
-      </c>
-      <c r="P199">
-        <v>2.1</v>
-      </c>
-      <c r="Q199">
-        <v>0.25</v>
-      </c>
-      <c r="R199">
-        <v>1.875</v>
-      </c>
-      <c r="S199">
-        <v>1.975</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>1.925</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
       <c r="Y199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB199">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18246,6 +18261,15 @@
       <c r="G200" t="s">
         <v>41</v>
       </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>49</v>
+      </c>
       <c r="K200">
         <v>3.6</v>
       </c>
@@ -18256,46 +18280,52 @@
         <v>1.75</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q200">
         <v>0.75</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
         <v>3</v>
       </c>
       <c r="U200">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18303,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6880302</v>
+        <v>6879949</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18315,61 +18345,76 @@
         <v>45354.375</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N201">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
         <v>1.975</v>
       </c>
-      <c r="S201">
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
         <v>1.875</v>
       </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>2.025</v>
-      </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18392,7 +18437,16 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H202">
+        <v>4</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>47</v>
       </c>
       <c r="K202">
         <v>2.8</v>
@@ -18404,45 +18458,895 @@
         <v>2.1</v>
       </c>
       <c r="N202">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O202">
         <v>3.5</v>
       </c>
       <c r="P202">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.75</v>
+      </c>
+      <c r="V202">
+        <v>1.95</v>
+      </c>
+      <c r="W202">
+        <v>1.7</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.825</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
+        <v>0.75</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7774572</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45357.625</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>42</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>47</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>3.3</v>
+      </c>
+      <c r="M203">
+        <v>3.2</v>
+      </c>
+      <c r="N203">
+        <v>1.95</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
+        <v>3.4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.5</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.8</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
+        <v>1.925</v>
+      </c>
+      <c r="V203">
+        <v>1.875</v>
+      </c>
+      <c r="W203">
+        <v>0.95</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>1</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7792820</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45357.625</v>
+      </c>
+      <c r="F204" t="s">
+        <v>30</v>
+      </c>
+      <c r="G204" t="s">
+        <v>46</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <v>1.5</v>
+      </c>
+      <c r="L204">
+        <v>4.2</v>
+      </c>
+      <c r="M204">
+        <v>4.75</v>
+      </c>
+      <c r="N204">
+        <v>1.65</v>
+      </c>
+      <c r="O204">
+        <v>4</v>
+      </c>
+      <c r="P204">
+        <v>4</v>
+      </c>
+      <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
         <v>1.85</v>
       </c>
-      <c r="S202">
-        <v>2</v>
-      </c>
-      <c r="T202">
+      <c r="S204">
+        <v>1.95</v>
+      </c>
+      <c r="T204">
         <v>2.75</v>
       </c>
-      <c r="U202">
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
+        <v>1.975</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.95</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6880912</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" t="s">
+        <v>33</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>1.909</v>
+      </c>
+      <c r="N205">
+        <v>3.8</v>
+      </c>
+      <c r="O205">
+        <v>4</v>
+      </c>
+      <c r="P205">
+        <v>1.7</v>
+      </c>
+      <c r="Q205">
+        <v>0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>1.9</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6882838</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F206" t="s">
+        <v>39</v>
+      </c>
+      <c r="G206" t="s">
+        <v>44</v>
+      </c>
+      <c r="K206">
+        <v>2.25</v>
+      </c>
+      <c r="L206">
+        <v>4</v>
+      </c>
+      <c r="M206">
+        <v>2.4</v>
+      </c>
+      <c r="N206">
+        <v>2.625</v>
+      </c>
+      <c r="O206">
+        <v>3.8</v>
+      </c>
+      <c r="P206">
+        <v>2.1</v>
+      </c>
+      <c r="Q206">
+        <v>0.25</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.925</v>
+      </c>
+      <c r="T206">
+        <v>3</v>
+      </c>
+      <c r="U206">
+        <v>2</v>
+      </c>
+      <c r="V206">
+        <v>1.85</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6880166</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F207" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207">
+        <v>1.333</v>
+      </c>
+      <c r="L207">
+        <v>5</v>
+      </c>
+      <c r="M207">
+        <v>6</v>
+      </c>
+      <c r="N207">
+        <v>1.5</v>
+      </c>
+      <c r="O207">
+        <v>4.2</v>
+      </c>
+      <c r="P207">
+        <v>4.75</v>
+      </c>
+      <c r="Q207">
+        <v>-1</v>
+      </c>
+      <c r="R207">
+        <v>1.875</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
+        <v>1.85</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6880303</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F208" t="s">
+        <v>36</v>
+      </c>
+      <c r="G208" t="s">
+        <v>37</v>
+      </c>
+      <c r="K208">
+        <v>2.25</v>
+      </c>
+      <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>2.5</v>
+      </c>
+      <c r="N208">
+        <v>2.7</v>
+      </c>
+      <c r="O208">
+        <v>3.5</v>
+      </c>
+      <c r="P208">
+        <v>2.25</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>2</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.85</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6880910</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F209" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209">
+        <v>1.6</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>4.2</v>
+      </c>
+      <c r="N209">
+        <v>1.666</v>
+      </c>
+      <c r="O209">
+        <v>3.75</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.875</v>
+      </c>
+      <c r="S209">
+        <v>1.975</v>
+      </c>
+      <c r="T209">
+        <v>3</v>
+      </c>
+      <c r="U209">
+        <v>1.8</v>
+      </c>
+      <c r="V209">
+        <v>2.05</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6880460</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
+        <v>30</v>
+      </c>
+      <c r="K210">
+        <v>1.615</v>
+      </c>
+      <c r="L210">
+        <v>4</v>
+      </c>
+      <c r="M210">
+        <v>4</v>
+      </c>
+      <c r="N210">
+        <v>1.571</v>
+      </c>
+      <c r="O210">
+        <v>4</v>
+      </c>
+      <c r="P210">
+        <v>4.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.75</v>
+      </c>
+      <c r="R210">
+        <v>1.8</v>
+      </c>
+      <c r="S210">
+        <v>2.05</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>1.9</v>
+      </c>
+      <c r="V210">
+        <v>1.95</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6879950</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F211" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" t="s">
+        <v>46</v>
+      </c>
+      <c r="K211">
+        <v>1.5</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>5</v>
+      </c>
+      <c r="N211">
+        <v>1.533</v>
+      </c>
+      <c r="O211">
+        <v>3.8</v>
+      </c>
+      <c r="P211">
+        <v>4.75</v>
+      </c>
+      <c r="Q211">
+        <v>-1</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
         <v>2.025</v>
       </c>
-      <c r="V202">
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6880913</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F212" t="s">
+        <v>35</v>
+      </c>
+      <c r="G212" t="s">
+        <v>40</v>
+      </c>
+      <c r="K212">
+        <v>2.1</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>2.8</v>
+      </c>
+      <c r="N212">
+        <v>2.2</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>2.8</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>2.05</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>1.85</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6880911</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F213" t="s">
+        <v>42</v>
+      </c>
+      <c r="G213" t="s">
+        <v>45</v>
+      </c>
+      <c r="K213">
+        <v>1.909</v>
+      </c>
+      <c r="L213">
+        <v>3.75</v>
+      </c>
+      <c r="M213">
+        <v>3.1</v>
+      </c>
+      <c r="N213">
+        <v>2.1</v>
+      </c>
+      <c r="O213">
+        <v>3.6</v>
+      </c>
+      <c r="P213">
+        <v>2.875</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -121,22 +121,22 @@
     <t>Chemnitzer</t>
   </si>
   <si>
+    <t>Viktoria 89 Berlin</t>
+  </si>
+  <si>
     <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
     <t>Babelsberg 03</t>
   </si>
   <si>
-    <t>Viktoria 89 Berlin</t>
-  </si>
-  <si>
     <t>Eilenburg</t>
   </si>
   <si>
-    <t>Hansa Rostock II</t>
+    <t>Carl Zeiss Jena</t>
   </si>
   <si>
-    <t>Carl Zeiss Jena</t>
+    <t>Hansa Rostock II</t>
   </si>
   <si>
     <t>Cottbus</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6879928</v>
+        <v>6880834</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,46 +1171,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>1.825</v>
@@ -1219,7 +1219,7 @@
         <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.3999999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,16 +1228,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6880123</v>
+        <v>6879928</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
         <v>1.875</v>
       </c>
-      <c r="S9">
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.825</v>
+      </c>
+      <c r="V9">
         <v>1.975</v>
       </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.85</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6880834</v>
+        <v>6880123</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1361,43 +1361,43 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L10">
         <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>4.75</v>
+        <v>0.833</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,13 +1406,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC10">
         <v>-0.5</v>
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6882861</v>
+        <v>6880838</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6880838</v>
+        <v>6882861</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2236,7 +2236,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880128</v>
+        <v>6882860</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880839</v>
+        <v>6880841</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O23">
         <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6882860</v>
+        <v>6880839</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,55 +2592,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
         <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2649,19 +2649,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880841</v>
+        <v>6880128</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2696,43 +2696,43 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P25">
+        <v>4.5</v>
+      </c>
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
         <v>2.05</v>
       </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.9</v>
-      </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
         <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.875</v>
+        <v>0.45</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,16 +2741,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
+        <v>2.75</v>
+      </c>
+      <c r="N27">
+        <v>2.15</v>
+      </c>
+      <c r="O27">
+        <v>3.6</v>
+      </c>
+      <c r="P27">
+        <v>2.625</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.65</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <v>3.8</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3.5</v>
-      </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.925</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3304,7 +3304,7 @@
         <v>45158.46180555555</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -3396,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3660,7 +3660,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6882858</v>
+        <v>6880131</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,25 +3764,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N37">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q37">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,19 +3791,19 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3818,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6880131</v>
+        <v>6882858</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3853,25 +3853,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R38">
         <v>1.975</v>
@@ -3880,19 +3880,19 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         <v>45171.375</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6882857</v>
+        <v>6880490</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O46">
         <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
+        <v>1.875</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
         <v>1.95</v>
       </c>
-      <c r="T46">
-        <v>3.25</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6880490</v>
+        <v>6882857</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.6</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N47">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA47">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880491</v>
+        <v>6880289</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
+        <v>1.909</v>
+      </c>
+      <c r="N50">
         <v>3</v>
       </c>
-      <c r="N50">
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
+        <v>2.05</v>
+      </c>
+      <c r="Q50">
+        <v>0.25</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.85</v>
       </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
-      <c r="P50">
-        <v>3.3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.95</v>
-      </c>
-      <c r="S50">
-        <v>1.9</v>
-      </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0.95</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
       <c r="AB50">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880289</v>
+        <v>6880491</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6880853</v>
+        <v>6880136</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N53">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P53">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB53">
         <v>0</v>
       </c>
-      <c r="AA53">
+      <c r="AC53">
         <v>-0</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6880136</v>
+        <v>6880853</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N54">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6882856</v>
+        <v>6879933</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,49 +5351,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P55">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
         <v>1.825</v>
@@ -5405,22 +5405,22 @@
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y55">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6880135</v>
+        <v>6882856</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56">
+        <v>2.5</v>
+      </c>
+      <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
+        <v>2.3</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>1.533</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1.925</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>3.25</v>
+      </c>
+      <c r="U56">
+        <v>1.825</v>
+      </c>
+      <c r="V56">
+        <v>1.975</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>48</v>
-      </c>
-      <c r="K56">
-        <v>1.444</v>
-      </c>
-      <c r="L56">
-        <v>4.333</v>
-      </c>
-      <c r="M56">
-        <v>5.25</v>
-      </c>
-      <c r="N56">
-        <v>1.571</v>
-      </c>
-      <c r="O56">
-        <v>4</v>
-      </c>
-      <c r="P56">
-        <v>4.333</v>
-      </c>
-      <c r="Q56">
-        <v>-1</v>
-      </c>
-      <c r="R56">
-        <v>2.025</v>
-      </c>
-      <c r="S56">
-        <v>1.825</v>
-      </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>3</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>-1</v>
-      </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6879933</v>
+        <v>6880135</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,10 +5529,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5544,46 +5544,46 @@
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N57">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5592,13 +5592,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5707,10 +5707,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
         <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5974,10 +5974,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880857</v>
+        <v>6880855</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
+        <v>2.45</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.35</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
         <v>2.2</v>
       </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <v>2.1</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.1</v>
-      </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880855</v>
+        <v>6880857</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880861</v>
+        <v>6880291</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68">
+        <v>2.55</v>
+      </c>
+      <c r="L68">
+        <v>3.5</v>
+      </c>
+      <c r="M68">
         <v>2.3</v>
       </c>
-      <c r="L68">
-        <v>3.4</v>
-      </c>
-      <c r="M68">
-        <v>2.6</v>
-      </c>
       <c r="N68">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
         <v>3.5</v>
       </c>
       <c r="P68">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
         <v>1.95</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6880860</v>
+        <v>6880861</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,55 +6597,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
+        <v>3.4</v>
+      </c>
+      <c r="M69">
+        <v>2.6</v>
+      </c>
+      <c r="N69">
         <v>3.75</v>
       </c>
-      <c r="M69">
-        <v>2.875</v>
-      </c>
-      <c r="N69">
-        <v>1.7</v>
-      </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
         <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6654,19 +6654,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
+        <v>0.375</v>
+      </c>
+      <c r="AC69">
         <v>-0.5</v>
-      </c>
-      <c r="AC69">
-        <v>0.425</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6880291</v>
+        <v>6880860</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6880859</v>
+        <v>6880138</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
+        <v>1.975</v>
+      </c>
+      <c r="S71">
+        <v>1.875</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.95</v>
       </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.825</v>
-      </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X71">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
+        <v>0.875</v>
+      </c>
+      <c r="AB71">
         <v>-0.5</v>
       </c>
-      <c r="AB71">
-        <v>0.825</v>
-      </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6880138</v>
+        <v>6880859</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N72">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q72">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.85</v>
+      </c>
+      <c r="T72">
+        <v>2.75</v>
+      </c>
+      <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="S72">
-        <v>1.875</v>
-      </c>
-      <c r="T72">
-        <v>3.25</v>
-      </c>
-      <c r="U72">
-        <v>1.95</v>
-      </c>
-      <c r="V72">
-        <v>1.9</v>
-      </c>
       <c r="W72">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA72">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7223,7 +7223,7 @@
         <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,52 +7309,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N77">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O77">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V77">
         <v>1.95</v>
@@ -7363,19 +7363,19 @@
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7487,10 +7487,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7754,10 +7754,10 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
         <v>40</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7846,7 +7846,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8110,10 +8110,10 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8199,7 +8199,7 @@
         <v>45218.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880868</v>
+        <v>6880493</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O88">
         <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q88">
+        <v>0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.8</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.2</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
         <v>-0.5</v>
       </c>
-      <c r="R88">
-        <v>1.925</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.925</v>
-      </c>
-      <c r="V88">
-        <v>1.925</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>2.3</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.925</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880493</v>
+        <v>6880293</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,10 +8377,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8392,40 +8392,40 @@
         <v>49</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8434,19 +8434,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC89">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880293</v>
+        <v>6880868</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,55 +8466,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>1</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q90">
         <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8523,19 +8523,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6880866</v>
+        <v>6880450</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>5</v>
-      </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
         <v>1.875</v>
       </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6880450</v>
+        <v>6880866</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>5</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R94">
+        <v>1.875</v>
+      </c>
+      <c r="S94">
         <v>1.925</v>
       </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
         <v>0.925</v>
       </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6880294</v>
+        <v>6879938</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
         <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6879938</v>
+        <v>6880294</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
         <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
         <v>40</v>
-      </c>
-      <c r="G99" t="s">
-        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6882851</v>
+        <v>6880871</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,10 +9356,10 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9371,43 +9371,43 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>45233.625</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6880874</v>
+        <v>6880872</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,58 +10157,58 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
         <v>4</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.6499999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,13 +10217,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880872</v>
+        <v>6880874</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,58 +10246,58 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>2.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10424,7 +10424,7 @@
         <v>45238.625</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10602,7 +10602,7 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -10694,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6882849</v>
+        <v>6880296</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,49 +10958,49 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -11009,25 +11009,25 @@
         <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6880296</v>
+        <v>6882849</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,49 +11047,49 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N119">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11098,25 +11098,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6880880</v>
+        <v>6880147</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
+        <v>1.727</v>
+      </c>
+      <c r="L122">
         <v>3.75</v>
       </c>
-      <c r="L122">
-        <v>3.6</v>
-      </c>
       <c r="M122">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
+        <v>1.8</v>
+      </c>
+      <c r="V122">
         <v>2.05</v>
       </c>
-      <c r="V122">
-        <v>1.8</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>0.95</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
       <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>1.05</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6880147</v>
+        <v>6880880</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45254.625</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="N123">
+        <v>4.2</v>
+      </c>
+      <c r="O123">
+        <v>3.8</v>
+      </c>
+      <c r="P123">
+        <v>1.666</v>
+      </c>
+      <c r="Q123">
+        <v>0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>3</v>
+      </c>
+      <c r="U123">
+        <v>2.05</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>3.4</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.8</v>
-      </c>
-      <c r="V123">
-        <v>2.05</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y123">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11940,7 +11940,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12382,10 +12382,10 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>34</v>
@@ -12738,7 +12738,7 @@
         <v>45277.375</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -12827,7 +12827,7 @@
         <v>45279.625</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
@@ -12919,7 +12919,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>45315.625</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13097,7 +13097,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13183,7 +13183,7 @@
         <v>45318.375</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13361,7 +13361,7 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
         <v>45</v>
@@ -13542,7 +13542,7 @@
         <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6880895</v>
+        <v>6879946</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45324.625</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>4.75</v>
+      </c>
+      <c r="L150">
         <v>4</v>
       </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>2.625</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
       <c r="M150">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N150">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6879946</v>
+        <v>6880895</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45324.625</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA151">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14251,10 +14251,10 @@
         <v>45325.5</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14610,7 +14610,7 @@
         <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14788,7 +14788,7 @@
         <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>4</v>
@@ -15052,7 +15052,7 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
         <v>32</v>
@@ -15230,7 +15230,7 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
         <v>43</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6880159</v>
+        <v>6880158</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880158</v>
+        <v>6880159</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N168">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>1.975</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
         <v>1.75</v>
       </c>
-      <c r="S168">
+      <c r="V168">
         <v>1.95</v>
       </c>
-      <c r="T168">
-        <v>3</v>
-      </c>
-      <c r="U168">
-        <v>1.8</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X168">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.95</v>
-      </c>
-      <c r="AB168">
-        <v>0.8</v>
-      </c>
-      <c r="AC168">
-        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15678,7 +15678,7 @@
         <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15764,7 +15764,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
         <v>33</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16209,7 +16209,7 @@
         <v>45342.625</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16301,7 +16301,7 @@
         <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16387,7 +16387,7 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>29</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880162</v>
+        <v>6880458</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R180">
         <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880501</v>
+        <v>6880162</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6880458</v>
+        <v>6880501</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
         <v>3.4</v>
       </c>
       <c r="M182">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N182">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16832,10 +16832,10 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16921,7 +16921,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17188,7 +17188,7 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7792819</v>
+        <v>7864790</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,49 +17277,49 @@
         <v>45349.625</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K189">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
         <v>1.75</v>
@@ -17328,25 +17328,25 @@
         <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7864790</v>
+        <v>7792819</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,49 +17455,49 @@
         <v>45349.625</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M191">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q191">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U191">
         <v>1.75</v>
@@ -17506,25 +17506,25 @@
         <v>1.95</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X191">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17547,7 +17547,7 @@
         <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17814,7 +17814,7 @@
         <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17900,7 +17900,7 @@
         <v>45353.375</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17989,7 +17989,7 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>33</v>
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6880302</v>
+        <v>6879949</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45354.375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
+        <v>1.825</v>
+      </c>
+      <c r="S199">
+        <v>1.975</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
         <v>1.925</v>
       </c>
-      <c r="S199">
-        <v>1.925</v>
-      </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6879949</v>
+        <v>6880302</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
+        <v>1.5</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>5</v>
+      </c>
+      <c r="N200">
+        <v>1.533</v>
+      </c>
+      <c r="O200">
+        <v>4</v>
+      </c>
+      <c r="P200">
+        <v>4.75</v>
+      </c>
+      <c r="Q200">
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <v>1.925</v>
+      </c>
+      <c r="S200">
+        <v>1.925</v>
+      </c>
+      <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
+        <v>2</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
         <v>3</v>
       </c>
-      <c r="L200">
-        <v>3.75</v>
-      </c>
-      <c r="M200">
-        <v>1.95</v>
-      </c>
-      <c r="N200">
-        <v>2.8</v>
-      </c>
-      <c r="O200">
-        <v>3.4</v>
-      </c>
-      <c r="P200">
-        <v>2.15</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.825</v>
-      </c>
-      <c r="S200">
-        <v>1.975</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.925</v>
-      </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
       <c r="Y200">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7792820</v>
+        <v>7774572</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45357.625</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K203">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L203">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M203">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N203">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X203">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7774572</v>
+        <v>7792820</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45357.625</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N204">
+        <v>1.65</v>
+      </c>
+      <c r="O204">
+        <v>4</v>
+      </c>
+      <c r="P204">
+        <v>4</v>
+      </c>
+      <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
         <v>1.95</v>
       </c>
-      <c r="O204">
-        <v>3.2</v>
-      </c>
-      <c r="P204">
-        <v>3.4</v>
-      </c>
-      <c r="Q204">
-        <v>-0.5</v>
-      </c>
-      <c r="R204">
-        <v>2</v>
-      </c>
-      <c r="S204">
-        <v>1.8</v>
-      </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
         <v>0.95</v>
       </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>1</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6880166</v>
+        <v>6880912</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45359.625</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="O205">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="V205">
-        <v>1.85</v>
-      </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>0.95</v>
-      </c>
-      <c r="AC205">
-        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18790,7 +18790,7 @@
         <v>45359.625</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
         <v>44</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880912</v>
+        <v>6880166</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45359.625</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K207">
+        <v>1.333</v>
+      </c>
+      <c r="L207">
+        <v>5</v>
+      </c>
+      <c r="M207">
+        <v>6</v>
+      </c>
+      <c r="N207">
+        <v>1.45</v>
+      </c>
+      <c r="O207">
+        <v>4.333</v>
+      </c>
+      <c r="P207">
+        <v>5.25</v>
+      </c>
+      <c r="Q207">
+        <v>-1.25</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>1.8</v>
+      </c>
+      <c r="T207">
         <v>3</v>
       </c>
-      <c r="L207">
-        <v>4</v>
-      </c>
-      <c r="M207">
-        <v>1.909</v>
-      </c>
-      <c r="N207">
-        <v>2.875</v>
-      </c>
-      <c r="O207">
-        <v>3.5</v>
-      </c>
-      <c r="P207">
-        <v>2.1</v>
-      </c>
-      <c r="Q207">
-        <v>0.25</v>
-      </c>
-      <c r="R207">
-        <v>1.825</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
       <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y207">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC207">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6880460</v>
+        <v>6880910</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18965,72 +18965,87 @@
         <v>28</v>
       </c>
       <c r="E208" s="2">
-        <v>45360.5</v>
+        <v>45360.375</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>48</v>
       </c>
       <c r="K208">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L208">
         <v>4</v>
       </c>
       <c r="M208">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6879950</v>
+        <v>6880303</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,72 +19054,87 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45361.375</v>
+        <v>45360.375</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M209">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N209">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
+        <v>1.825</v>
+      </c>
+      <c r="S209">
         <v>2.025</v>
-      </c>
-      <c r="S209">
-        <v>1.825</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB209">
+        <v>0.925</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6880911</v>
+        <v>6880460</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19113,72 +19143,87 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45361.375</v>
+        <v>45360.5</v>
       </c>
       <c r="F210" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="H210">
+        <v>4</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L210">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M210">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N210">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R210">
+        <v>1.875</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="S210">
-        <v>2</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.875</v>
-      </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>0.95</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6880913</v>
+        <v>6879950</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19190,61 +19235,254 @@
         <v>45361.375</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>47</v>
       </c>
       <c r="K211">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M211">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
         <v>1.85</v>
       </c>
       <c r="W211">
+        <v>0.7</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6880911</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F212" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" t="s">
+        <v>45</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212" t="s">
+        <v>49</v>
+      </c>
+      <c r="K212">
+        <v>1.909</v>
+      </c>
+      <c r="L212">
+        <v>3.75</v>
+      </c>
+      <c r="M212">
+        <v>3.1</v>
+      </c>
+      <c r="N212">
+        <v>2.2</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>2.75</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.825</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>1.75</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.825</v>
+      </c>
+      <c r="AB212">
+        <v>0.925</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6880913</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F213" t="s">
+        <v>35</v>
+      </c>
+      <c r="G213" t="s">
+        <v>39</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>5</v>
+      </c>
+      <c r="J213" t="s">
+        <v>49</v>
+      </c>
+      <c r="K213">
+        <v>2.1</v>
+      </c>
+      <c r="L213">
+        <v>3.6</v>
+      </c>
+      <c r="M213">
+        <v>2.8</v>
+      </c>
+      <c r="N213">
+        <v>2.7</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>2.3</v>
+      </c>
+      <c r="Q213">
         <v>0</v>
       </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
+      <c r="R213">
+        <v>2.05</v>
+      </c>
+      <c r="S213">
+        <v>1.75</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.85</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>1.3</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.75</v>
+      </c>
+      <c r="AB213">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC213">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
+    <t>FC Lok Leipzig</t>
+  </si>
+  <si>
     <t>RotWeiss Erfurt</t>
   </si>
   <si>
     <t>Hertha Berlin II</t>
-  </si>
-  <si>
-    <t>FC Lok Leipzig</t>
   </si>
   <si>
     <t>Greifswalder SV 04</t>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6882862</v>
+        <v>6880443</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,56 +637,56 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2">
+        <v>2.4</v>
+      </c>
+      <c r="O2">
+        <v>3.25</v>
+      </c>
+      <c r="P2">
+        <v>2.6</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.825</v>
+      </c>
+      <c r="S2">
+        <v>1.975</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>1.975</v>
+      </c>
+      <c r="V2">
+        <v>1.825</v>
+      </c>
+      <c r="W2">
         <v>1.4</v>
       </c>
-      <c r="O2">
-        <v>4.2</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2">
-        <v>-1.25</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>1.8</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X2">
         <v>-1</v>
       </c>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,43 +738,43 @@
         <v>47</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6880443</v>
+        <v>6880835</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,52 +818,52 @@
         <v>42</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
         <v>1.825</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1.975</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>1.975</v>
-      </c>
-      <c r="V4">
-        <v>1.825</v>
-      </c>
       <c r="W4">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -872,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
+        <v>2.7</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2239,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6882860</v>
+        <v>6880128</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
+        <v>4.5</v>
+      </c>
+      <c r="Q22">
+        <v>-1.25</v>
+      </c>
+      <c r="R22">
         <v>2.05</v>
       </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.925</v>
-      </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880841</v>
+        <v>6880839</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
         <v>2.5</v>
-      </c>
-      <c r="N23">
-        <v>2.875</v>
       </c>
       <c r="O23">
         <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880839</v>
+        <v>6880841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O24">
         <v>3.5</v>
       </c>
       <c r="P24">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880128</v>
+        <v>6882860</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O25">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
         <v>3</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,10 +2770,10 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
+        <v>2.75</v>
+      </c>
+      <c r="N28">
+        <v>2.15</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
+        <v>2.625</v>
+      </c>
+      <c r="Q28">
+        <v>-0.25</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
-      <c r="P28">
-        <v>3.8</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3.5</v>
-      </c>
       <c r="U28">
+        <v>1.875</v>
+      </c>
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3307,7 +3307,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3485,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6880131</v>
+        <v>6882858</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,25 +3764,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,19 +3791,19 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3818,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6882858</v>
+        <v>6880131</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3853,25 +3853,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N38">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O38">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
         <v>1.975</v>
@@ -3880,19 +3880,19 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4105,10 +4105,10 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6880133</v>
+        <v>6879932</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="L42">
+        <v>4.333</v>
+      </c>
+      <c r="M42">
+        <v>1.444</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
         <v>5.5</v>
       </c>
-      <c r="M42">
-        <v>1.2</v>
-      </c>
-      <c r="N42">
-        <v>4.75</v>
-      </c>
-      <c r="O42">
-        <v>4.333</v>
-      </c>
       <c r="P42">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
         <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6879932</v>
+        <v>6880133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="L43">
+        <v>5.5</v>
+      </c>
+      <c r="M43">
+        <v>1.2</v>
+      </c>
+      <c r="N43">
+        <v>4.75</v>
+      </c>
+      <c r="O43">
         <v>4.333</v>
       </c>
-      <c r="M43">
-        <v>1.444</v>
-      </c>
-      <c r="N43">
-        <v>11</v>
-      </c>
-      <c r="O43">
-        <v>5.5</v>
-      </c>
       <c r="P43">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="Q43">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>0.75</v>
-      </c>
-      <c r="AB43">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4820,7 +4820,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4998,7 +4998,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6880136</v>
+        <v>6880853</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>1.2</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N53">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O53">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>3</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6880853</v>
+        <v>6880136</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,73 +5265,73 @@
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>1.2</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M54">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N54">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB54">
         <v>0</v>
       </c>
-      <c r="AA54">
+      <c r="AC54">
         <v>-0</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6879933</v>
+        <v>6880135</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,10 +5351,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5366,46 +5366,46 @@
         <v>48</v>
       </c>
       <c r="K55">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M55">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N55">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5414,13 +5414,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6880135</v>
+        <v>6879933</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,10 +5529,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5544,46 +5544,46 @@
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M57">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
         <v>1.825</v>
       </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5592,13 +5592,13 @@
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>45192.37847222222</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880855</v>
+        <v>6880857</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880857</v>
+        <v>6880855</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K66">
+        <v>2.45</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.35</v>
+      </c>
+      <c r="N66">
+        <v>2.7</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
         <v>2.2</v>
       </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
-        <v>2.1</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.1</v>
-      </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880291</v>
+        <v>6880860</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.95</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
+        <v>3.25</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="S68">
-        <v>2</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.95</v>
-      </c>
       <c r="W68">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6880861</v>
+        <v>6880291</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K69">
+        <v>2.55</v>
+      </c>
+      <c r="L69">
+        <v>3.5</v>
+      </c>
+      <c r="M69">
         <v>2.3</v>
       </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>2.6</v>
-      </c>
       <c r="N69">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
         <v>3.5</v>
       </c>
       <c r="P69">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
         <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6880860</v>
+        <v>6880861</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,55 +6686,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>49</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
+        <v>3.4</v>
+      </c>
+      <c r="M70">
+        <v>2.6</v>
+      </c>
+      <c r="N70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>2.875</v>
-      </c>
-      <c r="N70">
-        <v>1.7</v>
-      </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
         <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6743,19 +6743,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
+        <v>0.375</v>
+      </c>
+      <c r="AC70">
         <v>-0.5</v>
-      </c>
-      <c r="AC70">
-        <v>0.425</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6880138</v>
+        <v>6880859</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N71">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.85</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="S71">
-        <v>1.875</v>
-      </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
-      <c r="U71">
-        <v>1.95</v>
-      </c>
-      <c r="V71">
-        <v>1.9</v>
-      </c>
       <c r="W71">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6880859</v>
+        <v>6880138</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M72">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.875</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
         <v>1.95</v>
       </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X72">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
+        <v>0.875</v>
+      </c>
+      <c r="AB72">
         <v>-0.5</v>
       </c>
-      <c r="AB72">
-        <v>0.825</v>
-      </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6882854</v>
+        <v>6879935</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74">
         <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
         <v>1.8</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6879935</v>
+        <v>6882854</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N75">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
         <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T75">
+        <v>3.25</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <v>1.85</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
         <v>3</v>
       </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
-      <c r="W75">
-        <v>2.25</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7220,7 +7220,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7309,10 +7309,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6880865</v>
+        <v>6879936</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,61 +7576,61 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P80">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="V80">
-        <v>2.025</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X80">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
@@ -7642,10 +7642,10 @@
         <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC80">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6879936</v>
+        <v>6882853</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,13 +7665,13 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7680,43 +7680,43 @@
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N81">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O81">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T81">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7725,16 +7725,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6882853</v>
+        <v>6880865</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,76 +7754,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>2.25</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="N82">
-        <v>1.615</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
       <c r="P82">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>2.125</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880493</v>
+        <v>6880293</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,10 +8288,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8303,40 +8303,40 @@
         <v>49</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8345,19 +8345,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC88">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880293</v>
+        <v>6880493</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,10 +8377,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8392,61 +8392,61 @@
         <v>49</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
+        <v>2.2</v>
+      </c>
+      <c r="Q89">
+        <v>0.25</v>
+      </c>
+      <c r="R89">
+        <v>1.8</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
         <v>3.25</v>
       </c>
-      <c r="Q89">
+      <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
+        <v>1.825</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>1.2</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
         <v>-0.5</v>
       </c>
-      <c r="R89">
-        <v>1.95</v>
-      </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
-        <v>1.75</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>2.25</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>0.75</v>
-      </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>37</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6880450</v>
+        <v>6880866</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>5</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N93">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R93">
+        <v>1.875</v>
+      </c>
+      <c r="S93">
         <v>1.925</v>
       </c>
-      <c r="S93">
-        <v>1.875</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
         <v>0.925</v>
       </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6880866</v>
+        <v>6880450</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>5</v>
-      </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
         <v>1.875</v>
       </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6879938</v>
+        <v>6880294</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
         <v>1.825</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X97">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6880294</v>
+        <v>6879938</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
         <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9534,10 +9534,10 @@
         <v>45228.5</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6879939</v>
+        <v>6880295</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,67 +9712,67 @@
         <v>45233.625</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N104">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9781,7 +9781,7 @@
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6880295</v>
+        <v>6879939</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,67 +9801,67 @@
         <v>45233.625</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N105">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z105">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9870,7 +9870,7 @@
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6880873</v>
+        <v>6880143</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>1.3</v>
+      </c>
+      <c r="O106">
+        <v>5</v>
+      </c>
+      <c r="P106">
+        <v>6.5</v>
+      </c>
+      <c r="Q106">
+        <v>-1.5</v>
+      </c>
+      <c r="R106">
         <v>1.95</v>
       </c>
-      <c r="N106">
-        <v>3.1</v>
-      </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
-      <c r="P106">
-        <v>1.95</v>
-      </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.8</v>
-      </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6880143</v>
+        <v>6880873</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>48</v>
+      </c>
+      <c r="K107">
         <v>3</v>
       </c>
-      <c r="J107" t="s">
-        <v>49</v>
-      </c>
-      <c r="K107">
-        <v>1.5</v>
-      </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N107">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="S107">
-        <v>1.9</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.775</v>
-      </c>
       <c r="V107">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y107">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6880872</v>
+        <v>6880874</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,58 +10157,58 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O109">
         <v>4</v>
       </c>
       <c r="P109">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>2.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,13 +10217,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880874</v>
+        <v>6880872</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,58 +10246,58 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N110">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>0.6499999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10427,7 +10427,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880145</v>
+        <v>6880875</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,70 +10513,70 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>3.6</v>
+      </c>
+      <c r="P113">
+        <v>3.1</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
         <v>1.8</v>
       </c>
-      <c r="N113">
-        <v>6.5</v>
-      </c>
-      <c r="O113">
-        <v>4.75</v>
-      </c>
-      <c r="P113">
-        <v>1.363</v>
-      </c>
-      <c r="Q113">
-        <v>1.5</v>
-      </c>
-      <c r="R113">
-        <v>1.85</v>
-      </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>1.925</v>
       </c>
       <c r="W113">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880876</v>
+        <v>6880145</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,13 +10602,13 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10617,43 +10617,43 @@
         <v>47</v>
       </c>
       <c r="K114">
+        <v>3.25</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
         <v>1.8</v>
       </c>
-      <c r="L114">
-        <v>3.75</v>
-      </c>
-      <c r="M114">
-        <v>3.4</v>
-      </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
       </c>
-      <c r="S114">
-        <v>1.75</v>
-      </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,7 +10662,7 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10671,7 +10671,7 @@
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6880875</v>
+        <v>6880876</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45240.625</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
         <v>3.1</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10869,7 +10869,7 @@
         <v>45241.5</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
         <v>41</v>
@@ -10961,7 +10961,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6880147</v>
+        <v>6879941</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M122">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="N122">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O122">
         <v>3.75</v>
       </c>
       <c r="P122">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6879941</v>
+        <v>6880147</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45254.625</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
         <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W124">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11848,10 +11848,10 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11937,7 +11937,7 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12207,7 +12207,7 @@
         <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12741,7 +12741,7 @@
         <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>40</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13450,7 +13450,7 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>46</v>
@@ -13717,10 +13717,10 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880300</v>
+        <v>6880157</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,73 +14073,73 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153">
+        <v>2.4</v>
+      </c>
+      <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
+        <v>2.5</v>
+      </c>
+      <c r="N153">
         <v>3</v>
       </c>
-      <c r="I153">
-        <v>2</v>
-      </c>
-      <c r="J153" t="s">
-        <v>47</v>
-      </c>
-      <c r="K153">
-        <v>1.5</v>
-      </c>
-      <c r="L153">
-        <v>4</v>
-      </c>
-      <c r="M153">
-        <v>5</v>
-      </c>
-      <c r="N153">
-        <v>1.5</v>
-      </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880157</v>
+        <v>6880300</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14162,73 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154">
+        <v>1.5</v>
+      </c>
+      <c r="L154">
         <v>4</v>
       </c>
-      <c r="J154" t="s">
-        <v>49</v>
-      </c>
-      <c r="K154">
-        <v>2.4</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
       <c r="M154">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14521,7 +14521,7 @@
         <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14699,7 +14699,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14874,10 +14874,10 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14963,7 +14963,7 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15233,7 +15233,7 @@
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15497,10 +15497,10 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15675,7 +15675,7 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>45343.625</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>36</v>
@@ -16390,7 +16390,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880458</v>
+        <v>6880162</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16479,73 +16479,73 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N180">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R180">
         <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB180">
         <v>0.825</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
       <c r="AC180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880162</v>
+        <v>6880458</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N181">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R181">
         <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17010,10 +17010,10 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17102,7 +17102,7 @@
         <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7774567</v>
+        <v>7792819</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45349.625</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L190">
+        <v>4.5</v>
+      </c>
+      <c r="M190">
+        <v>5.5</v>
+      </c>
+      <c r="N190">
+        <v>1.5</v>
+      </c>
+      <c r="O190">
         <v>4.333</v>
       </c>
-      <c r="M190">
-        <v>1.444</v>
-      </c>
-      <c r="N190">
-        <v>6</v>
-      </c>
-      <c r="O190">
-        <v>4</v>
-      </c>
       <c r="P190">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="Q190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V190">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7792819</v>
+        <v>7774567</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,76 +17455,76 @@
         <v>45349.625</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K191">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L191">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M191">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N191">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O191">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W191">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
         <v>37</v>
@@ -17633,7 +17633,7 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
         <v>44</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6882839</v>
+        <v>6880502</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,49 +17811,49 @@
         <v>45353.375</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="L195">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N195">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="Q195">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
         <v>1.9</v>
@@ -17865,22 +17865,22 @@
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y195">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA195">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6880502</v>
+        <v>6882839</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,49 +17989,49 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M197">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P197">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18043,22 +18043,22 @@
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z197">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>45353.5</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
         <v>34</v>
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6879949</v>
+        <v>6880302</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45354.375</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
+        <v>1.5</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>5</v>
+      </c>
+      <c r="N199">
+        <v>1.533</v>
+      </c>
+      <c r="O199">
+        <v>4</v>
+      </c>
+      <c r="P199">
+        <v>4.75</v>
+      </c>
+      <c r="Q199">
+        <v>-1</v>
+      </c>
+      <c r="R199">
+        <v>1.925</v>
+      </c>
+      <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
         <v>3</v>
       </c>
-      <c r="L199">
-        <v>3.75</v>
-      </c>
-      <c r="M199">
-        <v>1.95</v>
-      </c>
-      <c r="N199">
-        <v>2.8</v>
-      </c>
-      <c r="O199">
-        <v>3.4</v>
-      </c>
-      <c r="P199">
-        <v>2.15</v>
-      </c>
-      <c r="Q199">
-        <v>0.25</v>
-      </c>
-      <c r="R199">
-        <v>1.825</v>
-      </c>
-      <c r="S199">
-        <v>1.975</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>1.875</v>
-      </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
       <c r="Y199">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6880302</v>
+        <v>6880909</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,64 +18256,64 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N200">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
         <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
         <v>1.85</v>
       </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z200">
         <v>-1</v>
@@ -18322,10 +18322,10 @@
         <v>0.925</v>
       </c>
       <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6880909</v>
+        <v>6879949</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,56 +18345,56 @@
         <v>45354.375</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>49</v>
       </c>
       <c r="K201">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L201">
         <v>3.75</v>
       </c>
       <c r="M201">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N201">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
         <v>1.875</v>
       </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H202">
         <v>4</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7774572</v>
+        <v>7792820</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45357.625</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L203">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M203">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N203">
+        <v>1.65</v>
+      </c>
+      <c r="O203">
+        <v>4</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.85</v>
+      </c>
+      <c r="S203">
         <v>1.95</v>
       </c>
-      <c r="O203">
-        <v>3.2</v>
-      </c>
-      <c r="P203">
-        <v>3.4</v>
-      </c>
-      <c r="Q203">
-        <v>-0.5</v>
-      </c>
-      <c r="R203">
-        <v>2</v>
-      </c>
-      <c r="S203">
-        <v>1.8</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>3</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
         <v>0.95</v>
       </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>1</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7792820</v>
+        <v>7774572</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45357.625</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L204">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X204">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>45359.625</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18879,7 +18879,7 @@
         <v>45359.625</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
         <v>38</v>
@@ -18971,7 +18971,7 @@
         <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19149,7 +19149,7 @@
         <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>4</v>
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6879950</v>
+        <v>6880911</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,40 +19235,40 @@
         <v>45361.375</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K211">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N211">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q211">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
         <v>1.975</v>
@@ -19280,31 +19280,31 @@
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W211">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6880911</v>
+        <v>6879950</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,40 +19324,40 @@
         <v>45361.375</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K212">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O212">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
         <v>1.975</v>
@@ -19369,31 +19369,31 @@
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19482,6 +19482,540 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6880916</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F214" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" t="s">
+        <v>42</v>
+      </c>
+      <c r="H214">
+        <v>4</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>47</v>
+      </c>
+      <c r="K214">
+        <v>1.666</v>
+      </c>
+      <c r="L214">
+        <v>4</v>
+      </c>
+      <c r="M214">
+        <v>3.75</v>
+      </c>
+      <c r="N214">
+        <v>1.571</v>
+      </c>
+      <c r="O214">
+        <v>4.2</v>
+      </c>
+      <c r="P214">
+        <v>4.2</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.725</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.9</v>
+      </c>
+      <c r="W214">
+        <v>0.571</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6879951</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F215" t="s">
+        <v>45</v>
+      </c>
+      <c r="G215" t="s">
+        <v>46</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>47</v>
+      </c>
+      <c r="K215">
+        <v>1.444</v>
+      </c>
+      <c r="L215">
+        <v>4.2</v>
+      </c>
+      <c r="M215">
+        <v>5.5</v>
+      </c>
+      <c r="N215">
+        <v>1.6</v>
+      </c>
+      <c r="O215">
+        <v>4</v>
+      </c>
+      <c r="P215">
+        <v>4.333</v>
+      </c>
+      <c r="Q215">
+        <v>-0.75</v>
+      </c>
+      <c r="R215">
+        <v>1.775</v>
+      </c>
+      <c r="S215">
+        <v>2.025</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>1.85</v>
+      </c>
+      <c r="V215">
+        <v>1.95</v>
+      </c>
+      <c r="W215">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6880915</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F216" t="s">
+        <v>37</v>
+      </c>
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="s">
+        <v>49</v>
+      </c>
+      <c r="K216">
+        <v>1.5</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216">
+        <v>5</v>
+      </c>
+      <c r="N216">
+        <v>1.7</v>
+      </c>
+      <c r="O216">
+        <v>3.6</v>
+      </c>
+      <c r="P216">
+        <v>4</v>
+      </c>
+      <c r="Q216">
+        <v>-0.75</v>
+      </c>
+      <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>1.9</v>
+      </c>
+      <c r="V216">
+        <v>1.9</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>3</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>0.825</v>
+      </c>
+      <c r="AB216">
+        <v>0.45</v>
+      </c>
+      <c r="AC216">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6880503</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F217" t="s">
+        <v>33</v>
+      </c>
+      <c r="G217" t="s">
+        <v>34</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>49</v>
+      </c>
+      <c r="K217">
+        <v>1.444</v>
+      </c>
+      <c r="L217">
+        <v>4.333</v>
+      </c>
+      <c r="M217">
+        <v>5.25</v>
+      </c>
+      <c r="N217">
+        <v>1.615</v>
+      </c>
+      <c r="O217">
+        <v>3.8</v>
+      </c>
+      <c r="P217">
+        <v>4.2</v>
+      </c>
+      <c r="Q217">
+        <v>-1</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>1.8</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.8</v>
+      </c>
+      <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>3.2</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.8</v>
+      </c>
+      <c r="AB217">
+        <v>0.8</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6882837</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F218" t="s">
+        <v>38</v>
+      </c>
+      <c r="G218" t="s">
+        <v>40</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>47</v>
+      </c>
+      <c r="K218">
+        <v>1.75</v>
+      </c>
+      <c r="L218">
+        <v>3.75</v>
+      </c>
+      <c r="M218">
+        <v>3.6</v>
+      </c>
+      <c r="N218">
+        <v>2.15</v>
+      </c>
+      <c r="O218">
+        <v>3.4</v>
+      </c>
+      <c r="P218">
+        <v>2.8</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>1.85</v>
+      </c>
+      <c r="T218">
+        <v>2.75</v>
+      </c>
+      <c r="U218">
+        <v>1.875</v>
+      </c>
+      <c r="V218">
+        <v>1.975</v>
+      </c>
+      <c r="W218">
+        <v>1.15</v>
+      </c>
+      <c r="X218">
+        <v>-1</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
+        <v>1</v>
+      </c>
+      <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.4375</v>
+      </c>
+      <c r="AC218">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6880917</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F219" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>47</v>
+      </c>
+      <c r="K219">
+        <v>1.85</v>
+      </c>
+      <c r="L219">
+        <v>3.8</v>
+      </c>
+      <c r="M219">
+        <v>3.2</v>
+      </c>
+      <c r="N219">
+        <v>1.85</v>
+      </c>
+      <c r="O219">
+        <v>3.75</v>
+      </c>
+      <c r="P219">
+        <v>3.1</v>
+      </c>
+      <c r="Q219">
+        <v>-0.5</v>
+      </c>
+      <c r="R219">
+        <v>1.95</v>
+      </c>
+      <c r="S219">
+        <v>1.85</v>
+      </c>
+      <c r="T219">
+        <v>2.75</v>
+      </c>
+      <c r="U219">
+        <v>1.95</v>
+      </c>
+      <c r="V219">
+        <v>1.85</v>
+      </c>
+      <c r="W219">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0.95</v>
+      </c>
+      <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>0.95</v>
+      </c>
+      <c r="AC219">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -133,19 +133,19 @@
     <t>Eilenburg</t>
   </si>
   <si>
-    <t>Carl Zeiss Jena</t>
+    <t>Hansa Rostock II</t>
   </si>
   <si>
-    <t>Hansa Rostock II</t>
+    <t>Carl Zeiss Jena</t>
   </si>
   <si>
     <t>Cottbus</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6880838</v>
+        <v>6882861</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6882861</v>
+        <v>6880838</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N13">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>1.75</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
+        <v>2.7</v>
+      </c>
+      <c r="N16">
+        <v>2.1</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6879930</v>
+        <v>6880287</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>2.25</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
         <v>4</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.181</v>
-      </c>
-      <c r="O18">
-        <v>6.5</v>
-      </c>
       <c r="P18">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q18">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
+        <v>1.925</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1.8</v>
+      </c>
+      <c r="V18">
         <v>2.05</v>
       </c>
-      <c r="S18">
-        <v>1.8</v>
-      </c>
-      <c r="T18">
-        <v>3.5</v>
-      </c>
-      <c r="U18">
-        <v>1.875</v>
-      </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.925</v>
+      </c>
+      <c r="AB18">
         <v>0.8</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6880127</v>
+        <v>6880840</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
         <v>1.5</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
         <v>1.875</v>
       </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6880287</v>
+        <v>6880127</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O20">
         <v>4</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.925</v>
-      </c>
-      <c r="AB20">
-        <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6880840</v>
+        <v>6879930</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>1.5</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>2.25</v>
-      </c>
-      <c r="L21">
-        <v>3.75</v>
-      </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P21">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880839</v>
+        <v>6882860</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,55 +2503,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
+        <v>2.6</v>
+      </c>
+      <c r="L23">
+        <v>3.6</v>
+      </c>
+      <c r="M23">
+        <v>2.2</v>
+      </c>
+      <c r="N23">
+        <v>2.8</v>
+      </c>
+      <c r="O23">
+        <v>3.6</v>
+      </c>
+      <c r="P23">
         <v>2.05</v>
       </c>
-      <c r="L23">
-        <v>3.5</v>
-      </c>
-      <c r="M23">
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
+        <v>1.875</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <v>2.5</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>2.375</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.85</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2560,19 +2560,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6882860</v>
+        <v>6880839</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,55 +2681,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
         <v>2</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2738,19 +2738,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
+        <v>2.75</v>
+      </c>
+      <c r="N27">
+        <v>2.15</v>
+      </c>
+      <c r="O27">
+        <v>3.6</v>
+      </c>
+      <c r="P27">
+        <v>2.625</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.65</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <v>3.8</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3.5</v>
-      </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.925</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,10 +3037,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3304,7 +3304,7 @@
         <v>45158.46180555555</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3396,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3485,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6880445</v>
+        <v>6880132</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6880132</v>
+        <v>6880445</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>1.727</v>
+      </c>
+      <c r="L36">
+        <v>3.75</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
         <v>3</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36">
-        <v>1.833</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36">
-        <v>3.1</v>
-      </c>
-      <c r="N36">
-        <v>1.7</v>
-      </c>
-      <c r="O36">
-        <v>4</v>
-      </c>
-      <c r="P36">
-        <v>3.5</v>
-      </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6882858</v>
+        <v>6880131</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,25 +3764,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N37">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q37">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,19 +3791,19 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3818,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6880131</v>
+        <v>6882858</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3853,25 +3853,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R38">
         <v>1.975</v>
@@ -3880,19 +3880,19 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -4372,7 +4372,7 @@
         <v>45171.375</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880289</v>
+        <v>6880491</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,76 +4906,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880447</v>
+        <v>6880289</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q51">
         <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z51">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880491</v>
+        <v>6880447</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,13 +5084,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5099,43 +5099,43 @@
         <v>47</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5144,16 +5144,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5176,7 +5176,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6880135</v>
+        <v>6879933</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,10 +5351,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5366,46 +5366,46 @@
         <v>48</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L55">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M55">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P55">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
+        <v>1.95</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
         <v>1.825</v>
       </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5414,13 +5414,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6882856</v>
+        <v>6880135</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N56">
+        <v>1.571</v>
+      </c>
+      <c r="O56">
         <v>4</v>
       </c>
-      <c r="O56">
-        <v>5</v>
-      </c>
       <c r="P56">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y56">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6879933</v>
+        <v>6882856</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,49 +5529,49 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
         <v>42</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
         <v>1.825</v>
@@ -5583,22 +5583,22 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6880857</v>
+        <v>6880855</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
+        <v>2.45</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.35</v>
+      </c>
+      <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
         <v>2.2</v>
       </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <v>2.1</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.1</v>
-      </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6880855</v>
+        <v>6880857</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6880860</v>
+        <v>6880861</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,55 +6508,55 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>49</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>2.6</v>
+      </c>
+      <c r="N68">
         <v>3.75</v>
       </c>
-      <c r="M68">
-        <v>2.875</v>
-      </c>
-      <c r="N68">
-        <v>1.7</v>
-      </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
         <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6565,19 +6565,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
+        <v>0.375</v>
+      </c>
+      <c r="AC68">
         <v>-0.5</v>
-      </c>
-      <c r="AC68">
-        <v>0.425</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6880291</v>
+        <v>6880860</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3.25</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
       <c r="W69">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6880861</v>
+        <v>6880291</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>2.55</v>
+      </c>
+      <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
         <v>2.3</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>2.6</v>
-      </c>
       <c r="N70">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
         <v>3.5</v>
       </c>
       <c r="P70">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
         <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7131,7 +7131,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>38</v>
@@ -7223,7 +7223,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6880449</v>
+        <v>6880864</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
+        <v>2.625</v>
+      </c>
+      <c r="N77">
         <v>2.2</v>
       </c>
-      <c r="N77">
-        <v>2.8</v>
-      </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880864</v>
+        <v>6880139</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,73 +7487,73 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
         <v>3</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z79">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7576,7 +7576,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6882853</v>
+        <v>6880865</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>2.25</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="N81">
-        <v>1.615</v>
-      </c>
-      <c r="O81">
-        <v>4</v>
-      </c>
       <c r="P81">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.75</v>
+      </c>
+      <c r="S81">
+        <v>2.125</v>
+      </c>
+      <c r="T81">
+        <v>2.75</v>
+      </c>
+      <c r="U81">
         <v>1.825</v>
       </c>
-      <c r="S81">
-        <v>1.975</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
-      <c r="U81">
-        <v>1.875</v>
-      </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6880865</v>
+        <v>6882853</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,76 +7754,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>1.615</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <v>-0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="N82">
-        <v>2.25</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>2.625</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>1.75</v>
-      </c>
-      <c r="S82">
-        <v>2.125</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8110,7 +8110,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
@@ -8199,7 +8199,7 @@
         <v>45218.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6880293</v>
+        <v>6880868</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,55 +8288,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8345,19 +8345,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880868</v>
+        <v>6880293</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,55 +8466,55 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>49</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q90">
         <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8523,19 +8523,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6882851</v>
+        <v>6880871</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,10 +9356,10 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
         <v>39</v>
-      </c>
-      <c r="G100" t="s">
-        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9371,43 +9371,43 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N100">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6880143</v>
+        <v>6880873</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,73 +9893,73 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K106">
-        <v>1.5</v>
-      </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N106">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.775</v>
-      </c>
       <c r="V106">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y106">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6880873</v>
+        <v>6880143</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,73 +9982,73 @@
         <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>1.3</v>
+      </c>
+      <c r="O107">
+        <v>5</v>
+      </c>
+      <c r="P107">
+        <v>6.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.5</v>
+      </c>
+      <c r="R107">
         <v>1.95</v>
       </c>
-      <c r="N107">
-        <v>3.1</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
-      <c r="P107">
-        <v>1.95</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.8</v>
-      </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6880874</v>
+        <v>6880872</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,58 +10157,58 @@
         <v>45235.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>4</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N109">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
         <v>4</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.6499999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,13 +10217,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6880872</v>
+        <v>6880874</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,58 +10246,58 @@
         <v>45235.375</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>4</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>47</v>
       </c>
       <c r="K110">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O110">
         <v>4</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>2.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10424,7 +10424,7 @@
         <v>45238.625</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880145</v>
+        <v>6880876</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,13 +10602,13 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10617,43 +10617,43 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.75</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
         <v>1.85</v>
       </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>3.25</v>
-      </c>
-      <c r="U114">
-        <v>1.875</v>
-      </c>
-      <c r="V114">
-        <v>1.925</v>
-      </c>
       <c r="W114">
-        <v>5.5</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>0.95</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6880876</v>
+        <v>6880145</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,13 +10691,13 @@
         <v>45240.625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>42</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10706,43 +10706,43 @@
         <v>47</v>
       </c>
       <c r="K115">
+        <v>3.25</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
         <v>1.8</v>
       </c>
-      <c r="L115">
-        <v>3.75</v>
-      </c>
-      <c r="M115">
-        <v>3.4</v>
-      </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.75</v>
-      </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10751,7 +10751,7 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10760,7 +10760,7 @@
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6879941</v>
+        <v>6880147</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>13</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O122">
         <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6880147</v>
+        <v>6879941</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45254.625</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>13</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O124">
         <v>3.75</v>
       </c>
       <c r="P124">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11848,7 +11848,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11937,10 +11937,10 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12382,7 +12382,7 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -12649,7 +12649,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
         <v>34</v>
@@ -12738,7 +12738,7 @@
         <v>45277.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12827,7 +12827,7 @@
         <v>45279.625</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
@@ -12919,7 +12919,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13097,7 +13097,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6880299</v>
+        <v>6879945</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>4.75</v>
+      </c>
+      <c r="N145">
+        <v>1.571</v>
+      </c>
+      <c r="O145">
         <v>3.75</v>
       </c>
-      <c r="M145">
-        <v>3.6</v>
-      </c>
-      <c r="N145">
-        <v>2.1</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6879945</v>
+        <v>6880299</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13717,7 +13717,7 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6880157</v>
+        <v>6880300</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,73 +14073,73 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153">
+        <v>1.5</v>
+      </c>
+      <c r="L153">
         <v>4</v>
       </c>
-      <c r="J153" t="s">
-        <v>49</v>
-      </c>
-      <c r="K153">
-        <v>2.4</v>
-      </c>
-      <c r="L153">
-        <v>3.4</v>
-      </c>
       <c r="M153">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880300</v>
+        <v>6880157</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,73 +14162,73 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154">
+        <v>2.4</v>
+      </c>
+      <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
+        <v>2.5</v>
+      </c>
+      <c r="N154">
         <v>3</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
-      <c r="J154" t="s">
-        <v>47</v>
-      </c>
-      <c r="K154">
-        <v>1.5</v>
-      </c>
-      <c r="L154">
-        <v>4</v>
-      </c>
-      <c r="M154">
-        <v>5</v>
-      </c>
-      <c r="N154">
-        <v>1.5</v>
-      </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14251,7 +14251,7 @@
         <v>45325.5</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14343,7 +14343,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14521,7 +14521,7 @@
         <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,46 +14696,46 @@
         <v>45329.625</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>47</v>
       </c>
       <c r="K160">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -14744,10 +14744,10 @@
         <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14756,16 +14756,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
+        <v>0.4125</v>
+      </c>
+      <c r="AA160">
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M161">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N161">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
-      </c>
-      <c r="S161">
-        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -14833,10 +14833,10 @@
         <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14877,7 +14877,7 @@
         <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6879947</v>
+        <v>6880901</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
         <v>1.8</v>
@@ -15005,34 +15005,34 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6880901</v>
+        <v>6879947</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P164">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R164">
         <v>1.8</v>
@@ -15094,34 +15094,34 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6882842</v>
+        <v>6880159</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,43 +15230,43 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
         <v>1.975</v>
@@ -15275,31 +15275,31 @@
         <v>2.5</v>
       </c>
       <c r="U166">
+        <v>1.75</v>
+      </c>
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
         <v>0.95</v>
-      </c>
-      <c r="AC166">
-        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6880158</v>
+        <v>6882842</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,73 +15319,73 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="L167">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167">
+        <v>3.2</v>
+      </c>
+      <c r="P167">
+        <v>2.2</v>
+      </c>
+      <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.875</v>
+      </c>
+      <c r="S167">
+        <v>1.975</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
+        <v>1.9</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
         <v>1.2</v>
       </c>
-      <c r="O167">
-        <v>7</v>
-      </c>
-      <c r="P167">
-        <v>8</v>
-      </c>
-      <c r="Q167">
-        <v>-1.75</v>
-      </c>
-      <c r="R167">
-        <v>1.75</v>
-      </c>
-      <c r="S167">
-        <v>1.95</v>
-      </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>1.8</v>
-      </c>
-      <c r="V167">
-        <v>2</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>6</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB167">
         <v>0.95</v>
-      </c>
-      <c r="AB167">
-        <v>0.8</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6880159</v>
+        <v>6880158</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,76 +15408,76 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M168">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15497,7 +15497,7 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -15675,7 +15675,7 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15764,7 +15764,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
         <v>33</v>
@@ -15945,7 +15945,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>45343.625</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>36</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880162</v>
+        <v>6880501</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L180">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N180">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880458</v>
+        <v>6880162</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K181">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M181">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N181">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R181">
         <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB181">
         <v>0.825</v>
       </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>-1</v>
-      </c>
       <c r="AC181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6880501</v>
+        <v>6880458</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L182">
         <v>3.4</v>
       </c>
       <c r="M182">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X182">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA182">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16921,7 +16921,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17013,7 +17013,7 @@
         <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6880907</v>
+        <v>6880163</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45347.375</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M187">
+        <v>6</v>
+      </c>
+      <c r="N187">
+        <v>1.75</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
         <v>4</v>
       </c>
-      <c r="N187">
-        <v>2.15</v>
-      </c>
-      <c r="O187">
-        <v>3.4</v>
-      </c>
-      <c r="P187">
-        <v>2.9</v>
-      </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
+        <v>1.85</v>
+      </c>
+      <c r="S187">
         <v>1.95</v>
       </c>
-      <c r="S187">
-        <v>1.85</v>
-      </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6880163</v>
+        <v>6880907</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
         <v>4</v>
       </c>
-      <c r="M188">
-        <v>6</v>
-      </c>
       <c r="N188">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>2.4</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>-0.5</v>
       </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.9</v>
-      </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.5</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
       <c r="AA188">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17544,7 +17544,7 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
         <v>37</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6880502</v>
+        <v>6880908</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45353.375</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>3.4</v>
+      </c>
+      <c r="N195">
+        <v>1.727</v>
+      </c>
+      <c r="O195">
         <v>3.75</v>
       </c>
-      <c r="M195">
-        <v>2.5</v>
-      </c>
-      <c r="N195">
-        <v>2.6</v>
-      </c>
-      <c r="O195">
-        <v>3.6</v>
-      </c>
       <c r="P195">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X195">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6880908</v>
+        <v>6880502</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45353.375</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>2.5</v>
+      </c>
+      <c r="N196">
+        <v>2.6</v>
+      </c>
+      <c r="O196">
         <v>3.6</v>
       </c>
-      <c r="M196">
-        <v>3.4</v>
-      </c>
-      <c r="N196">
-        <v>1.727</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
       <c r="P196">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.9</v>
+      </c>
+      <c r="V196">
+        <v>1.9</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>2.6</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.4</v>
+      </c>
+      <c r="AA196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>1.75</v>
-      </c>
-      <c r="S196">
-        <v>1.95</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
-      <c r="W196">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
-        <v>0.75</v>
-      </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,10 +17989,10 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6880302</v>
+        <v>6879949</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,76 +18167,76 @@
         <v>45354.375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
+        <v>1.825</v>
+      </c>
+      <c r="S199">
+        <v>1.975</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
         <v>1.925</v>
       </c>
-      <c r="S199">
-        <v>1.925</v>
-      </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6880909</v>
+        <v>6880302</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,64 +18256,64 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="O200">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P200">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
         <v>1.925</v>
       </c>
       <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
+        <v>2</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
         <v>3</v>
       </c>
-      <c r="U200">
-        <v>1.95</v>
-      </c>
-      <c r="V200">
-        <v>1.85</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
       <c r="Y200">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
@@ -18322,10 +18322,10 @@
         <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6879949</v>
+        <v>6880909</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,55 +18345,55 @@
         <v>45354.375</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>49</v>
       </c>
       <c r="K201">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L201">
         <v>3.75</v>
       </c>
       <c r="M201">
+        <v>1.75</v>
+      </c>
+      <c r="N201">
+        <v>3.75</v>
+      </c>
+      <c r="O201">
+        <v>3.8</v>
+      </c>
+      <c r="P201">
+        <v>1.7</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.875</v>
+      </c>
+      <c r="S201">
+        <v>1.925</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
         <v>1.95</v>
       </c>
-      <c r="N201">
-        <v>2.8</v>
-      </c>
-      <c r="O201">
-        <v>3.4</v>
-      </c>
-      <c r="P201">
-        <v>2.15</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.825</v>
-      </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
-      <c r="U201">
-        <v>1.925</v>
-      </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6880912</v>
+        <v>6880166</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45359.625</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K205">
+        <v>1.333</v>
+      </c>
+      <c r="L205">
+        <v>5</v>
+      </c>
+      <c r="M205">
+        <v>6</v>
+      </c>
+      <c r="N205">
+        <v>1.45</v>
+      </c>
+      <c r="O205">
+        <v>4.333</v>
+      </c>
+      <c r="P205">
+        <v>5.25</v>
+      </c>
+      <c r="Q205">
+        <v>-1.25</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
         <v>3</v>
       </c>
-      <c r="L205">
-        <v>4</v>
-      </c>
-      <c r="M205">
-        <v>1.909</v>
-      </c>
-      <c r="N205">
-        <v>2.875</v>
-      </c>
-      <c r="O205">
-        <v>3.5</v>
-      </c>
-      <c r="P205">
-        <v>2.1</v>
-      </c>
-      <c r="Q205">
-        <v>0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.825</v>
-      </c>
-      <c r="S205">
-        <v>1.975</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
       <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
         <v>1.85</v>
       </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y205">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6882838</v>
+        <v>6880912</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,55 +18790,55 @@
         <v>45359.625</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>49</v>
       </c>
       <c r="K206">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L206">
         <v>4</v>
       </c>
       <c r="M206">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18847,19 +18847,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB206">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6880166</v>
+        <v>6882838</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45359.625</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M207">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N207">
+        <v>2.3</v>
+      </c>
+      <c r="O207">
+        <v>3.6</v>
+      </c>
+      <c r="P207">
+        <v>2.45</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>2</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
+        <v>1.875</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
         <v>1.45</v>
       </c>
-      <c r="O207">
-        <v>4.333</v>
-      </c>
-      <c r="P207">
-        <v>5.25</v>
-      </c>
-      <c r="Q207">
-        <v>-1.25</v>
-      </c>
-      <c r="R207">
-        <v>2</v>
-      </c>
-      <c r="S207">
-        <v>1.8</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.95</v>
-      </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
-      <c r="W207">
-        <v>-1</v>
-      </c>
-      <c r="X207">
-        <v>3.333</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB207">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6880911</v>
+        <v>6879950</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,40 +19235,40 @@
         <v>45361.375</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K211">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L211">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M211">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N211">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
         <v>1.975</v>
@@ -19280,31 +19280,31 @@
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6879950</v>
+        <v>6880911</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,40 +19324,40 @@
         <v>45361.375</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K212">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N212">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
         <v>1.975</v>
@@ -19369,31 +19369,31 @@
         <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W212">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6880916</v>
+        <v>6880915</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,46 +19502,46 @@
         <v>45366.625</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L214">
         <v>4</v>
       </c>
       <c r="M214">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N214">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.75</v>
@@ -19553,25 +19553,25 @@
         <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z214">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6880915</v>
+        <v>6880916</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,46 +19680,46 @@
         <v>45366.625</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L216">
         <v>4</v>
       </c>
       <c r="M216">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O216">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q216">
         <v>-0.75</v>
       </c>
       <c r="R216">
+        <v>1.725</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
-      </c>
-      <c r="S216">
-        <v>1.825</v>
       </c>
       <c r="T216">
         <v>2.75</v>
@@ -19731,25 +19731,25 @@
         <v>1.9</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19947,7 +19947,7 @@
         <v>45367.5</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
         <v>30</v>
@@ -20017,6 +20017,940 @@
       </c>
       <c r="AC219">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6880304</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45368.375</v>
+      </c>
+      <c r="F220" t="s">
+        <v>29</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>48</v>
+      </c>
+      <c r="K220">
+        <v>2.1</v>
+      </c>
+      <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
+        <v>2.7</v>
+      </c>
+      <c r="N220">
+        <v>1.909</v>
+      </c>
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>3.3</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.95</v>
+      </c>
+      <c r="S220">
+        <v>1.85</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.8</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>2.6</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6880914</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45368.375</v>
+      </c>
+      <c r="F221" t="s">
+        <v>32</v>
+      </c>
+      <c r="G221" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>47</v>
+      </c>
+      <c r="K221">
+        <v>1.571</v>
+      </c>
+      <c r="L221">
+        <v>4</v>
+      </c>
+      <c r="M221">
+        <v>4.5</v>
+      </c>
+      <c r="N221">
+        <v>1.571</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>4.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
+        <v>2.05</v>
+      </c>
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
+        <v>1.85</v>
+      </c>
+      <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>0.571</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
+        <v>0.8</v>
+      </c>
+      <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6880167</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45368.39583333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>44</v>
+      </c>
+      <c r="G222" t="s">
+        <v>41</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>49</v>
+      </c>
+      <c r="K222">
+        <v>3.4</v>
+      </c>
+      <c r="L222">
+        <v>3.75</v>
+      </c>
+      <c r="M222">
+        <v>1.8</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222">
+        <v>4</v>
+      </c>
+      <c r="P222">
+        <v>1.65</v>
+      </c>
+      <c r="Q222">
+        <v>0.75</v>
+      </c>
+      <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
+        <v>1.9</v>
+      </c>
+      <c r="T222">
+        <v>2.75</v>
+      </c>
+      <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
+        <v>1.85</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z222">
+        <v>-0.5</v>
+      </c>
+      <c r="AA222">
+        <v>0.45</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7845557</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45370.625</v>
+      </c>
+      <c r="F223" t="s">
+        <v>37</v>
+      </c>
+      <c r="G223" t="s">
+        <v>34</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>47</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3.6</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>2.15</v>
+      </c>
+      <c r="O223">
+        <v>3.3</v>
+      </c>
+      <c r="P223">
+        <v>3</v>
+      </c>
+      <c r="Q223">
+        <v>-0.25</v>
+      </c>
+      <c r="R223">
+        <v>1.95</v>
+      </c>
+      <c r="S223">
+        <v>1.85</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>1.95</v>
+      </c>
+      <c r="W223">
+        <v>1.15</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>0.95</v>
+      </c>
+      <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7836198</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45371.625</v>
+      </c>
+      <c r="F224" t="s">
+        <v>35</v>
+      </c>
+      <c r="G224" t="s">
+        <v>45</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>47</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>3.75</v>
+      </c>
+      <c r="M224">
+        <v>2.875</v>
+      </c>
+      <c r="N224">
+        <v>2.1</v>
+      </c>
+      <c r="O224">
+        <v>3.6</v>
+      </c>
+      <c r="P224">
+        <v>2.8</v>
+      </c>
+      <c r="Q224">
+        <v>-0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.875</v>
+      </c>
+      <c r="S224">
+        <v>1.925</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.75</v>
+      </c>
+      <c r="V224">
+        <v>1.95</v>
+      </c>
+      <c r="W224">
+        <v>1.1</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>0.875</v>
+      </c>
+      <c r="AA224">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7774569</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45374.375</v>
+      </c>
+      <c r="F225" t="s">
+        <v>33</v>
+      </c>
+      <c r="G225" t="s">
+        <v>42</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>47</v>
+      </c>
+      <c r="K225">
+        <v>1.85</v>
+      </c>
+      <c r="L225">
+        <v>4</v>
+      </c>
+      <c r="M225">
+        <v>3.1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225">
+        <v>4</v>
+      </c>
+      <c r="P225">
+        <v>2.75</v>
+      </c>
+      <c r="Q225">
+        <v>-0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.825</v>
+      </c>
+      <c r="S225">
+        <v>1.975</v>
+      </c>
+      <c r="T225">
+        <v>3</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
+        <v>1.8</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>0.825</v>
+      </c>
+      <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7782632</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45374.375</v>
+      </c>
+      <c r="F226" t="s">
+        <v>43</v>
+      </c>
+      <c r="G226" t="s">
+        <v>31</v>
+      </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>47</v>
+      </c>
+      <c r="K226">
+        <v>1.909</v>
+      </c>
+      <c r="L226">
+        <v>4</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226">
+        <v>2.5</v>
+      </c>
+      <c r="O226">
+        <v>3.6</v>
+      </c>
+      <c r="P226">
+        <v>2.25</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.725</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.75</v>
+      </c>
+      <c r="V226">
+        <v>1.95</v>
+      </c>
+      <c r="W226">
+        <v>1.5</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.75</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7846003</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45377.625</v>
+      </c>
+      <c r="F227" t="s">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>40</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>47</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>3.4</v>
+      </c>
+      <c r="M227">
+        <v>2.15</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227">
+        <v>3.5</v>
+      </c>
+      <c r="P227">
+        <v>2.1</v>
+      </c>
+      <c r="Q227">
+        <v>0.25</v>
+      </c>
+      <c r="R227">
+        <v>1.875</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
+        <v>1.9</v>
+      </c>
+      <c r="V227">
+        <v>1.9</v>
+      </c>
+      <c r="W227">
+        <v>2</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
+        <v>0.875</v>
+      </c>
+      <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6880305</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F228" t="s">
+        <v>36</v>
+      </c>
+      <c r="G228" t="s">
+        <v>33</v>
+      </c>
+      <c r="K228">
+        <v>3.4</v>
+      </c>
+      <c r="L228">
+        <v>3.75</v>
+      </c>
+      <c r="M228">
+        <v>1.8</v>
+      </c>
+      <c r="N228">
+        <v>4.5</v>
+      </c>
+      <c r="O228">
+        <v>4</v>
+      </c>
+      <c r="P228">
+        <v>1.6</v>
+      </c>
+      <c r="Q228">
+        <v>0.75</v>
+      </c>
+      <c r="R228">
+        <v>2.05</v>
+      </c>
+      <c r="S228">
+        <v>1.8</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.825</v>
+      </c>
+      <c r="V228">
+        <v>2.025</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6880921</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F229" t="s">
+        <v>30</v>
+      </c>
+      <c r="G229" t="s">
+        <v>32</v>
+      </c>
+      <c r="K229">
+        <v>4.75</v>
+      </c>
+      <c r="L229">
+        <v>4</v>
+      </c>
+      <c r="M229">
+        <v>1.533</v>
+      </c>
+      <c r="N229">
+        <v>3.25</v>
+      </c>
+      <c r="O229">
+        <v>4</v>
+      </c>
+      <c r="P229">
+        <v>1.8</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
+        <v>1.875</v>
+      </c>
+      <c r="T229">
+        <v>3</v>
+      </c>
+      <c r="U229">
+        <v>2</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6880919</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45380.375</v>
+      </c>
+      <c r="F230" t="s">
+        <v>31</v>
+      </c>
+      <c r="G230" t="s">
+        <v>29</v>
+      </c>
+      <c r="K230">
+        <v>2.2</v>
+      </c>
+      <c r="L230">
+        <v>3.75</v>
+      </c>
+      <c r="M230">
+        <v>2.55</v>
+      </c>
+      <c r="N230">
+        <v>2.2</v>
+      </c>
+      <c r="O230">
+        <v>3.75</v>
+      </c>
+      <c r="P230">
+        <v>2.55</v>
+      </c>
+      <c r="Q230">
+        <v>-0.25</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.925</v>
+      </c>
+      <c r="V230">
+        <v>1.925</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,22 +103,25 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
+    <t>Hertha Berlin II</t>
+  </si>
+  <si>
     <t>FC Lok Leipzig</t>
   </si>
   <si>
     <t>RotWeiss Erfurt</t>
   </si>
   <si>
-    <t>Hertha Berlin II</t>
+    <t>BFC Dynamo</t>
   </si>
   <si>
     <t>Greifswalder SV 04</t>
   </si>
   <si>
-    <t>BFC Dynamo</t>
+    <t>Chemnitzer</t>
   </si>
   <si>
-    <t>Chemnitzer</t>
+    <t>Babelsberg 03</t>
   </si>
   <si>
     <t>Viktoria 89 Berlin</t>
@@ -127,16 +130,13 @@
     <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
-    <t>Babelsberg 03</t>
-  </si>
-  <si>
     <t>Eilenburg</t>
   </si>
   <si>
-    <t>Hansa Rostock II</t>
+    <t>Carl Zeiss Jena</t>
   </si>
   <si>
-    <t>Carl Zeiss Jena</t>
+    <t>Hansa Rostock II</t>
   </si>
   <si>
     <t>Cottbus</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6880443</v>
+        <v>6880835</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,55 +637,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O2">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>1.8</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
         <v>1.825</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>1.975</v>
       </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>1.975</v>
-      </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6882862</v>
+        <v>6880443</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,56 +726,56 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3">
+        <v>2.4</v>
+      </c>
+      <c r="O3">
+        <v>3.25</v>
+      </c>
+      <c r="P3">
+        <v>2.6</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.825</v>
+      </c>
+      <c r="S3">
+        <v>1.975</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
+        <v>1.825</v>
+      </c>
+      <c r="W3">
         <v>1.4</v>
       </c>
-      <c r="O3">
-        <v>4.2</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3">
-        <v>-1.25</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1.8</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X3">
         <v>-1</v>
       </c>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,10 +815,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -827,43 +827,43 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -872,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880124</v>
+        <v>6880487</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,43 +904,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -949,10 +949,10 @@
         <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880487</v>
+        <v>6880124</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,43 +993,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
         <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3</v>
@@ -1038,10 +1038,10 @@
         <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.875</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6880834</v>
+        <v>6880123</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1183,43 +1183,43 @@
         <v>47</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>4.75</v>
+        <v>0.833</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,13 +1228,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6879928</v>
+        <v>6880834</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,46 +1260,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
         <v>1.825</v>
@@ -1308,7 +1308,7 @@
         <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6880123</v>
+        <v>6879928</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
         <v>1.875</v>
       </c>
-      <c r="S10">
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
         <v>1.975</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6882861</v>
+        <v>6880838</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,73 +1527,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6880838</v>
+        <v>6882861</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6880287</v>
+        <v>6879930</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>1.5</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>2.5</v>
-      </c>
-      <c r="L18">
-        <v>3.75</v>
-      </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1.181</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y18">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6880840</v>
+        <v>6880127</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N19">
         <v>1.5</v>
       </c>
       <c r="O19">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
         <v>1.925</v>
       </c>
-      <c r="V19">
-        <v>1.875</v>
-      </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.925</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6880127</v>
+        <v>6880840</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N20">
         <v>1.5</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
+        <v>1.925</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6879930</v>
+        <v>6880287</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>2.25</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <v>1.181</v>
-      </c>
-      <c r="O21">
-        <v>6.5</v>
-      </c>
       <c r="P21">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q21">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
+        <v>1.925</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.8</v>
+      </c>
+      <c r="V21">
         <v>2.05</v>
       </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.975</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.925</v>
+      </c>
+      <c r="AB21">
         <v>0.8</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6882860</v>
+        <v>6880839</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,55 +2503,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2560,19 +2560,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2592,10 +2592,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6880839</v>
+        <v>6882860</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,55 +2681,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
+        <v>2.6</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.2</v>
+      </c>
+      <c r="N25">
+        <v>2.8</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
         <v>2.05</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
+      <c r="Q25">
+        <v>0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
+        <v>1.875</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>2.375</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
       <c r="U25">
         <v>2</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2738,19 +2738,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.375</v>
+        <v>1.05</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="V27">
-        <v>1.925</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
+        <v>2.75</v>
+      </c>
+      <c r="N28">
+        <v>2.15</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
+        <v>2.625</v>
+      </c>
+      <c r="Q28">
+        <v>-0.25</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
-      <c r="P28">
-        <v>3.8</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3.5</v>
-      </c>
       <c r="U28">
+        <v>1.875</v>
+      </c>
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y28">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>45158.46180555555</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6880489</v>
+        <v>6880848</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,58 +3393,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,10 +3459,10 @@
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6880848</v>
+        <v>6880489</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,58 +3482,58 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
         <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
+        <v>3.3</v>
+      </c>
+      <c r="M34">
+        <v>2.5</v>
+      </c>
+      <c r="N34">
+        <v>2.1</v>
+      </c>
+      <c r="O34">
         <v>3.4</v>
       </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-      <c r="N34">
-        <v>4.5</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
       <c r="P34">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
         <v>1.925</v>
       </c>
       <c r="S34">
+        <v>1.875</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
         <v>1.925</v>
       </c>
-      <c r="T34">
-        <v>3.25</v>
-      </c>
-      <c r="U34">
-        <v>2.025</v>
-      </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,10 +3548,10 @@
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3660,10 +3660,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3838,7 +3838,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4372,10 +4372,10 @@
         <v>45171.375</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6880490</v>
+        <v>6882857</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
         <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X46">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA46">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6882857</v>
+        <v>6880490</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.6</v>
       </c>
       <c r="M47">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
+        <v>1.875</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
         <v>1.95</v>
       </c>
-      <c r="T47">
-        <v>3.25</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4817,10 +4817,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880491</v>
+        <v>6880447</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,13 +4906,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4921,43 +4921,43 @@
         <v>47</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,16 +4966,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880289</v>
+        <v>6880491</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,76 +4995,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6880447</v>
+        <v>6880289</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,76 +5084,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L52">
         <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z52">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,10 +5173,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6880135</v>
+        <v>6882856</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56">
+        <v>2.5</v>
+      </c>
+      <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
+        <v>2.3</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>1.533</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1.925</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>3.25</v>
+      </c>
+      <c r="U56">
+        <v>1.825</v>
+      </c>
+      <c r="V56">
+        <v>1.975</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>48</v>
-      </c>
-      <c r="K56">
-        <v>1.444</v>
-      </c>
-      <c r="L56">
-        <v>4.333</v>
-      </c>
-      <c r="M56">
-        <v>5.25</v>
-      </c>
-      <c r="N56">
-        <v>1.571</v>
-      </c>
-      <c r="O56">
-        <v>4</v>
-      </c>
-      <c r="P56">
-        <v>4.333</v>
-      </c>
-      <c r="Q56">
-        <v>-1</v>
-      </c>
-      <c r="R56">
-        <v>2.025</v>
-      </c>
-      <c r="S56">
-        <v>1.825</v>
-      </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>3</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>-1</v>
-      </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6882856</v>
+        <v>6880135</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N57">
+        <v>1.571</v>
+      </c>
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="O57">
-        <v>5</v>
-      </c>
       <c r="P57">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y57">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5707,10 +5707,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
         <v>37</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6880858</v>
+        <v>6880137</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880137</v>
+        <v>6880858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
+        <v>1.571</v>
+      </c>
+      <c r="O63">
+        <v>3.75</v>
+      </c>
+      <c r="P63">
         <v>4.75</v>
       </c>
-      <c r="O63">
-        <v>4.5</v>
-      </c>
-      <c r="P63">
-        <v>1.45</v>
-      </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6152,10 +6152,10 @@
         <v>45192.37847222222</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6330,10 +6330,10 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -6422,7 +6422,7 @@
         <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6597,10 +6597,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,10 +6686,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6775,10 +6775,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6879935</v>
+        <v>6882854</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <v>3.75</v>
       </c>
       <c r="M74">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N74">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
         <v>1.8</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T74">
+        <v>3.25</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1.85</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>3</v>
       </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
-      <c r="W74">
-        <v>2.25</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6882854</v>
+        <v>6879935</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,76 +7131,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L75">
         <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N75">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
         <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7220,10 +7220,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7309,10 +7309,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7398,10 +7398,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
         <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6879936</v>
+        <v>6882853</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,13 +7576,13 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7591,43 +7591,43 @@
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O80">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6880865</v>
+        <v>6879936</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,61 +7665,61 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P81">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="V81">
-        <v>2.025</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7731,10 +7731,10 @@
         <v>-0</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6882853</v>
+        <v>6880865</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,76 +7754,76 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>2.25</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="N82">
-        <v>1.615</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
       <c r="P82">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>2.125</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,10 +7843,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8110,10 +8110,10 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8199,10 +8199,10 @@
         <v>45218.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8288,10 +8288,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6880493</v>
+        <v>6880293</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,10 +8377,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8392,40 +8392,40 @@
         <v>49</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8434,19 +8434,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC89">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6880293</v>
+        <v>6880493</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,10 +8466,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8481,61 +8481,61 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
+        <v>2.2</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
         <v>3.25</v>
       </c>
-      <c r="Q90">
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>1.2</v>
+      </c>
+      <c r="Z90">
+        <v>-1</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.95</v>
-      </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>1.75</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>2.25</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB90">
-        <v>0.75</v>
-      </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8822,10 +8822,10 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>5</v>
@@ -9000,10 +9000,10 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6880294</v>
+        <v>6879938</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
         <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6879938</v>
+        <v>6880294</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
         <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6880871</v>
+        <v>6882851</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,10 +9267,10 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
         <v>40</v>
-      </c>
-      <c r="G99" t="s">
-        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9282,43 +9282,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6882851</v>
+        <v>6880871</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,10 +9356,10 @@
         <v>45228.375</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9371,43 +9371,43 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45228.375</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>41</v>
@@ -9534,10 +9534,10 @@
         <v>45228.5</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9712,10 +9712,10 @@
         <v>45233.625</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9804,7 +9804,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10068,10 +10068,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10160,7 +10160,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10249,7 +10249,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -10424,10 +10424,10 @@
         <v>45238.625</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10513,10 +10513,10 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -10780,7 +10780,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -10869,7 +10869,7 @@
         <v>45241.5</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
         <v>41</v>
@@ -10958,10 +10958,10 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11047,10 +11047,10 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11406,7 +11406,7 @@
         <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11495,7 +11495,7 @@
         <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11940,7 +11940,7 @@
         <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12207,7 +12207,7 @@
         <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12382,10 +12382,10 @@
         <v>45272.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>34</v>
@@ -12738,10 +12738,10 @@
         <v>45277.375</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12827,7 +12827,7 @@
         <v>45279.625</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
@@ -12916,10 +12916,10 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>45315.625</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13097,7 +13097,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13183,7 +13183,7 @@
         <v>45318.375</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13361,7 +13361,7 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>46</v>
@@ -13450,7 +13450,7 @@
         <v>45319.375</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>45</v>
@@ -13539,10 +13539,10 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6879946</v>
+        <v>6880895</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45324.625</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H150">
+        <v>4</v>
+      </c>
+      <c r="I150">
         <v>1</v>
       </c>
-      <c r="I150">
-        <v>2</v>
-      </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6880895</v>
+        <v>6879946</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45324.625</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151" t="s">
+        <v>49</v>
+      </c>
+      <c r="K151">
+        <v>4.75</v>
+      </c>
+      <c r="L151">
         <v>4</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151" t="s">
-        <v>47</v>
-      </c>
-      <c r="K151">
-        <v>2.625</v>
-      </c>
-      <c r="L151">
-        <v>3.5</v>
-      </c>
       <c r="M151">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N151">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z151">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6880894</v>
+        <v>6880157</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,52 +13984,52 @@
         <v>45325.375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N152">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
         <v>1.9</v>
@@ -14038,22 +14038,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6880157</v>
+        <v>6880894</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,52 +14162,52 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154">
+        <v>1.615</v>
+      </c>
+      <c r="L154">
         <v>4</v>
       </c>
-      <c r="J154" t="s">
-        <v>49</v>
-      </c>
-      <c r="K154">
-        <v>2.4</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
       <c r="M154">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
         <v>1.9</v>
@@ -14216,22 +14216,22 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,10 +14251,10 @@
         <v>45325.5</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>42</v>
@@ -14610,7 +14610,7 @@
         <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,46 +14696,46 @@
         <v>45329.625</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>47</v>
       </c>
       <c r="K160">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M160">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -14744,10 +14744,10 @@
         <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14756,16 +14756,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L161">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N161">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -14833,10 +14833,10 @@
         <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
+        <v>0.4125</v>
+      </c>
+      <c r="AA161">
+        <v>-0.5</v>
+      </c>
+      <c r="AB161">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>-1</v>
-      </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
         <v>42</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6880901</v>
+        <v>6879947</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,40 +14963,40 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
         <v>0</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M163">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P163">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
         <v>1.8</v>
@@ -15005,34 +15005,34 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6879947</v>
+        <v>6880901</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,40 +15052,40 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L164">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N164">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O164">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
         <v>1.8</v>
@@ -15094,34 +15094,34 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15230,7 +15230,7 @@
         <v>45333.375</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
         <v>44</v>
@@ -15319,7 +15319,7 @@
         <v>45333.375</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15408,7 +15408,7 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>38</v>
@@ -15500,7 +15500,7 @@
         <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15589,7 +15589,7 @@
         <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15678,7 +15678,7 @@
         <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15764,10 +15764,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6882841</v>
+        <v>6880457</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,58 +15942,58 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6880457</v>
+        <v>6882841</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45340.375</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>47</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16209,7 +16209,7 @@
         <v>45342.625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16301,7 +16301,7 @@
         <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16387,10 +16387,10 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6880501</v>
+        <v>6880162</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M180">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880162</v>
+        <v>6880501</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L181">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N181">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y181">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16654,10 +16654,10 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16832,10 +16832,10 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16921,7 +16921,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17010,7 +17010,7 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6880163</v>
+        <v>6880907</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45347.375</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
         <v>4</v>
       </c>
-      <c r="M187">
-        <v>6</v>
-      </c>
       <c r="N187">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.4</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.85</v>
-      </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6880907</v>
+        <v>6880163</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M188">
+        <v>6</v>
+      </c>
+      <c r="N188">
+        <v>1.75</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
         <v>4</v>
       </c>
-      <c r="N188">
-        <v>2.15</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.9</v>
-      </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
+        <v>1.85</v>
+      </c>
+      <c r="S188">
         <v>1.95</v>
       </c>
-      <c r="S188">
-        <v>1.85</v>
-      </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7864790</v>
+        <v>7792819</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,49 +17277,49 @@
         <v>45349.625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M189">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N189">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q189">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U189">
         <v>1.75</v>
@@ -17328,25 +17328,25 @@
         <v>1.95</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X189">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7792819</v>
+        <v>7774567</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45349.625</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M190">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W190">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7774567</v>
+        <v>7864790</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,76 +17455,76 @@
         <v>45349.625</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="L191">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P191">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="Q191">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R191">
         <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y191">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7782560</v>
+        <v>7793355</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,43 +17544,43 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N192">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S192">
         <v>1.95</v>
@@ -17589,28 +17589,28 @@
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7793355</v>
+        <v>7782560</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,43 +17633,43 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
         <v>1.95</v>
@@ -17678,28 +17678,28 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>2.8</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
         <v>0.95</v>
       </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>0.75</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6880908</v>
+        <v>6880502</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,76 +17811,76 @@
         <v>45353.375</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>2.5</v>
+      </c>
+      <c r="N195">
+        <v>2.6</v>
+      </c>
+      <c r="O195">
         <v>3.6</v>
       </c>
-      <c r="M195">
-        <v>3.4</v>
-      </c>
-      <c r="N195">
-        <v>1.727</v>
-      </c>
-      <c r="O195">
-        <v>3.75</v>
-      </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q195">
+        <v>0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.9</v>
+      </c>
+      <c r="V195">
+        <v>1.9</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>2.6</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>0.4</v>
+      </c>
+      <c r="AA195">
         <v>-0.5</v>
       </c>
-      <c r="R195">
-        <v>1.75</v>
-      </c>
-      <c r="S195">
-        <v>1.95</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
-      <c r="W195">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
-      <c r="Z195">
-        <v>0.75</v>
-      </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6880502</v>
+        <v>6880908</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45353.375</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L196">
+        <v>3.6</v>
+      </c>
+      <c r="M196">
+        <v>3.4</v>
+      </c>
+      <c r="N196">
+        <v>1.727</v>
+      </c>
+      <c r="O196">
         <v>3.75</v>
       </c>
-      <c r="M196">
-        <v>2.5</v>
-      </c>
-      <c r="N196">
-        <v>2.6</v>
-      </c>
-      <c r="O196">
-        <v>3.6</v>
-      </c>
       <c r="P196">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18078,7 +18078,7 @@
         <v>45353.5</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
         <v>34</v>
@@ -18155,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6879949</v>
+        <v>6880909</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18167,55 +18167,55 @@
         <v>45354.375</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>49</v>
       </c>
       <c r="K199">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
         <v>3.75</v>
       </c>
       <c r="M199">
+        <v>1.75</v>
+      </c>
+      <c r="N199">
+        <v>3.75</v>
+      </c>
+      <c r="O199">
+        <v>3.8</v>
+      </c>
+      <c r="P199">
+        <v>1.7</v>
+      </c>
+      <c r="Q199">
+        <v>0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.875</v>
+      </c>
+      <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
         <v>1.95</v>
       </c>
-      <c r="N199">
-        <v>2.8</v>
-      </c>
-      <c r="O199">
-        <v>3.4</v>
-      </c>
-      <c r="P199">
-        <v>2.15</v>
-      </c>
-      <c r="Q199">
-        <v>0.25</v>
-      </c>
-      <c r="R199">
-        <v>1.825</v>
-      </c>
-      <c r="S199">
-        <v>1.975</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -18224,19 +18224,19 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18256,10 +18256,10 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6880909</v>
+        <v>6879949</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,56 +18345,56 @@
         <v>45354.375</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>49</v>
       </c>
       <c r="K201">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L201">
         <v>3.75</v>
       </c>
       <c r="M201">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N201">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
         <v>1.875</v>
       </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>4</v>
@@ -18523,7 +18523,7 @@
         <v>45357.625</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>46</v>
@@ -18612,7 +18612,7 @@
         <v>45357.625</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
         <v>43</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6880166</v>
+        <v>6880912</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,76 +18701,76 @@
         <v>45359.625</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="O205">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="V205">
-        <v>1.85</v>
-      </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>0.95</v>
-      </c>
-      <c r="AC205">
-        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6880912</v>
+        <v>6882838</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,55 +18790,55 @@
         <v>45359.625</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>49</v>
       </c>
       <c r="K206">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L206">
         <v>4</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N206">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18847,19 +18847,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC206">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6882838</v>
+        <v>6880166</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45359.625</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K207">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M207">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N207">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P207">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>1.8</v>
+      </c>
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
-      <c r="U207">
-        <v>1.975</v>
-      </c>
-      <c r="V207">
-        <v>1.875</v>
-      </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y207">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19057,10 +19057,10 @@
         <v>45360.375</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19146,10 +19146,10 @@
         <v>45360.5</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H210">
         <v>4</v>
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6879950</v>
+        <v>6880913</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45361.375</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
+        <v>5</v>
+      </c>
+      <c r="J211" t="s">
+        <v>49</v>
+      </c>
+      <c r="K211">
+        <v>2.1</v>
+      </c>
+      <c r="L211">
+        <v>3.6</v>
+      </c>
+      <c r="M211">
+        <v>2.8</v>
+      </c>
+      <c r="N211">
+        <v>2.7</v>
+      </c>
+      <c r="O211">
+        <v>3.2</v>
+      </c>
+      <c r="P211">
+        <v>2.3</v>
+      </c>
+      <c r="Q211">
         <v>0</v>
       </c>
-      <c r="J211" t="s">
-        <v>47</v>
-      </c>
-      <c r="K211">
-        <v>1.5</v>
-      </c>
-      <c r="L211">
-        <v>4</v>
-      </c>
-      <c r="M211">
-        <v>5</v>
-      </c>
-      <c r="N211">
-        <v>1.7</v>
-      </c>
-      <c r="O211">
-        <v>3.5</v>
-      </c>
-      <c r="P211">
-        <v>4.2</v>
-      </c>
-      <c r="Q211">
-        <v>-0.75</v>
-      </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S211">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
+        <v>1.85</v>
+      </c>
+      <c r="V211">
         <v>1.95</v>
       </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
       <c r="W211">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6880913</v>
+        <v>6879950</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45361.375</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>47</v>
+      </c>
+      <c r="K213">
+        <v>1.5</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
         <v>5</v>
       </c>
-      <c r="J213" t="s">
-        <v>49</v>
-      </c>
-      <c r="K213">
-        <v>2.1</v>
-      </c>
-      <c r="L213">
-        <v>3.6</v>
-      </c>
-      <c r="M213">
-        <v>2.8</v>
-      </c>
       <c r="N213">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6880915</v>
+        <v>6879951</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,76 +19502,76 @@
         <v>45366.625</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L214">
+        <v>4.2</v>
+      </c>
+      <c r="M214">
+        <v>5.5</v>
+      </c>
+      <c r="N214">
+        <v>1.6</v>
+      </c>
+      <c r="O214">
         <v>4</v>
       </c>
-      <c r="M214">
-        <v>5</v>
-      </c>
-      <c r="N214">
-        <v>1.7</v>
-      </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
       <c r="P214">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6879951</v>
+        <v>6880915</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45366.625</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L215">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M215">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N215">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
         <v>4</v>
-      </c>
-      <c r="P215">
-        <v>4.333</v>
       </c>
       <c r="Q215">
         <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z215">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19769,7 +19769,7 @@
         <v>45367.375</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
         <v>34</v>
@@ -19861,7 +19861,7 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19947,10 +19947,10 @@
         <v>45367.5</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -20036,10 +20036,10 @@
         <v>45368.375</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20125,10 +20125,10 @@
         <v>45368.375</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20303,7 +20303,7 @@
         <v>45370.625</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
         <v>34</v>
@@ -20392,7 +20392,7 @@
         <v>45371.625</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
         <v>45</v>
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7774569</v>
+        <v>7782632</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,58 +20481,58 @@
         <v>45374.375</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H225">
         <v>3</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>47</v>
       </c>
       <c r="K225">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L225">
         <v>4</v>
       </c>
       <c r="M225">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N225">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S225">
         <v>1.975</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X225">
         <v>-1</v>
@@ -20541,13 +20541,13 @@
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC225">
         <v>-1</v>
@@ -20558,7 +20558,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7782632</v>
+        <v>7774569</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,58 +20570,58 @@
         <v>45374.375</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H226">
         <v>3</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>47</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L226">
         <v>4</v>
       </c>
       <c r="M226">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P226">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
         <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20630,13 +20630,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20659,10 +20659,10 @@
         <v>45377.625</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20736,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6880305</v>
+        <v>7846061</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,64 +20745,79 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45379.625</v>
+        <v>45378.60416666666</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>48</v>
       </c>
       <c r="K228">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="O228">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P228">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q228">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S228">
         <v>1.8</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
         <v>0</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6880921</v>
+        <v>7845980</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,64 +20834,79 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45379.625</v>
+        <v>45378.625</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>1.533</v>
+        <v>1.869</v>
       </c>
       <c r="N229">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R229">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
         <v>1.85</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.95</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20884,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6880919</v>
+        <v>6880305</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20893,34 +20923,43 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45380.375</v>
+        <v>45379.625</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L230">
         <v>3.75</v>
       </c>
       <c r="M230">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="N230">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="O230">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R230">
         <v>2.05</v>
@@ -20932,24 +20971,267 @@
         <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
+        <v>3.333</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>1.05</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6880921</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F231" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" t="s">
+        <v>33</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>48</v>
+      </c>
+      <c r="K231">
+        <v>4.75</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>1.533</v>
+      </c>
+      <c r="N231">
+        <v>2.8</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
+        <v>2.1</v>
+      </c>
+      <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.9</v>
+      </c>
+      <c r="S231">
+        <v>1.9</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.95</v>
+      </c>
+      <c r="V231">
+        <v>1.85</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>2.6</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>0.45</v>
+      </c>
+      <c r="AA231">
+        <v>-0.5</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6879952</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45381.375</v>
+      </c>
+      <c r="F232" t="s">
+        <v>46</v>
+      </c>
+      <c r="G232" t="s">
+        <v>42</v>
+      </c>
+      <c r="K232">
+        <v>5</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
+      <c r="M232">
+        <v>1.5</v>
+      </c>
+      <c r="N232">
+        <v>9.5</v>
+      </c>
+      <c r="O232">
+        <v>4.75</v>
+      </c>
+      <c r="P232">
+        <v>1.285</v>
+      </c>
+      <c r="Q232">
+        <v>1.5</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
+        <v>1.85</v>
+      </c>
+      <c r="T232">
+        <v>3</v>
+      </c>
+      <c r="U232">
+        <v>1.8</v>
+      </c>
+      <c r="V232">
+        <v>2.05</v>
+      </c>
+      <c r="W232">
         <v>0</v>
       </c>
-      <c r="X230">
+      <c r="X232">
         <v>0</v>
       </c>
-      <c r="Y230">
+      <c r="Y232">
         <v>0</v>
       </c>
-      <c r="Z230">
+      <c r="Z232">
         <v>0</v>
       </c>
-      <c r="AA230">
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6882836</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45381.375</v>
+      </c>
+      <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
+        <v>39</v>
+      </c>
+      <c r="K233">
+        <v>6</v>
+      </c>
+      <c r="L233">
+        <v>5</v>
+      </c>
+      <c r="M233">
+        <v>1.333</v>
+      </c>
+      <c r="N233">
+        <v>5</v>
+      </c>
+      <c r="O233">
+        <v>4.75</v>
+      </c>
+      <c r="P233">
+        <v>1.45</v>
+      </c>
+      <c r="Q233">
+        <v>1.25</v>
+      </c>
+      <c r="R233">
+        <v>1.85</v>
+      </c>
+      <c r="S233">
+        <v>2</v>
+      </c>
+      <c r="T233">
+        <v>3.25</v>
+      </c>
+      <c r="U233">
+        <v>2.025</v>
+      </c>
+      <c r="V233">
+        <v>1.825</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -112,19 +112,19 @@
     <t>RotWeiss Erfurt</t>
   </si>
   <si>
-    <t>BFC Dynamo</t>
+    <t>Greifswalder SV 04</t>
   </si>
   <si>
-    <t>Greifswalder SV 04</t>
+    <t>BFC Dynamo</t>
   </si>
   <si>
     <t>Chemnitzer</t>
   </si>
   <si>
-    <t>Babelsberg 03</t>
+    <t>Viktoria 89 Berlin</t>
   </si>
   <si>
-    <t>Viktoria 89 Berlin</t>
+    <t>Babelsberg 03</t>
   </si>
   <si>
     <t>FSV 63 Luckenwalde</t>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880487</v>
+        <v>6880124</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,43 +904,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -949,10 +949,10 @@
         <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.875</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880124</v>
+        <v>6880487</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,43 +993,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q6">
         <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>3</v>
@@ -1038,10 +1038,10 @@
         <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6880123</v>
+        <v>6880834</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1183,43 +1183,43 @@
         <v>47</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N8">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.833</v>
+        <v>4.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,13 +1228,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6880834</v>
+        <v>6880123</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1272,43 +1272,43 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
         <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>4.75</v>
+        <v>0.833</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,13 +1317,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AC9">
         <v>-0.5</v>
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
+        <v>2.7</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
+        <v>1.75</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2147,7 +2147,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6880840</v>
+        <v>6880287</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,73 +2236,73 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6880287</v>
+        <v>6880840</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,73 +2325,73 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
         <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
+        <v>0.375</v>
+      </c>
+      <c r="AB21">
         <v>0.925</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2506,7 +2506,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,7 +2592,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2773,7 +2773,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2859,7 +2859,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -2951,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>45169.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -4461,7 +4461,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4639,10 +4639,10 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
         <v>33</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4995,10 +4995,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5087,7 +5087,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5351,7 +5351,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5443,7 +5443,7 @@
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5707,7 +5707,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
@@ -5888,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6880137</v>
+        <v>6880858</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
+        <v>1.571</v>
+      </c>
+      <c r="O62">
+        <v>3.75</v>
+      </c>
+      <c r="P62">
         <v>4.75</v>
       </c>
-      <c r="O62">
-        <v>4.5</v>
-      </c>
-      <c r="P62">
-        <v>1.45</v>
-      </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880858</v>
+        <v>6880137</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N63">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y63">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6241,7 +6241,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6330,7 +6330,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6508,10 +6508,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
         <v>43</v>
-      </c>
-      <c r="G68" t="s">
-        <v>42</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6775,10 +6775,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7309,10 +7309,10 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
         <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,52 +7487,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O79">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V79">
         <v>1.95</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7665,7 +7665,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -7754,7 +7754,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>31</v>
@@ -7843,7 +7843,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -7935,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -8911,7 +8911,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>38</v>
@@ -9000,10 +9000,10 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9267,7 +9267,7 @@
         <v>45228.375</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>40</v>
@@ -9359,7 +9359,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>45228.375</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>41</v>
@@ -9712,7 +9712,7 @@
         <v>45233.625</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
         <v>37</v>
@@ -9890,10 +9890,10 @@
         <v>45234.375</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>45234.375</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
@@ -10071,7 +10071,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10249,7 +10249,7 @@
         <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880875</v>
+        <v>6880876</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
         <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880876</v>
+        <v>6880875</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" t="s">
         <v>35</v>
       </c>
-      <c r="G114" t="s">
-        <v>43</v>
-      </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N114">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
         <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>2.1</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1.05</v>
       </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.95</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10780,7 +10780,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6880296</v>
+        <v>6882849</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,49 +10958,49 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N118">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -11009,25 +11009,25 @@
         <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6882849</v>
+        <v>6880296</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,49 +11047,49 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N119">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11098,25 +11098,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X119">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>45251.625</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11406,7 +11406,7 @@
         <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11495,7 +11495,7 @@
         <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11762,7 +11762,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>45256.35416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -11937,7 +11937,7 @@
         <v>45256.375</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12385,7 +12385,7 @@
         <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>45318.375</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13539,7 +13539,7 @@
         <v>45319.39583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -13717,7 +13717,7 @@
         <v>45324.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6880895</v>
+        <v>6879946</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45324.625</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>4.75</v>
+      </c>
+      <c r="L150">
         <v>4</v>
       </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>2.625</v>
-      </c>
-      <c r="L150">
-        <v>3.5</v>
-      </c>
       <c r="M150">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N150">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6879946</v>
+        <v>6880895</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45324.625</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA151">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>45325.375</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
         <v>37</v>
@@ -14162,7 +14162,7 @@
         <v>45325.375</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14254,7 +14254,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,10 +14518,10 @@
         <v>45328.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,46 +14696,46 @@
         <v>45329.625</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>47</v>
       </c>
       <c r="K160">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -14744,10 +14744,10 @@
         <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14756,16 +14756,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
+        <v>0.4125</v>
+      </c>
+      <c r="AA160">
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M161">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N161">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
-      </c>
-      <c r="S161">
-        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -14833,10 +14833,10 @@
         <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14877,7 +14877,7 @@
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15052,10 +15052,10 @@
         <v>45332.375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15322,7 +15322,7 @@
         <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15408,7 +15408,7 @@
         <v>45333.375</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>38</v>
@@ -15497,7 +15497,7 @@
         <v>45335.625</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>30</v>
@@ -15675,10 +15675,10 @@
         <v>45339.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15942,7 +15942,7 @@
         <v>45340.375</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
         <v>30</v>
@@ -16209,7 +16209,7 @@
         <v>45342.625</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>45</v>
@@ -16298,7 +16298,7 @@
         <v>45343.625</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>37</v>
@@ -16387,7 +16387,7 @@
         <v>45343.625</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>31</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6880501</v>
+        <v>6880458</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L181">
         <v>3.4</v>
       </c>
       <c r="M181">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA181">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6880458</v>
+        <v>6880501</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.625</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
         <v>3.4</v>
       </c>
       <c r="M182">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N182">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6879948</v>
+        <v>6880301</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,40 +16743,40 @@
         <v>45346.375</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N183">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q183">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
         <v>1.875</v>
@@ -16785,22 +16785,22 @@
         <v>1.975</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
@@ -16809,10 +16809,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6880301</v>
+        <v>6879948</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,40 +16832,40 @@
         <v>45346.375</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P184">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R184">
         <v>1.875</v>
@@ -16874,22 +16874,22 @@
         <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
         <v>-1</v>
@@ -16898,10 +16898,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17102,7 +17102,7 @@
         <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>45347.375</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17369,7 +17369,7 @@
         <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7793355</v>
+        <v>7782560</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,43 +17544,43 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N192">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
         <v>1.95</v>
@@ -17589,28 +17589,28 @@
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>2.8</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
         <v>0.95</v>
       </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
-      <c r="Z192">
-        <v>0.75</v>
-      </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
       <c r="AB192">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7782560</v>
+        <v>7793355</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,43 +17633,43 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N193">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O193">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q193">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S193">
         <v>1.95</v>
@@ -17678,28 +17678,28 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X193">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17811,10 +17811,10 @@
         <v>45353.375</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17989,7 +17989,7 @@
         <v>45353.375</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
         <v>40</v>
@@ -18256,7 +18256,7 @@
         <v>45354.375</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>37</v>
@@ -18348,7 +18348,7 @@
         <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7792820</v>
+        <v>7774572</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45357.625</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K203">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L203">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M203">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N203">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X203">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7774572</v>
+        <v>7792820</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45357.625</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M204">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N204">
+        <v>1.65</v>
+      </c>
+      <c r="O204">
+        <v>4</v>
+      </c>
+      <c r="P204">
+        <v>4</v>
+      </c>
+      <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
         <v>1.95</v>
       </c>
-      <c r="O204">
-        <v>3.2</v>
-      </c>
-      <c r="P204">
-        <v>3.4</v>
-      </c>
-      <c r="Q204">
-        <v>-0.5</v>
-      </c>
-      <c r="R204">
-        <v>2</v>
-      </c>
-      <c r="S204">
-        <v>1.8</v>
-      </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
         <v>0.95</v>
       </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>1</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18704,7 +18704,7 @@
         <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18971,7 +18971,7 @@
         <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19060,7 +19060,7 @@
         <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19146,7 +19146,7 @@
         <v>45360.5</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19235,7 +19235,7 @@
         <v>45361.375</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19324,7 +19324,7 @@
         <v>45361.375</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
         <v>45</v>
@@ -19591,7 +19591,7 @@
         <v>45366.625</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
         <v>29</v>
@@ -19680,10 +19680,10 @@
         <v>45366.625</v>
       </c>
       <c r="F216" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" t="s">
         <v>42</v>
-      </c>
-      <c r="G216" t="s">
-        <v>43</v>
       </c>
       <c r="H216">
         <v>4</v>
@@ -19769,7 +19769,7 @@
         <v>45367.375</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
         <v>34</v>
@@ -20125,10 +20125,10 @@
         <v>45368.375</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20303,7 +20303,7 @@
         <v>45370.625</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
         <v>34</v>
@@ -20392,7 +20392,7 @@
         <v>45371.625</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
         <v>45</v>
@@ -20481,7 +20481,7 @@
         <v>45374.375</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>
@@ -20570,10 +20570,10 @@
         <v>45374.375</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20837,7 +20837,7 @@
         <v>45378.625</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s">
         <v>41</v>
@@ -20929,7 +20929,7 @@
         <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21018,7 +21018,7 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21107,7 +21107,7 @@
         <v>46</v>
       </c>
       <c r="G232" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K232">
         <v>5</v>
@@ -21119,31 +21119,31 @@
         <v>1.5</v>
       </c>
       <c r="N232">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O232">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P232">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="Q232">
         <v>1.5</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
         <v>3</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21193,13 +21193,13 @@
         <v>1.333</v>
       </c>
       <c r="N233">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O233">
         <v>4.75</v>
       </c>
       <c r="P233">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="Q233">
         <v>1.25</v>
@@ -21214,10 +21214,10 @@
         <v>3.25</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W233">
         <v>0</v>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -103,13 +103,13 @@
     <t>Germany Regionalliga North East</t>
   </si>
   <si>
+    <t>RotWeiss Erfurt</t>
+  </si>
+  <si>
     <t>Hertha Berlin II</t>
   </si>
   <si>
     <t>FC Lok Leipzig</t>
-  </si>
-  <si>
-    <t>RotWeiss Erfurt</t>
   </si>
   <si>
     <t>Greifswalder SV 04</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6880835</v>
+        <v>6882862</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,10 +637,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -649,43 +649,43 @@
         <v>47</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.375</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -694,16 +694,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6880443</v>
+        <v>6880835</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,55 +726,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
         <v>1.825</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>1.975</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6882862</v>
+        <v>6880443</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,56 +815,56 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
+        <v>2.4</v>
+      </c>
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
+        <v>2.6</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
+        <v>1.825</v>
+      </c>
+      <c r="W4">
         <v>1.4</v>
       </c>
-      <c r="O4">
-        <v>4.2</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>-1.25</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.8</v>
-      </c>
-      <c r="T4">
-        <v>2.75</v>
-      </c>
-      <c r="U4">
-        <v>1.9</v>
-      </c>
-      <c r="V4">
-        <v>1.9</v>
-      </c>
-      <c r="W4">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X4">
         <v>-1</v>
       </c>
@@ -872,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2325,7 +2325,7 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880128</v>
+        <v>6880841</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,10 +2414,10 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2429,43 +2429,43 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
         <v>1.9</v>
       </c>
       <c r="W22">
-        <v>0.45</v>
+        <v>1.875</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2474,16 +2474,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6880839</v>
+        <v>6880128</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
+        <v>1.333</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>1.45</v>
+      </c>
+      <c r="O23">
+        <v>4.75</v>
+      </c>
+      <c r="P23">
+        <v>4.5</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>2.05</v>
       </c>
-      <c r="L23">
-        <v>3.5</v>
-      </c>
-      <c r="M23">
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <v>2.5</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>2.375</v>
-      </c>
-      <c r="Q23">
+      <c r="U23">
+        <v>1.95</v>
+      </c>
+      <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>0.45</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.4</v>
+      </c>
+      <c r="AB23">
         <v>0</v>
       </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.85</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.85</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>1.375</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>0.5</v>
-      </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6880841</v>
+        <v>6882860</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,34 +2592,34 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N24">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
         <v>2.05</v>
@@ -2628,37 +2628,37 @@
         <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6882860</v>
+        <v>6880839</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,55 +2681,55 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
         <v>2</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2738,19 +2738,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.05</v>
+        <v>1.375</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2770,7 +2770,7 @@
         <v>45154.63888888889</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -2862,7 +2862,7 @@
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3660,7 +3660,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -3749,7 +3749,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
@@ -3927,7 +3927,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4108,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4820,7 +4820,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6880447</v>
+        <v>6880491</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,13 +4906,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4921,43 +4921,43 @@
         <v>47</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,16 +4966,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6880491</v>
+        <v>6880447</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,13 +4995,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5010,43 +5010,43 @@
         <v>47</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>3.6</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.8500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,16 +5055,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5262,7 +5262,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6880858</v>
+        <v>6880137</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,76 +5974,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6880137</v>
+        <v>6880858</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,76 +6063,76 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
+        <v>1.571</v>
+      </c>
+      <c r="O63">
+        <v>3.75</v>
+      </c>
+      <c r="P63">
         <v>4.75</v>
       </c>
-      <c r="O63">
-        <v>4.5</v>
-      </c>
-      <c r="P63">
-        <v>1.45</v>
-      </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6152,7 +6152,7 @@
         <v>45192.37847222222</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -6333,7 +6333,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -6597,7 +6597,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6689,7 +6689,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7220,7 +7220,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6880139</v>
+        <v>6880449</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,52 +7398,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
         <v>3</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V78">
         <v>1.95</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6880449</v>
+        <v>6880139</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,52 +7487,52 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N79">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
         <v>1.95</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z79">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7757,7 +7757,7 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8288,7 +8288,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>36</v>
@@ -8466,7 +8466,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8825,7 +8825,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>5</v>
@@ -9181,7 +9181,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9534,10 +9534,10 @@
         <v>45228.5</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10160,7 +10160,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10427,7 +10427,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6880876</v>
+        <v>6880875</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45240.625</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L113">
         <v>3.75</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N113">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
         <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>2.1</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1.05</v>
       </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>0.95</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6880875</v>
+        <v>6880876</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45240.625</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
         <v>3.75</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
         <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10869,7 +10869,7 @@
         <v>45241.5</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
         <v>41</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6882849</v>
+        <v>6880296</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,49 +10958,49 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
         <v>2</v>
@@ -11009,25 +11009,25 @@
         <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6880296</v>
+        <v>6882849</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,49 +11047,49 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N119">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
         <v>2</v>
@@ -11098,25 +11098,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11670,10 +11670,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12115,7 +12115,7 @@
         <v>45268.625</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12207,7 +12207,7 @@
         <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12741,7 +12741,7 @@
         <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45280.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>40</v>
@@ -13272,7 +13272,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13361,7 +13361,7 @@
         <v>45319.375</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>46</v>
@@ -13720,7 +13720,7 @@
         <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13987,7 +13987,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14684,7 +14684,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7659677</v>
+        <v>7644699</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14696,46 +14696,46 @@
         <v>45329.625</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>47</v>
       </c>
       <c r="K160">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M160">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
         <v>4</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.825</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -14744,10 +14744,10 @@
         <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>0.6000000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14756,16 +14756,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7644699</v>
+        <v>7659677</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45329.625</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
         <v>47</v>
       </c>
       <c r="K161">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L161">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N161">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -14833,10 +14833,10 @@
         <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>0.5329999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
+        <v>0.4125</v>
+      </c>
+      <c r="AA161">
+        <v>-0.5</v>
+      </c>
+      <c r="AB161">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>-1</v>
-      </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>45331.625</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>43</v>
@@ -14963,7 +14963,7 @@
         <v>45332.375</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15500,7 +15500,7 @@
         <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15856,7 +15856,7 @@
         <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>5</v>
@@ -15945,7 +15945,7 @@
         <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16123,7 +16123,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16390,7 +16390,7 @@
         <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16476,7 +16476,7 @@
         <v>45345.625</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16565,7 +16565,7 @@
         <v>45345.625</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>36</v>
@@ -17010,7 +17010,7 @@
         <v>45346.5</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>43</v>
@@ -17280,7 +17280,7 @@
         <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>3</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7782560</v>
+        <v>7793355</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,43 +17544,43 @@
         <v>45350.625</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N192">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S192">
         <v>1.95</v>
@@ -17589,28 +17589,28 @@
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7793355</v>
+        <v>7782560</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,43 +17633,43 @@
         <v>45350.625</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
         <v>1.95</v>
@@ -17678,28 +17678,28 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>2.8</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
         <v>0.95</v>
       </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
-      <c r="Y193">
-        <v>-1</v>
-      </c>
-      <c r="Z193">
-        <v>0.75</v>
-      </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
       <c r="AB193">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18078,7 +18078,7 @@
         <v>45353.5</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
         <v>34</v>
@@ -18437,7 +18437,7 @@
         <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>4</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7774572</v>
+        <v>7792820</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,76 +18523,76 @@
         <v>45357.625</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K203">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L203">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M203">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N203">
+        <v>1.65</v>
+      </c>
+      <c r="O203">
+        <v>4</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.85</v>
+      </c>
+      <c r="S203">
         <v>1.95</v>
       </c>
-      <c r="O203">
-        <v>3.2</v>
-      </c>
-      <c r="P203">
-        <v>3.4</v>
-      </c>
-      <c r="Q203">
-        <v>-0.5</v>
-      </c>
-      <c r="R203">
-        <v>2</v>
-      </c>
-      <c r="S203">
-        <v>1.8</v>
-      </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>3</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
         <v>0.95</v>
       </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>1</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7792820</v>
+        <v>7774572</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18612,76 +18612,76 @@
         <v>45357.625</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L204">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X204">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18701,7 +18701,7 @@
         <v>45359.625</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18879,7 +18879,7 @@
         <v>45359.625</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
         <v>38</v>
@@ -19149,7 +19149,7 @@
         <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>4</v>
@@ -19594,7 +19594,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19950,7 +19950,7 @@
         <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H219">
         <v>3</v>
@@ -20036,7 +20036,7 @@
         <v>45368.375</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>37</v>
@@ -20484,7 +20484,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H225">
         <v>3</v>
@@ -20659,7 +20659,7 @@
         <v>45377.625</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
         <v>39</v>
@@ -21015,7 +21015,7 @@
         <v>45379.625</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6879952</v>
+        <v>6880920</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,49 +21101,49 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45381.375</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K232">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M232">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P232">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q232">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
+        <v>2.025</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.9</v>
+      </c>
+      <c r="V232">
         <v>1.95</v>
-      </c>
-      <c r="S232">
-        <v>1.9</v>
-      </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>1.85</v>
-      </c>
-      <c r="V232">
-        <v>2</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6882836</v>
+        <v>6880918</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21175,34 +21175,34 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45381.375</v>
+        <v>45382.375</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M233">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="N233">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="O233">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="Q233">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
         <v>1.85</v>
@@ -21211,13 +21211,13 @@
         <v>2</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>0</v>

--- a/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
+++ b/Germany Regionalliga North East/Germany Regionalliga North East.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,22 +112,22 @@
     <t>FC Lok Leipzig</t>
   </si>
   <si>
-    <t>Greifswalder SV 04</t>
+    <t>BFC Dynamo</t>
   </si>
   <si>
-    <t>BFC Dynamo</t>
+    <t>Greifswalder SV 04</t>
   </si>
   <si>
     <t>Chemnitzer</t>
   </si>
   <si>
-    <t>Viktoria 89 Berlin</t>
+    <t>FSV 63 Luckenwalde</t>
   </si>
   <si>
     <t>Babelsberg 03</t>
   </si>
   <si>
-    <t>FSV 63 Luckenwalde</t>
+    <t>Viktoria 89 Berlin</t>
   </si>
   <si>
     <t>Eilenburg</t>
@@ -142,10 +142,10 @@
     <t>Cottbus</t>
   </si>
   <si>
-    <t>BSG Chemie Leipzig</t>
+    <t>VSG Altglienicke</t>
   </si>
   <si>
-    <t>VSG Altglienicke</t>
+    <t>BSG Chemie Leipzig</t>
   </si>
   <si>
     <t>ZFC Meuselwitz</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6880124</v>
+        <v>6880487</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,43 +904,43 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>3</v>
@@ -949,10 +949,10 @@
         <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6880487</v>
+        <v>6880124</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,43 +993,43 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
         <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>3</v>
@@ -1038,10 +1038,10 @@
         <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.875</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6880834</v>
+        <v>6879928</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,46 +1171,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>4.333</v>
+      </c>
+      <c r="P8">
         <v>5.75</v>
       </c>
-      <c r="O8">
-        <v>3.8</v>
-      </c>
-      <c r="P8">
-        <v>1.45</v>
-      </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>1.825</v>
@@ -1219,7 +1219,7 @@
         <v>1.975</v>
       </c>
       <c r="W8">
-        <v>4.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1228,16 +1228,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6879928</v>
+        <v>6880834</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,46 +1349,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
         <v>1.825</v>
@@ -1397,7 +1397,7 @@
         <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6880836</v>
+        <v>6880488</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,55 +1794,55 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>1.75</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6880488</v>
+        <v>6880836</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,55 +1883,55 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
+        <v>2.7</v>
+      </c>
+      <c r="N16">
+        <v>2.1</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1940,16 +1940,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6879930</v>
+        <v>6880840</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
+        <v>2.25</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
         <v>1.5</v>
       </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.181</v>
-      </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P18">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q18">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="V18">
-        <v>1.975</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X18">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6880127</v>
+        <v>6879930</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,61 +2147,61 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>48</v>
       </c>
       <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>1.181</v>
+      </c>
+      <c r="O19">
+        <v>6.5</v>
+      </c>
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>-2.25</v>
+      </c>
+      <c r="R19">
+        <v>2.05</v>
+      </c>
+      <c r="S19">
         <v>1.8</v>
       </c>
-      <c r="L19">
-        <v>3.8</v>
-      </c>
-      <c r="M19">
-        <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>1.5</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>1.825</v>
-      </c>
-      <c r="S19">
-        <v>1.975</v>
-      </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
         <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2210,13 +2210,13 @@
         <v>-1</v>
       </c>
       <c r="AA19">
+        <v>0.8</v>
+      </c>
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+      <c r="AC19">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6880287</v>
+        <v>6880127</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O20">
         <v>4</v>
       </c>
       <c r="P20">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.925</v>
-      </c>
-      <c r="AB20">
-        <v>0.8</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6880840</v>
+        <v>6880287</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,73 +2325,73 @@
         <v>45153.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L21">
         <v>3.75</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6880841</v>
+        <v>6882860</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,34 +2414,34 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
         <v>2.05</v>
@@ -2450,37 +2450,37 @@
         <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6882860</v>
+        <v>6880841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,34 +2592,34 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P24">
         <v>2.05</v>
@@ -2628,37 +2628,37 @@
         <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
+        <v>2.5</v>
+      </c>
+      <c r="U24">
+        <v>1.9</v>
+      </c>
+      <c r="V24">
+        <v>1.9</v>
+      </c>
+      <c r="W24">
         <v>1.875</v>
       </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2684,7 +2684,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6880843</v>
+        <v>6880844</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
+        <v>2.75</v>
+      </c>
+      <c r="N27">
+        <v>2.15</v>
+      </c>
+      <c r="O27">
+        <v>3.6</v>
+      </c>
+      <c r="P27">
+        <v>2.625</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>1.65</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <v>3.8</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3.5</v>
-      </c>
       <c r="U27">
+        <v>1.875</v>
+      </c>
+      <c r="V27">
         <v>1.925</v>
       </c>
-      <c r="V27">
-        <v>1.875</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.925</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6880844</v>
+        <v>6880843</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>45163.58333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3663,7 +3663,7 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6880131</v>
+        <v>6882858</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,25 +3764,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N37">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,19 +3791,19 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Y37">
         <v>-1</v>
@@ -3818,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6882858</v>
+        <v>6880131</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3853,25 +3853,25 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N38">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O38">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
         <v>1.975</v>
@@ -3880,19 +3880,19 @@
         <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3907,7 +3907,7 @@
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>45169.58333333334</v>
       </c>
     